--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sistemaseb-my.sharepoint.com/personal/andreh_silva_sebsa_com_br/Documents/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\gallery_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{F9686AA0-28F3-4506-96B3-18E9B860461E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A0BF737-E867-4CBA-80DF-C5BA0BA1A702}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13818CF9-A009-48E0-86A5-2CCB40FB659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,8 +31,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filtro 2" guid="{5DE1752A-9F1B-4496-A575-26FC461CE632}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filtro 1" guid="{CBCEDD35-89EB-4529-AFD1-E57F7F6E8C7B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 2" guid="{5DE1752A-9F1B-4496-A575-26FC461CE632}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10267" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10757" uniqueCount="1393">
   <si>
     <t>VOLUME/PROJETO</t>
   </si>
@@ -4308,6 +4308,12 @@
   </si>
   <si>
     <t>https://conexia.com.br</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>https://cdn.arvore.com.br/files.arvoredelivros.com.br/books/images/classicos-todolivro-joao-e-o-pe-de-feijao/intermediaria_9788537609408.jpeg</t>
   </si>
 </sst>
 </file>
@@ -4505,7 +4511,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4578,6 +4584,9 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
@@ -5510,10 +5519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C37FD76-4C09-409F-B9A8-72882E138BC1}">
-  <dimension ref="A1:M490"/>
+  <dimension ref="A1:N490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5530,10 +5539,11 @@
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="94.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="87.42578125" customWidth="1"/>
-    <col min="13" max="13" width="41.28515625" customWidth="1"/>
+    <col min="13" max="13" width="135.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5570,11 +5580,14 @@
       <c r="L1" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="66" t="s">
+        <v>1391</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5608,11 +5621,14 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N2" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5649,11 +5665,14 @@
       <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N3" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -5690,11 +5709,14 @@
       <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N4" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5731,11 +5753,14 @@
       <c r="L5" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N5" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5772,11 +5797,14 @@
       <c r="L6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N6" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -5813,11 +5841,14 @@
       <c r="L7" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="M7" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N7" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -5854,11 +5885,14 @@
       <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N8" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -5895,11 +5929,14 @@
       <c r="L9" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N9" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -5936,11 +5973,14 @@
       <c r="L10" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="M10" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N10" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -5977,11 +6017,14 @@
       <c r="L11" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="65" t="s">
+      <c r="M11" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N11" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -6015,11 +6058,14 @@
       <c r="K12" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N12" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -6056,11 +6102,14 @@
       <c r="L13" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N13" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -6094,11 +6143,14 @@
       <c r="K14" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="65" t="s">
+      <c r="M14" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N14" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -6135,11 +6187,14 @@
       <c r="L15" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="65" t="s">
+      <c r="M15" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N15" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -6176,11 +6231,14 @@
       <c r="L16" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N16" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -6217,11 +6275,14 @@
       <c r="L17" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="M17" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N17" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -6258,11 +6319,14 @@
       <c r="L18" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="65" t="s">
+      <c r="M18" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N18" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -6299,11 +6363,14 @@
       <c r="L19" t="s">
         <v>80</v>
       </c>
-      <c r="M19" s="65" t="s">
+      <c r="M19" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N19" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -6340,11 +6407,14 @@
       <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="M20" s="65" t="s">
+      <c r="M20" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N20" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -6381,11 +6451,14 @@
       <c r="L21" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="65" t="s">
+      <c r="M21" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N21" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -6422,11 +6495,14 @@
       <c r="L22" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="65" t="s">
+      <c r="M22" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N22" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -6463,11 +6539,14 @@
       <c r="L23" t="s">
         <v>93</v>
       </c>
-      <c r="M23" s="65" t="s">
+      <c r="M23" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N23" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -6504,11 +6583,14 @@
       <c r="L24" t="s">
         <v>95</v>
       </c>
-      <c r="M24" s="65" t="s">
+      <c r="M24" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N24" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -6545,11 +6627,14 @@
       <c r="L25" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="65" t="s">
+      <c r="M25" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N25" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -6586,11 +6671,14 @@
       <c r="L26" t="s">
         <v>100</v>
       </c>
-      <c r="M26" s="65" t="s">
+      <c r="M26" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N26" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -6627,11 +6715,14 @@
       <c r="L27" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="65" t="s">
+      <c r="M27" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N27" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -6665,11 +6756,14 @@
       <c r="K28" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="65" t="s">
+      <c r="M28" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N28" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -6706,11 +6800,14 @@
       <c r="L29" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="65" t="s">
+      <c r="M29" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N29" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -6747,11 +6844,14 @@
       <c r="L30" t="s">
         <v>36</v>
       </c>
-      <c r="M30" s="65" t="s">
+      <c r="M30" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N30" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -6785,11 +6885,14 @@
       <c r="K31" t="s">
         <v>19</v>
       </c>
-      <c r="M31" s="65" t="s">
+      <c r="M31" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N31" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -6826,11 +6929,14 @@
       <c r="L32" t="s">
         <v>116</v>
       </c>
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N32" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -6867,11 +6973,14 @@
       <c r="L33" t="s">
         <v>119</v>
       </c>
-      <c r="M33" s="65" t="s">
+      <c r="M33" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N33" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -6908,11 +7017,14 @@
       <c r="L34" t="s">
         <v>123</v>
       </c>
-      <c r="M34" s="65" t="s">
+      <c r="M34" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N34" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -6949,11 +7061,14 @@
       <c r="L35" t="s">
         <v>127</v>
       </c>
-      <c r="M35" s="65" t="s">
+      <c r="M35" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N35" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -6990,11 +7105,14 @@
       <c r="L36" t="s">
         <v>130</v>
       </c>
-      <c r="M36" s="65" t="s">
+      <c r="M36" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N36" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -7031,11 +7149,14 @@
       <c r="L37" t="s">
         <v>133</v>
       </c>
-      <c r="M37" s="65" t="s">
+      <c r="M37" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N37" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -7072,11 +7193,14 @@
       <c r="L38" t="s">
         <v>136</v>
       </c>
-      <c r="M38" s="65" t="s">
+      <c r="M38" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N38" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -7110,11 +7234,14 @@
       <c r="K39" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="65" t="s">
+      <c r="M39" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N39" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -7151,11 +7278,14 @@
       <c r="L40" t="s">
         <v>29</v>
       </c>
-      <c r="M40" s="65" t="s">
+      <c r="M40" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N40" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -7192,11 +7322,14 @@
       <c r="L41" t="s">
         <v>143</v>
       </c>
-      <c r="M41" s="65" t="s">
+      <c r="M41" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N41" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -7233,11 +7366,14 @@
       <c r="L42" t="s">
         <v>146</v>
       </c>
-      <c r="M42" s="65" t="s">
+      <c r="M42" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N42" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -7274,11 +7410,14 @@
       <c r="L43" t="s">
         <v>149</v>
       </c>
-      <c r="M43" s="65" t="s">
+      <c r="M43" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N43" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -7315,11 +7454,14 @@
       <c r="L44" t="s">
         <v>152</v>
       </c>
-      <c r="M44" s="65" t="s">
+      <c r="M44" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N44" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -7356,11 +7498,14 @@
       <c r="L45" t="s">
         <v>36</v>
       </c>
-      <c r="M45" s="65" t="s">
+      <c r="M45" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N45" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -7397,11 +7542,14 @@
       <c r="L46" t="s">
         <v>157</v>
       </c>
-      <c r="M46" s="65" t="s">
+      <c r="M46" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N46" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -7438,11 +7586,14 @@
       <c r="L47" t="s">
         <v>161</v>
       </c>
-      <c r="M47" s="65" t="s">
+      <c r="M47" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N47" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -7479,11 +7630,14 @@
       <c r="L48" t="s">
         <v>46</v>
       </c>
-      <c r="M48" s="65" t="s">
+      <c r="M48" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N48" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -7520,11 +7674,14 @@
       <c r="L49" t="s">
         <v>46</v>
       </c>
-      <c r="M49" s="65" t="s">
+      <c r="M49" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N49" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -7561,11 +7718,14 @@
       <c r="L50" t="s">
         <v>46</v>
       </c>
-      <c r="M50" s="65" t="s">
+      <c r="M50" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N50" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -7602,11 +7762,14 @@
       <c r="L51" t="s">
         <v>46</v>
       </c>
-      <c r="M51" s="65" t="s">
+      <c r="M51" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N51" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -7643,11 +7806,14 @@
       <c r="L52" t="s">
         <v>46</v>
       </c>
-      <c r="M52" s="65" t="s">
+      <c r="M52" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N52" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -7684,11 +7850,14 @@
       <c r="L53" t="s">
         <v>46</v>
       </c>
-      <c r="M53" s="65" t="s">
+      <c r="M53" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N53" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -7725,11 +7894,14 @@
       <c r="L54" t="s">
         <v>46</v>
       </c>
-      <c r="M54" s="65" t="s">
+      <c r="M54" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N54" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -7766,11 +7938,14 @@
       <c r="L55" t="s">
         <v>46</v>
       </c>
-      <c r="M55" s="65" t="s">
+      <c r="M55" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N55" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -7804,11 +7979,14 @@
       <c r="K56" t="s">
         <v>19</v>
       </c>
-      <c r="M56" s="65" t="s">
+      <c r="M56" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N56" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -7845,11 +8023,14 @@
       <c r="L57" t="s">
         <v>46</v>
       </c>
-      <c r="M57" s="65" t="s">
+      <c r="M57" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N57" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -7886,11 +8067,14 @@
       <c r="L58" t="s">
         <v>46</v>
       </c>
-      <c r="M58" s="65" t="s">
+      <c r="M58" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N58" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -7927,11 +8111,14 @@
       <c r="L59" t="s">
         <v>46</v>
       </c>
-      <c r="M59" s="65" t="s">
+      <c r="M59" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N59" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -7968,11 +8155,14 @@
       <c r="L60" t="s">
         <v>36</v>
       </c>
-      <c r="M60" s="65" t="s">
+      <c r="M60" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N60" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -8009,11 +8199,14 @@
       <c r="L61" t="s">
         <v>198</v>
       </c>
-      <c r="M61" s="65" t="s">
+      <c r="M61" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N61" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -8050,11 +8243,14 @@
       <c r="L62" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M62" s="65" t="s">
+      <c r="M62" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N62" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>52</v>
       </c>
@@ -8091,11 +8287,14 @@
       <c r="L63" t="s">
         <v>203</v>
       </c>
-      <c r="M63" s="65" t="s">
+      <c r="M63" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N63" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -8132,11 +8331,14 @@
       <c r="L64" t="s">
         <v>204</v>
       </c>
-      <c r="M64" s="65" t="s">
+      <c r="M64" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N64" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -8173,11 +8375,14 @@
       <c r="L65" t="s">
         <v>210</v>
       </c>
-      <c r="M65" s="65" t="s">
+      <c r="M65" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N65" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -8214,11 +8419,14 @@
       <c r="L66" t="s">
         <v>213</v>
       </c>
-      <c r="M66" s="65" t="s">
+      <c r="M66" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N66" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -8255,11 +8463,14 @@
       <c r="L67" t="s">
         <v>216</v>
       </c>
-      <c r="M67" s="65" t="s">
+      <c r="M67" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N67" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -8296,11 +8507,14 @@
       <c r="L68" t="s">
         <v>216</v>
       </c>
-      <c r="M68" s="65" t="s">
+      <c r="M68" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N68" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -8337,11 +8551,14 @@
       <c r="L69" t="s">
         <v>221</v>
       </c>
-      <c r="M69" s="65" t="s">
+      <c r="M69" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N69" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -8378,11 +8595,14 @@
       <c r="L70" t="s">
         <v>224</v>
       </c>
-      <c r="M70" s="65" t="s">
+      <c r="M70" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N70" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -8419,11 +8639,14 @@
       <c r="L71" t="s">
         <v>227</v>
       </c>
-      <c r="M71" s="65" t="s">
+      <c r="M71" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N71" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -8460,11 +8683,14 @@
       <c r="L72" t="s">
         <v>230</v>
       </c>
-      <c r="M72" s="65" t="s">
+      <c r="M72" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N72" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -8501,11 +8727,14 @@
       <c r="L73" t="s">
         <v>233</v>
       </c>
-      <c r="M73" s="65" t="s">
+      <c r="M73" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N73" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -8542,11 +8771,14 @@
       <c r="L74" t="s">
         <v>237</v>
       </c>
-      <c r="M74" s="65" t="s">
+      <c r="M74" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N74" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -8583,11 +8815,14 @@
       <c r="L75" t="s">
         <v>240</v>
       </c>
-      <c r="M75" s="65" t="s">
+      <c r="M75" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N75" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -8624,11 +8859,14 @@
       <c r="L76" t="s">
         <v>36</v>
       </c>
-      <c r="M76" s="65" t="s">
+      <c r="M76" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N76" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -8665,11 +8903,14 @@
       <c r="L77" t="s">
         <v>245</v>
       </c>
-      <c r="M77" s="65" t="s">
+      <c r="M77" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N77" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -8706,11 +8947,14 @@
       <c r="L78" t="s">
         <v>249</v>
       </c>
-      <c r="M78" s="65" t="s">
+      <c r="M78" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N78" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -8747,11 +8991,14 @@
       <c r="L79" t="s">
         <v>252</v>
       </c>
-      <c r="M79" s="65" t="s">
+      <c r="M79" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N79" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -8785,11 +9032,14 @@
       <c r="K80" t="s">
         <v>19</v>
       </c>
-      <c r="M80" s="65" t="s">
+      <c r="M80" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N80" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -8826,11 +9076,14 @@
       <c r="L81" t="s">
         <v>36</v>
       </c>
-      <c r="M81" s="65" t="s">
+      <c r="M81" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N81" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -8867,11 +9120,14 @@
       <c r="L82" t="s">
         <v>260</v>
       </c>
-      <c r="M82" s="65" t="s">
+      <c r="M82" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N82" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -8905,11 +9161,14 @@
       <c r="K83" t="s">
         <v>19</v>
       </c>
-      <c r="M83" s="65" t="s">
+      <c r="M83" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N83" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -8946,11 +9205,14 @@
       <c r="L84" t="s">
         <v>267</v>
       </c>
-      <c r="M84" s="65" t="s">
+      <c r="M84" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N84" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -8987,11 +9249,14 @@
       <c r="L85" t="s">
         <v>36</v>
       </c>
-      <c r="M85" s="65" t="s">
+      <c r="M85" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N85" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -9028,11 +9293,14 @@
       <c r="L86" t="s">
         <v>36</v>
       </c>
-      <c r="M86" s="65" t="s">
+      <c r="M86" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N86" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -9069,11 +9337,14 @@
       <c r="L87" t="s">
         <v>275</v>
       </c>
-      <c r="M87" s="65" t="s">
+      <c r="M87" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N87" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -9107,11 +9378,14 @@
       <c r="K88" t="s">
         <v>19</v>
       </c>
-      <c r="M88" s="65" t="s">
+      <c r="M88" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N88" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -9148,11 +9422,14 @@
       <c r="L89" t="s">
         <v>281</v>
       </c>
-      <c r="M89" s="65" t="s">
+      <c r="M89" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N89" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -9189,11 +9466,14 @@
       <c r="L90" t="s">
         <v>46</v>
       </c>
-      <c r="M90" s="65" t="s">
+      <c r="M90" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N90" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>37</v>
       </c>
@@ -9230,11 +9510,14 @@
       <c r="L91" t="s">
         <v>46</v>
       </c>
-      <c r="M91" s="65" t="s">
+      <c r="M91" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N91" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>37</v>
       </c>
@@ -9271,11 +9554,14 @@
       <c r="L92" t="s">
         <v>130</v>
       </c>
-      <c r="M92" s="65" t="s">
+      <c r="M92" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N92" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -9312,11 +9598,14 @@
       <c r="L93" t="s">
         <v>46</v>
       </c>
-      <c r="M93" s="65" t="s">
+      <c r="M93" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N93" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -9353,11 +9642,14 @@
       <c r="L94" t="s">
         <v>46</v>
       </c>
-      <c r="M94" s="65" t="s">
+      <c r="M94" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N94" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -9394,11 +9686,14 @@
       <c r="L95" t="s">
         <v>46</v>
       </c>
-      <c r="M95" s="65" t="s">
+      <c r="M95" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N95" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -9435,11 +9730,14 @@
       <c r="L96" t="s">
         <v>46</v>
       </c>
-      <c r="M96" s="65" t="s">
+      <c r="M96" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N96" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -9476,11 +9774,14 @@
       <c r="L97" t="s">
         <v>46</v>
       </c>
-      <c r="M97" s="65" t="s">
+      <c r="M97" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N97" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>37</v>
       </c>
@@ -9517,11 +9818,14 @@
       <c r="L98" t="s">
         <v>46</v>
       </c>
-      <c r="M98" s="65" t="s">
+      <c r="M98" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N98" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>37</v>
       </c>
@@ -9558,11 +9862,14 @@
       <c r="L99" t="s">
         <v>46</v>
       </c>
-      <c r="M99" s="65" t="s">
+      <c r="M99" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N99" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -9599,11 +9906,14 @@
       <c r="L100" t="s">
         <v>46</v>
       </c>
-      <c r="M100" s="65" t="s">
+      <c r="M100" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N100" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -9640,11 +9950,14 @@
       <c r="L101" t="s">
         <v>46</v>
       </c>
-      <c r="M101" s="65" t="s">
+      <c r="M101" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N101" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -9681,11 +9994,14 @@
       <c r="L102" t="s">
         <v>46</v>
       </c>
-      <c r="M102" s="65" t="s">
+      <c r="M102" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N102" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -9722,11 +10038,14 @@
       <c r="L103" t="s">
         <v>46</v>
       </c>
-      <c r="M103" s="65" t="s">
+      <c r="M103" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N103" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -9760,11 +10079,14 @@
       <c r="K104" t="s">
         <v>19</v>
       </c>
-      <c r="M104" s="65" t="s">
+      <c r="M104" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N104" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -9798,11 +10120,14 @@
       <c r="K105" t="s">
         <v>19</v>
       </c>
-      <c r="M105" s="65" t="s">
+      <c r="M105" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N105" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -9839,11 +10164,14 @@
       <c r="L106" t="s">
         <v>46</v>
       </c>
-      <c r="M106" s="65" t="s">
+      <c r="M106" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N106" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -9880,11 +10208,14 @@
       <c r="L107" t="s">
         <v>46</v>
       </c>
-      <c r="M107" s="65" t="s">
+      <c r="M107" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N107" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -9921,11 +10252,14 @@
       <c r="L108" t="s">
         <v>46</v>
       </c>
-      <c r="M108" s="65" t="s">
+      <c r="M108" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N108" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -9962,11 +10296,14 @@
       <c r="L109" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M109" s="65" t="s">
+      <c r="M109" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N109" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -10003,11 +10340,14 @@
       <c r="L110" t="s">
         <v>46</v>
       </c>
-      <c r="M110" s="65" t="s">
+      <c r="M110" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N110" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>48</v>
       </c>
@@ -10044,11 +10384,14 @@
       <c r="L111" t="s">
         <v>46</v>
       </c>
-      <c r="M111" s="65" t="s">
+      <c r="M111" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N111" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>48</v>
       </c>
@@ -10082,11 +10425,14 @@
       <c r="K112" t="s">
         <v>19</v>
       </c>
-      <c r="M112" s="65" t="s">
+      <c r="M112" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N112" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>48</v>
       </c>
@@ -10120,11 +10466,14 @@
       <c r="K113" t="s">
         <v>19</v>
       </c>
-      <c r="M113" s="65" t="s">
+      <c r="M113" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N113" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>48</v>
       </c>
@@ -10161,11 +10510,14 @@
       <c r="L114" t="s">
         <v>46</v>
       </c>
-      <c r="M114" s="65" t="s">
+      <c r="M114" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N114" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>48</v>
       </c>
@@ -10202,11 +10554,14 @@
       <c r="L115" t="s">
         <v>46</v>
       </c>
-      <c r="M115" s="65" t="s">
+      <c r="M115" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N115" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>48</v>
       </c>
@@ -10243,11 +10598,14 @@
       <c r="L116" t="s">
         <v>46</v>
       </c>
-      <c r="M116" s="65" t="s">
+      <c r="M116" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N116" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -10284,11 +10642,14 @@
       <c r="L117" t="s">
         <v>46</v>
       </c>
-      <c r="M117" s="65" t="s">
+      <c r="M117" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N117" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>48</v>
       </c>
@@ -10325,11 +10686,14 @@
       <c r="L118" t="s">
         <v>46</v>
       </c>
-      <c r="M118" s="65" t="s">
+      <c r="M118" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N118" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>52</v>
       </c>
@@ -10366,11 +10730,14 @@
       <c r="L119" t="s">
         <v>341</v>
       </c>
-      <c r="M119" s="65" t="s">
+      <c r="M119" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N119" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>52</v>
       </c>
@@ -10407,11 +10774,14 @@
       <c r="L120" t="s">
         <v>345</v>
       </c>
-      <c r="M120" s="65" t="s">
+      <c r="M120" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N120" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>52</v>
       </c>
@@ -10448,11 +10818,14 @@
       <c r="L121" t="s">
         <v>36</v>
       </c>
-      <c r="M121" s="65" t="s">
+      <c r="M121" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N121" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>52</v>
       </c>
@@ -10489,11 +10862,14 @@
       <c r="L122" t="s">
         <v>36</v>
       </c>
-      <c r="M122" s="65" t="s">
+      <c r="M122" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N122" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>52</v>
       </c>
@@ -10530,11 +10906,14 @@
       <c r="L123" t="s">
         <v>36</v>
       </c>
-      <c r="M123" s="65" t="s">
+      <c r="M123" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N123" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>52</v>
       </c>
@@ -10571,11 +10950,14 @@
       <c r="L124" t="s">
         <v>36</v>
       </c>
-      <c r="M124" s="65" t="s">
+      <c r="M124" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N124" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>52</v>
       </c>
@@ -10612,11 +10994,14 @@
       <c r="L125" t="s">
         <v>355</v>
       </c>
-      <c r="M125" s="65" t="s">
+      <c r="M125" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N125" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>52</v>
       </c>
@@ -10653,11 +11038,14 @@
       <c r="L126" t="s">
         <v>358</v>
       </c>
-      <c r="M126" s="65" t="s">
+      <c r="M126" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N126" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>52</v>
       </c>
@@ -10694,11 +11082,14 @@
       <c r="L127" t="s">
         <v>361</v>
       </c>
-      <c r="M127" s="65" t="s">
+      <c r="M127" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N127" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>52</v>
       </c>
@@ -10732,11 +11123,14 @@
       <c r="K128" t="s">
         <v>19</v>
       </c>
-      <c r="M128" s="65" t="s">
+      <c r="M128" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N128" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>52</v>
       </c>
@@ -10773,11 +11167,14 @@
       <c r="L129" t="s">
         <v>367</v>
       </c>
-      <c r="M129" s="65" t="s">
+      <c r="M129" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N129" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>84</v>
       </c>
@@ -10814,11 +11211,14 @@
       <c r="L130" t="s">
         <v>370</v>
       </c>
-      <c r="M130" s="65" t="s">
+      <c r="M130" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N130" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>84</v>
       </c>
@@ -10855,11 +11255,14 @@
       <c r="L131" t="s">
         <v>373</v>
       </c>
-      <c r="M131" s="65" t="s">
+      <c r="M131" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N131" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>84</v>
       </c>
@@ -10896,11 +11299,14 @@
       <c r="L132" t="s">
         <v>376</v>
       </c>
-      <c r="M132" s="65" t="s">
+      <c r="M132" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N132" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>84</v>
       </c>
@@ -10937,11 +11343,14 @@
       <c r="L133" t="s">
         <v>380</v>
       </c>
-      <c r="M133" s="65" t="s">
+      <c r="M133" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N133" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>84</v>
       </c>
@@ -10978,11 +11387,14 @@
       <c r="L134" t="s">
         <v>382</v>
       </c>
-      <c r="M134" s="65" t="s">
+      <c r="M134" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N134" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -11016,11 +11428,14 @@
       <c r="K135" t="s">
         <v>19</v>
       </c>
-      <c r="M135" s="65" t="s">
+      <c r="M135" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N135" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -11057,11 +11472,14 @@
       <c r="L136" t="s">
         <v>388</v>
       </c>
-      <c r="M136" s="65" t="s">
+      <c r="M136" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N136" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -11098,11 +11516,14 @@
       <c r="L137" t="s">
         <v>391</v>
       </c>
-      <c r="M137" s="65" t="s">
+      <c r="M137" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N137" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -11139,11 +11560,14 @@
       <c r="L138" t="s">
         <v>394</v>
       </c>
-      <c r="M138" s="65" t="s">
+      <c r="M138" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N138" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -11177,11 +11601,14 @@
       <c r="K139" t="s">
         <v>19</v>
       </c>
-      <c r="M139" s="65" t="s">
+      <c r="M139" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N139" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -11218,11 +11645,14 @@
       <c r="L140" t="s">
         <v>400</v>
       </c>
-      <c r="M140" s="65" t="s">
+      <c r="M140" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N140" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -11259,11 +11689,14 @@
       <c r="L141" t="s">
         <v>402</v>
       </c>
-      <c r="M141" s="65" t="s">
+      <c r="M141" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N141" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -11300,11 +11733,14 @@
       <c r="L142" t="s">
         <v>36</v>
       </c>
-      <c r="M142" s="65" t="s">
+      <c r="M142" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N142" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -11341,11 +11777,14 @@
       <c r="L143" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M143" s="65" t="s">
+      <c r="M143" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N143" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -11382,11 +11821,14 @@
       <c r="L144" t="s">
         <v>36</v>
       </c>
-      <c r="M144" s="65" t="s">
+      <c r="M144" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N144" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -11423,11 +11865,14 @@
       <c r="L145" t="s">
         <v>413</v>
       </c>
-      <c r="M145" s="65" t="s">
+      <c r="M145" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N145" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -11464,11 +11909,14 @@
       <c r="L146" t="s">
         <v>415</v>
       </c>
-      <c r="M146" s="65" t="s">
+      <c r="M146" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N146" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -11505,11 +11953,14 @@
       <c r="L147" t="s">
         <v>419</v>
       </c>
-      <c r="M147" s="65" t="s">
+      <c r="M147" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N147" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -11546,11 +11997,14 @@
       <c r="L148" t="s">
         <v>423</v>
       </c>
-      <c r="M148" s="65" t="s">
+      <c r="M148" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N148" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>37</v>
       </c>
@@ -11584,11 +12038,14 @@
       <c r="K149" t="s">
         <v>19</v>
       </c>
-      <c r="M149" s="65" t="s">
+      <c r="M149" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N149" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>48</v>
       </c>
@@ -11625,11 +12082,14 @@
       <c r="L150" t="s">
         <v>428</v>
       </c>
-      <c r="M150" s="65" t="s">
+      <c r="M150" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N150" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>48</v>
       </c>
@@ -11666,11 +12126,14 @@
       <c r="L151" t="s">
         <v>431</v>
       </c>
-      <c r="M151" s="65" t="s">
+      <c r="M151" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N151" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>48</v>
       </c>
@@ -11707,11 +12170,14 @@
       <c r="L152" t="s">
         <v>419</v>
       </c>
-      <c r="M152" s="65" t="s">
+      <c r="M152" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N152" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>48</v>
       </c>
@@ -11748,11 +12214,14 @@
       <c r="L153" t="s">
         <v>435</v>
       </c>
-      <c r="M153" s="65" t="s">
+      <c r="M153" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N153" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>48</v>
       </c>
@@ -11789,11 +12258,14 @@
       <c r="L154" t="s">
         <v>439</v>
       </c>
-      <c r="M154" s="65" t="s">
+      <c r="M154" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N154" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>48</v>
       </c>
@@ -11827,11 +12299,14 @@
       <c r="K155" t="s">
         <v>19</v>
       </c>
-      <c r="M155" s="65" t="s">
+      <c r="M155" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N155" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>37</v>
       </c>
@@ -11868,11 +12343,14 @@
       <c r="L156" t="s">
         <v>446</v>
       </c>
-      <c r="M156" s="65" t="s">
+      <c r="M156" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N156" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>37</v>
       </c>
@@ -11909,11 +12387,14 @@
       <c r="L157" t="s">
         <v>450</v>
       </c>
-      <c r="M157" s="65" t="s">
+      <c r="M157" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N157" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>37</v>
       </c>
@@ -11950,11 +12431,14 @@
       <c r="L158" t="s">
         <v>451</v>
       </c>
-      <c r="M158" s="65" t="s">
+      <c r="M158" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N158" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>48</v>
       </c>
@@ -11991,11 +12475,14 @@
       <c r="L159" t="s">
         <v>455</v>
       </c>
-      <c r="M159" s="65" t="s">
+      <c r="M159" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N159" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>48</v>
       </c>
@@ -12032,11 +12519,14 @@
       <c r="L160" t="s">
         <v>459</v>
       </c>
-      <c r="M160" s="65" t="s">
+      <c r="M160" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N160" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>48</v>
       </c>
@@ -12073,11 +12563,14 @@
       <c r="L161" t="s">
         <v>462</v>
       </c>
-      <c r="M161" s="65" t="s">
+      <c r="M161" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N161" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -12114,11 +12607,14 @@
       <c r="L162" t="s">
         <v>466</v>
       </c>
-      <c r="M162" s="65" t="s">
+      <c r="M162" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N162" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -12155,11 +12651,14 @@
       <c r="L163" t="s">
         <v>470</v>
       </c>
-      <c r="M163" s="65" t="s">
+      <c r="M163" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N163" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -12196,11 +12695,14 @@
       <c r="L164" t="s">
         <v>472</v>
       </c>
-      <c r="M164" s="65" t="s">
+      <c r="M164" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N164" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>48</v>
       </c>
@@ -12237,11 +12739,14 @@
       <c r="L165" t="s">
         <v>476</v>
       </c>
-      <c r="M165" s="65" t="s">
+      <c r="M165" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N165" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -12278,11 +12783,14 @@
       <c r="L166" t="s">
         <v>480</v>
       </c>
-      <c r="M166" s="65" t="s">
+      <c r="M166" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N166" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -12319,11 +12827,14 @@
       <c r="L167" t="s">
         <v>483</v>
       </c>
-      <c r="M167" s="65" t="s">
+      <c r="M167" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N167" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -12360,11 +12871,14 @@
       <c r="L168" t="s">
         <v>485</v>
       </c>
-      <c r="M168" s="65" t="s">
+      <c r="M168" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N168" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>48</v>
       </c>
@@ -12401,11 +12915,14 @@
       <c r="L169" t="s">
         <v>476</v>
       </c>
-      <c r="M169" s="65" t="s">
+      <c r="M169" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N169" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>48</v>
       </c>
@@ -12442,11 +12959,14 @@
       <c r="L170" t="s">
         <v>489</v>
       </c>
-      <c r="M170" s="65" t="s">
+      <c r="M170" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N170" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -12483,11 +13003,14 @@
       <c r="L171" t="s">
         <v>415</v>
       </c>
-      <c r="M171" s="65" t="s">
+      <c r="M171" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N171" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -12524,11 +13047,14 @@
       <c r="L172" t="s">
         <v>493</v>
       </c>
-      <c r="M172" s="65" t="s">
+      <c r="M172" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N172" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -12562,11 +13088,14 @@
       <c r="K173" t="s">
         <v>19</v>
       </c>
-      <c r="M173" s="65" t="s">
+      <c r="M173" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N173" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -12603,11 +13132,14 @@
       <c r="L174" t="s">
         <v>498</v>
       </c>
-      <c r="M174" s="65" t="s">
+      <c r="M174" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N174" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>48</v>
       </c>
@@ -12644,11 +13176,14 @@
       <c r="L175" t="s">
         <v>502</v>
       </c>
-      <c r="M175" s="65" t="s">
+      <c r="M175" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N175" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -12685,11 +13220,14 @@
       <c r="L176" t="s">
         <v>505</v>
       </c>
-      <c r="M176" s="65" t="s">
+      <c r="M176" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N176" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>48</v>
       </c>
@@ -12726,11 +13264,14 @@
       <c r="L177" t="s">
         <v>509</v>
       </c>
-      <c r="M177" s="65" t="s">
+      <c r="M177" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N177" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -12767,11 +13308,14 @@
       <c r="L178" t="s">
         <v>512</v>
       </c>
-      <c r="M178" s="65" t="s">
+      <c r="M178" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N178" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -12808,11 +13352,14 @@
       <c r="L179" t="s">
         <v>516</v>
       </c>
-      <c r="M179" s="65" t="s">
+      <c r="M179" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N179" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>48</v>
       </c>
@@ -12849,11 +13396,14 @@
       <c r="L180" t="s">
         <v>519</v>
       </c>
-      <c r="M180" s="65" t="s">
+      <c r="M180" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N180" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>48</v>
       </c>
@@ -12890,11 +13440,14 @@
       <c r="L181" t="s">
         <v>213</v>
       </c>
-      <c r="M181" s="65" t="s">
+      <c r="M181" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N181" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>48</v>
       </c>
@@ -12931,11 +13484,14 @@
       <c r="L182" t="s">
         <v>523</v>
       </c>
-      <c r="M182" s="65" t="s">
+      <c r="M182" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N182" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>48</v>
       </c>
@@ -12972,11 +13528,14 @@
       <c r="L183" t="s">
         <v>526</v>
       </c>
-      <c r="M183" s="65" t="s">
+      <c r="M183" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N183" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>37</v>
       </c>
@@ -13013,11 +13572,14 @@
       <c r="L184" t="s">
         <v>529</v>
       </c>
-      <c r="M184" s="65" t="s">
+      <c r="M184" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N184" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>48</v>
       </c>
@@ -13054,11 +13616,14 @@
       <c r="L185" t="s">
         <v>532</v>
       </c>
-      <c r="M185" s="65" t="s">
+      <c r="M185" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N185" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -13095,11 +13660,14 @@
       <c r="L186" t="s">
         <v>536</v>
       </c>
-      <c r="M186" s="65" t="s">
+      <c r="M186" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N186" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>48</v>
       </c>
@@ -13136,11 +13704,14 @@
       <c r="L187" t="s">
         <v>539</v>
       </c>
-      <c r="M187" s="65" t="s">
+      <c r="M187" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N187" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>37</v>
       </c>
@@ -13177,11 +13748,14 @@
       <c r="L188" t="s">
         <v>543</v>
       </c>
-      <c r="M188" s="65" t="s">
+      <c r="M188" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N188" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -13218,11 +13792,14 @@
       <c r="L189" t="s">
         <v>547</v>
       </c>
-      <c r="M189" s="65" t="s">
+      <c r="M189" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N189" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>48</v>
       </c>
@@ -13259,11 +13836,14 @@
       <c r="L190" t="s">
         <v>476</v>
       </c>
-      <c r="M190" s="65" t="s">
+      <c r="M190" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N190" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>48</v>
       </c>
@@ -13300,11 +13880,14 @@
       <c r="L191" t="s">
         <v>551</v>
       </c>
-      <c r="M191" s="65" t="s">
+      <c r="M191" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N191" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>48</v>
       </c>
@@ -13341,11 +13924,14 @@
       <c r="L192" t="s">
         <v>554</v>
       </c>
-      <c r="M192" s="65" t="s">
+      <c r="M192" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N192" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -13382,11 +13968,14 @@
       <c r="L193" t="s">
         <v>558</v>
       </c>
-      <c r="M193" s="65" t="s">
+      <c r="M193" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N193" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>37</v>
       </c>
@@ -13423,11 +14012,14 @@
       <c r="L194" t="s">
         <v>562</v>
       </c>
-      <c r="M194" s="65" t="s">
+      <c r="M194" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N194" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>37</v>
       </c>
@@ -13464,11 +14056,14 @@
       <c r="L195" t="s">
         <v>565</v>
       </c>
-      <c r="M195" s="65" t="s">
+      <c r="M195" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N195" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>48</v>
       </c>
@@ -13502,11 +14097,14 @@
       <c r="K196" t="s">
         <v>19</v>
       </c>
-      <c r="M196" s="65" t="s">
+      <c r="M196" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N196" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>48</v>
       </c>
@@ -13543,11 +14141,14 @@
       <c r="L197" t="s">
         <v>569</v>
       </c>
-      <c r="M197" s="65" t="s">
+      <c r="M197" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N197" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>48</v>
       </c>
@@ -13584,11 +14185,14 @@
       <c r="L198" t="s">
         <v>572</v>
       </c>
-      <c r="M198" s="65" t="s">
+      <c r="M198" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N198" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>37</v>
       </c>
@@ -13625,11 +14229,14 @@
       <c r="L199" t="s">
         <v>577</v>
       </c>
-      <c r="M199" s="65" t="s">
+      <c r="M199" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N199" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>37</v>
       </c>
@@ -13666,11 +14273,14 @@
       <c r="L200" t="s">
         <v>579</v>
       </c>
-      <c r="M200" s="65" t="s">
+      <c r="M200" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N200" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>37</v>
       </c>
@@ -13707,11 +14317,14 @@
       <c r="L201" t="s">
         <v>419</v>
       </c>
-      <c r="M201" s="65" t="s">
+      <c r="M201" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N201" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>37</v>
       </c>
@@ -13748,11 +14361,14 @@
       <c r="L202" t="s">
         <v>584</v>
       </c>
-      <c r="M202" s="65" t="s">
+      <c r="M202" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N202" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -13789,11 +14405,14 @@
       <c r="L203" t="s">
         <v>587</v>
       </c>
-      <c r="M203" s="65" t="s">
+      <c r="M203" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N203" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>37</v>
       </c>
@@ -13830,11 +14449,14 @@
       <c r="L204" t="s">
         <v>590</v>
       </c>
-      <c r="M204" s="65" t="s">
+      <c r="M204" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N204" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>37</v>
       </c>
@@ -13871,11 +14493,14 @@
       <c r="L205" t="s">
         <v>593</v>
       </c>
-      <c r="M205" s="65" t="s">
+      <c r="M205" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N205" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>37</v>
       </c>
@@ -13912,11 +14537,14 @@
       <c r="L206" t="s">
         <v>597</v>
       </c>
-      <c r="M206" s="65" t="s">
+      <c r="M206" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N206" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>37</v>
       </c>
@@ -13953,11 +14581,14 @@
       <c r="L207" t="s">
         <v>599</v>
       </c>
-      <c r="M207" s="65" t="s">
+      <c r="M207" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N207" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -13991,11 +14622,14 @@
       <c r="K208" t="s">
         <v>19</v>
       </c>
-      <c r="M208" s="65" t="s">
+      <c r="M208" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N208" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -14032,11 +14666,14 @@
       <c r="L209" t="s">
         <v>419</v>
       </c>
-      <c r="M209" s="65" t="s">
+      <c r="M209" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N209" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>48</v>
       </c>
@@ -14073,11 +14710,14 @@
       <c r="L210" t="s">
         <v>606</v>
       </c>
-      <c r="M210" s="65" t="s">
+      <c r="M210" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N210" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>48</v>
       </c>
@@ -14114,11 +14754,14 @@
       <c r="L211" t="s">
         <v>609</v>
       </c>
-      <c r="M211" s="65" t="s">
+      <c r="M211" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N211" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>48</v>
       </c>
@@ -14155,11 +14798,14 @@
       <c r="L212" t="s">
         <v>14</v>
       </c>
-      <c r="M212" s="65" t="s">
+      <c r="M212" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N212" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>37</v>
       </c>
@@ -14196,11 +14842,14 @@
       <c r="L213" t="s">
         <v>36</v>
       </c>
-      <c r="M213" s="65" t="s">
+      <c r="M213" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N213" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>48</v>
       </c>
@@ -14237,11 +14886,14 @@
       <c r="L214" t="s">
         <v>616</v>
       </c>
-      <c r="M214" s="65" t="s">
+      <c r="M214" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N214" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>48</v>
       </c>
@@ -14278,11 +14930,14 @@
       <c r="L215" t="s">
         <v>619</v>
       </c>
-      <c r="M215" s="65" t="s">
+      <c r="M215" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N215" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -14319,11 +14974,14 @@
       <c r="L216" t="s">
         <v>622</v>
       </c>
-      <c r="M216" s="65" t="s">
+      <c r="M216" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N216" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>48</v>
       </c>
@@ -14360,11 +15018,14 @@
       <c r="L217" t="s">
         <v>625</v>
       </c>
-      <c r="M217" s="65" t="s">
+      <c r="M217" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N217" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>48</v>
       </c>
@@ -14401,11 +15062,14 @@
       <c r="L218" t="s">
         <v>627</v>
       </c>
-      <c r="M218" s="65" t="s">
+      <c r="M218" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N218" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>48</v>
       </c>
@@ -14442,11 +15106,14 @@
       <c r="L219" t="s">
         <v>631</v>
       </c>
-      <c r="M219" s="65" t="s">
+      <c r="M219" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N219" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>37</v>
       </c>
@@ -14483,11 +15150,14 @@
       <c r="L220" t="s">
         <v>634</v>
       </c>
-      <c r="M220" s="65" t="s">
+      <c r="M220" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N220" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>37</v>
       </c>
@@ -14524,11 +15194,14 @@
       <c r="L221" t="s">
         <v>637</v>
       </c>
-      <c r="M221" s="65" t="s">
+      <c r="M221" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N221" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>48</v>
       </c>
@@ -14565,11 +15238,14 @@
       <c r="L222" t="s">
         <v>640</v>
       </c>
-      <c r="M222" s="65" t="s">
+      <c r="M222" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N222" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>48</v>
       </c>
@@ -14603,11 +15279,14 @@
       <c r="K223" t="s">
         <v>19</v>
       </c>
-      <c r="M223" s="65" t="s">
+      <c r="M223" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N223" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>48</v>
       </c>
@@ -14644,11 +15323,14 @@
       <c r="L224" t="s">
         <v>645</v>
       </c>
-      <c r="M224" s="65" t="s">
+      <c r="M224" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N224" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>48</v>
       </c>
@@ -14685,11 +15367,14 @@
       <c r="L225" t="s">
         <v>646</v>
       </c>
-      <c r="M225" s="65" t="s">
+      <c r="M225" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N225" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>37</v>
       </c>
@@ -14726,11 +15411,14 @@
       <c r="L226" t="s">
         <v>650</v>
       </c>
-      <c r="M226" s="65" t="s">
+      <c r="M226" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N226" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>48</v>
       </c>
@@ -14767,11 +15455,14 @@
       <c r="L227" t="s">
         <v>653</v>
       </c>
-      <c r="M227" s="65" t="s">
+      <c r="M227" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N227" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>48</v>
       </c>
@@ -14808,11 +15499,14 @@
       <c r="L228" t="s">
         <v>419</v>
       </c>
-      <c r="M228" s="65" t="s">
+      <c r="M228" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N228" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>48</v>
       </c>
@@ -14849,11 +15543,14 @@
       <c r="L229" t="s">
         <v>658</v>
       </c>
-      <c r="M229" s="65" t="s">
+      <c r="M229" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N229" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>48</v>
       </c>
@@ -14890,11 +15587,14 @@
       <c r="L230" t="s">
         <v>662</v>
       </c>
-      <c r="M230" s="65" t="s">
+      <c r="M230" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N230" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>48</v>
       </c>
@@ -14931,11 +15631,14 @@
       <c r="L231" t="s">
         <v>665</v>
       </c>
-      <c r="M231" s="65" t="s">
+      <c r="M231" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N231" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>48</v>
       </c>
@@ -14972,11 +15675,14 @@
       <c r="L232" t="s">
         <v>667</v>
       </c>
-      <c r="M232" s="65" t="s">
+      <c r="M232" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N232" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>37</v>
       </c>
@@ -15013,11 +15719,14 @@
       <c r="L233" t="s">
         <v>36</v>
       </c>
-      <c r="M233" s="65" t="s">
+      <c r="M233" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N233" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>37</v>
       </c>
@@ -15054,11 +15763,14 @@
       <c r="L234" t="s">
         <v>672</v>
       </c>
-      <c r="M234" s="65" t="s">
+      <c r="M234" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N234" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>48</v>
       </c>
@@ -15095,11 +15807,14 @@
       <c r="L235" t="s">
         <v>675</v>
       </c>
-      <c r="M235" s="65" t="s">
+      <c r="M235" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N235" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>37</v>
       </c>
@@ -15133,11 +15848,14 @@
       <c r="K236" t="s">
         <v>19</v>
       </c>
-      <c r="M236" s="65" t="s">
+      <c r="M236" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N236" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>37</v>
       </c>
@@ -15174,11 +15892,14 @@
       <c r="L237" t="s">
         <v>679</v>
       </c>
-      <c r="M237" s="65" t="s">
+      <c r="M237" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N237" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>37</v>
       </c>
@@ -15212,11 +15933,14 @@
       <c r="K238" t="s">
         <v>19</v>
       </c>
-      <c r="M238" s="65" t="s">
+      <c r="M238" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N238" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>48</v>
       </c>
@@ -15253,11 +15977,14 @@
       <c r="L239" t="s">
         <v>684</v>
       </c>
-      <c r="M239" s="65" t="s">
+      <c r="M239" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N239" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>48</v>
       </c>
@@ -15294,11 +16021,14 @@
       <c r="L240" t="s">
         <v>687</v>
       </c>
-      <c r="M240" s="65" t="s">
+      <c r="M240" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N240" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>48</v>
       </c>
@@ -15335,11 +16065,14 @@
       <c r="L241" t="s">
         <v>690</v>
       </c>
-      <c r="M241" s="65" t="s">
+      <c r="M241" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N241" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>37</v>
       </c>
@@ -15376,11 +16109,14 @@
       <c r="L242" t="s">
         <v>472</v>
       </c>
-      <c r="M242" s="65" t="s">
+      <c r="M242" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N242" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>37</v>
       </c>
@@ -15417,11 +16153,14 @@
       <c r="L243" t="s">
         <v>694</v>
       </c>
-      <c r="M243" s="65" t="s">
+      <c r="M243" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N243" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>37</v>
       </c>
@@ -15458,11 +16197,14 @@
       <c r="L244" t="s">
         <v>698</v>
       </c>
-      <c r="M244" s="65" t="s">
+      <c r="M244" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N244" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>37</v>
       </c>
@@ -15499,11 +16241,14 @@
       <c r="L245" t="s">
         <v>702</v>
       </c>
-      <c r="M245" s="65" t="s">
+      <c r="M245" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N245" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>37</v>
       </c>
@@ -15537,11 +16282,14 @@
       <c r="K246" t="s">
         <v>19</v>
       </c>
-      <c r="M246" s="65" t="s">
+      <c r="M246" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N246" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>48</v>
       </c>
@@ -15578,11 +16326,14 @@
       <c r="L247" t="s">
         <v>709</v>
       </c>
-      <c r="M247" s="65" t="s">
+      <c r="M247" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N247" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>48</v>
       </c>
@@ -15619,11 +16370,14 @@
       <c r="L248" t="s">
         <v>713</v>
       </c>
-      <c r="M248" s="65" t="s">
+      <c r="M248" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N248" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>37</v>
       </c>
@@ -15657,11 +16411,14 @@
       <c r="K249" t="s">
         <v>19</v>
       </c>
-      <c r="M249" s="65" t="s">
+      <c r="M249" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N249" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>48</v>
       </c>
@@ -15695,11 +16452,14 @@
       <c r="K250" t="s">
         <v>19</v>
       </c>
-      <c r="M250" s="65" t="s">
+      <c r="M250" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N250" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>48</v>
       </c>
@@ -15733,11 +16493,14 @@
       <c r="K251" t="s">
         <v>19</v>
       </c>
-      <c r="M251" s="65" t="s">
+      <c r="M251" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N251" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>48</v>
       </c>
@@ -15771,11 +16534,14 @@
       <c r="K252" t="s">
         <v>19</v>
       </c>
-      <c r="M252" s="65" t="s">
+      <c r="M252" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N252" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>48</v>
       </c>
@@ -15812,11 +16578,14 @@
       <c r="L253" t="s">
         <v>46</v>
       </c>
-      <c r="M253" s="65" t="s">
+      <c r="M253" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N253" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>48</v>
       </c>
@@ -15853,11 +16622,14 @@
       <c r="L254" t="s">
         <v>729</v>
       </c>
-      <c r="M254" s="65" t="s">
+      <c r="M254" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N254" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>48</v>
       </c>
@@ -15894,11 +16666,14 @@
       <c r="L255" t="s">
         <v>733</v>
       </c>
-      <c r="M255" s="65" t="s">
+      <c r="M255" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N255" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>48</v>
       </c>
@@ -15935,11 +16710,14 @@
       <c r="L256" t="s">
         <v>737</v>
       </c>
-      <c r="M256" s="65" t="s">
+      <c r="M256" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N256" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>48</v>
       </c>
@@ -15976,11 +16754,14 @@
       <c r="L257" t="s">
         <v>740</v>
       </c>
-      <c r="M257" s="65" t="s">
+      <c r="M257" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N257" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>37</v>
       </c>
@@ -16017,11 +16798,14 @@
       <c r="L258" t="s">
         <v>742</v>
       </c>
-      <c r="M258" s="65" t="s">
+      <c r="M258" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N258" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>37</v>
       </c>
@@ -16055,11 +16839,14 @@
       <c r="K259" t="s">
         <v>19</v>
       </c>
-      <c r="M259" s="65" t="s">
+      <c r="M259" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N259" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>37</v>
       </c>
@@ -16096,11 +16883,14 @@
       <c r="L260" t="s">
         <v>747</v>
       </c>
-      <c r="M260" s="65" t="s">
+      <c r="M260" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N260" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>48</v>
       </c>
@@ -16134,11 +16924,14 @@
       <c r="K261" t="s">
         <v>19</v>
       </c>
-      <c r="M261" s="65" t="s">
+      <c r="M261" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N261" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>48</v>
       </c>
@@ -16175,11 +16968,14 @@
       <c r="L262" t="s">
         <v>750</v>
       </c>
-      <c r="M262" s="65" t="s">
+      <c r="M262" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N262" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>48</v>
       </c>
@@ -16216,11 +17012,14 @@
       <c r="L263" t="s">
         <v>753</v>
       </c>
-      <c r="M263" s="65" t="s">
+      <c r="M263" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N263" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>37</v>
       </c>
@@ -16254,11 +17053,14 @@
       <c r="K264" t="s">
         <v>19</v>
       </c>
-      <c r="M264" s="65" t="s">
+      <c r="M264" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N264" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>37</v>
       </c>
@@ -16295,11 +17097,14 @@
       <c r="L265" t="s">
         <v>36</v>
       </c>
-      <c r="M265" s="65" t="s">
+      <c r="M265" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N265" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>48</v>
       </c>
@@ -16336,11 +17141,14 @@
       <c r="L266" t="s">
         <v>761</v>
       </c>
-      <c r="M266" s="65" t="s">
+      <c r="M266" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N266" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>48</v>
       </c>
@@ -16377,11 +17185,14 @@
       <c r="L267" t="s">
         <v>765</v>
       </c>
-      <c r="M267" s="65" t="s">
+      <c r="M267" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N267" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>37</v>
       </c>
@@ -16418,11 +17229,14 @@
       <c r="L268" t="s">
         <v>768</v>
       </c>
-      <c r="M268" s="65" t="s">
+      <c r="M268" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N268" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>37</v>
       </c>
@@ -16459,11 +17273,14 @@
       <c r="L269" t="s">
         <v>772</v>
       </c>
-      <c r="M269" s="65" t="s">
+      <c r="M269" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N269" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>37</v>
       </c>
@@ -16500,11 +17317,14 @@
       <c r="L270" t="s">
         <v>776</v>
       </c>
-      <c r="M270" s="65" t="s">
+      <c r="M270" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N270" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>37</v>
       </c>
@@ -16541,11 +17361,14 @@
       <c r="L271" t="s">
         <v>489</v>
       </c>
-      <c r="M271" s="65" t="s">
+      <c r="M271" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N271" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>37</v>
       </c>
@@ -16582,11 +17405,14 @@
       <c r="L272" t="s">
         <v>782</v>
       </c>
-      <c r="M272" s="65" t="s">
+      <c r="M272" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N272" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>783</v>
       </c>
@@ -16623,11 +17449,14 @@
       <c r="L273" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="M273" s="65" t="s">
+      <c r="M273" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N273" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>783</v>
       </c>
@@ -16664,11 +17493,14 @@
       <c r="L274" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="M274" s="65" t="s">
+      <c r="M274" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N274" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>790</v>
       </c>
@@ -16705,11 +17537,14 @@
       <c r="L275" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="M275" s="65" t="s">
+      <c r="M275" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N275" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>790</v>
       </c>
@@ -16746,11 +17581,14 @@
       <c r="L276" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="M276" s="65" t="s">
+      <c r="M276" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N276" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>790</v>
       </c>
@@ -16787,11 +17625,14 @@
       <c r="L277" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="M277" s="65" t="s">
+      <c r="M277" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N277" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>790</v>
       </c>
@@ -16828,11 +17669,14 @@
       <c r="L278" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="M278" s="65" t="s">
+      <c r="M278" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N278" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>790</v>
       </c>
@@ -16869,11 +17713,14 @@
       <c r="L279" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="M279" s="65" t="s">
+      <c r="M279" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N279" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>790</v>
       </c>
@@ -16910,11 +17757,14 @@
       <c r="L280" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="M280" s="65" t="s">
+      <c r="M280" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N280" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>790</v>
       </c>
@@ -16951,11 +17801,14 @@
       <c r="L281" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M281" s="65" t="s">
+      <c r="M281" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N281" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>790</v>
       </c>
@@ -16990,11 +17843,14 @@
         <v>807</v>
       </c>
       <c r="L282" s="9"/>
-      <c r="M282" s="65" t="s">
+      <c r="M282" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N282" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>790</v>
       </c>
@@ -17029,11 +17885,14 @@
         <v>807</v>
       </c>
       <c r="L283" s="9"/>
-      <c r="M283" s="65" t="s">
+      <c r="M283" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N283" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>790</v>
       </c>
@@ -17070,11 +17929,14 @@
       <c r="L284" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="M284" s="65" t="s">
+      <c r="M284" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N284" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>790</v>
       </c>
@@ -17111,11 +17973,14 @@
       <c r="L285" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="M285" s="65" t="s">
+      <c r="M285" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N285" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>790</v>
       </c>
@@ -17150,11 +18015,14 @@
         <v>807</v>
       </c>
       <c r="L286" s="9"/>
-      <c r="M286" s="65" t="s">
+      <c r="M286" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N286" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>790</v>
       </c>
@@ -17191,11 +18059,14 @@
       <c r="L287" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M287" s="65" t="s">
+      <c r="M287" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N287" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>790</v>
       </c>
@@ -17232,11 +18103,14 @@
       <c r="L288" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M288" s="65" t="s">
+      <c r="M288" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N288" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>790</v>
       </c>
@@ -17273,11 +18147,14 @@
       <c r="L289" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M289" s="65" t="s">
+      <c r="M289" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N289" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>790</v>
       </c>
@@ -17314,11 +18191,14 @@
       <c r="L290" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="M290" s="65" t="s">
+      <c r="M290" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N290" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>783</v>
       </c>
@@ -17355,11 +18235,14 @@
       <c r="L291" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="M291" s="65" t="s">
+      <c r="M291" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N291" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>790</v>
       </c>
@@ -17396,11 +18279,14 @@
       <c r="L292" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="M292" s="65" t="s">
+      <c r="M292" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N292" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>790</v>
       </c>
@@ -17435,11 +18321,14 @@
         <v>807</v>
       </c>
       <c r="L293" s="9"/>
-      <c r="M293" s="65" t="s">
+      <c r="M293" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N293" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>790</v>
       </c>
@@ -17476,11 +18365,14 @@
       <c r="L294" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M294" s="65" t="s">
+      <c r="M294" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N294" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>790</v>
       </c>
@@ -17517,11 +18409,14 @@
       <c r="L295" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="M295" s="65" t="s">
+      <c r="M295" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N295" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>790</v>
       </c>
@@ -17558,11 +18453,14 @@
       <c r="L296" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="M296" s="65" t="s">
+      <c r="M296" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N296" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>790</v>
       </c>
@@ -17599,11 +18497,14 @@
       <c r="L297" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="M297" s="65" t="s">
+      <c r="M297" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N297" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>790</v>
       </c>
@@ -17640,11 +18541,14 @@
       <c r="L298" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M298" s="65" t="s">
+      <c r="M298" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N298" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>790</v>
       </c>
@@ -17681,11 +18585,14 @@
       <c r="L299" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="M299" s="65" t="s">
+      <c r="M299" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N299" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
         <v>790</v>
       </c>
@@ -17720,11 +18627,14 @@
         <v>19</v>
       </c>
       <c r="L300" s="9"/>
-      <c r="M300" s="65" t="s">
+      <c r="M300" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N300" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>790</v>
       </c>
@@ -17761,11 +18671,14 @@
       <c r="L301" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="M301" s="65" t="s">
+      <c r="M301" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N301" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>790</v>
       </c>
@@ -17802,11 +18715,14 @@
       <c r="L302" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="M302" s="65" t="s">
+      <c r="M302" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N302" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>790</v>
       </c>
@@ -17841,11 +18757,14 @@
         <v>19</v>
       </c>
       <c r="L303" s="9"/>
-      <c r="M303" s="65" t="s">
+      <c r="M303" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N303" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>790</v>
       </c>
@@ -17882,11 +18801,14 @@
       <c r="L304" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="M304" s="65" t="s">
+      <c r="M304" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N304" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>790</v>
       </c>
@@ -17923,11 +18845,14 @@
       <c r="L305" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="M305" s="65" t="s">
+      <c r="M305" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N305" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>783</v>
       </c>
@@ -17964,11 +18889,14 @@
       <c r="L306" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M306" s="65" t="s">
+      <c r="M306" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N306" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>783</v>
       </c>
@@ -18005,11 +18933,14 @@
       <c r="L307" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="M307" s="65" t="s">
+      <c r="M307" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N307" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>783</v>
       </c>
@@ -18046,11 +18977,14 @@
       <c r="L308" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="M308" s="65" t="s">
+      <c r="M308" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N308" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>783</v>
       </c>
@@ -18087,11 +19021,14 @@
       <c r="L309" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="M309" s="65" t="s">
+      <c r="M309" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N309" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>783</v>
       </c>
@@ -18128,11 +19065,14 @@
       <c r="L310" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="M310" s="65" t="s">
+      <c r="M310" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N310" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>783</v>
       </c>
@@ -18167,11 +19107,14 @@
         <v>19</v>
       </c>
       <c r="L311" s="9"/>
-      <c r="M311" s="65" t="s">
+      <c r="M311" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N311" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>783</v>
       </c>
@@ -18208,11 +19151,14 @@
       <c r="L312" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="M312" s="65" t="s">
+      <c r="M312" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N312" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>783</v>
       </c>
@@ -18249,11 +19195,14 @@
       <c r="L313" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="M313" s="65" t="s">
+      <c r="M313" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N313" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>783</v>
       </c>
@@ -18290,11 +19239,14 @@
       <c r="L314" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="M314" s="65" t="s">
+      <c r="M314" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N314" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>783</v>
       </c>
@@ -18331,11 +19283,14 @@
       <c r="L315" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="M315" s="65" t="s">
+      <c r="M315" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N315" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>783</v>
       </c>
@@ -18372,11 +19327,14 @@
       <c r="L316" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="M316" s="65" t="s">
+      <c r="M316" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N316" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>783</v>
       </c>
@@ -18413,11 +19371,14 @@
       <c r="L317" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="M317" s="65" t="s">
+      <c r="M317" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N317" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>783</v>
       </c>
@@ -18454,11 +19415,14 @@
       <c r="L318" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="M318" s="65" t="s">
+      <c r="M318" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N318" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>783</v>
       </c>
@@ -18495,11 +19459,14 @@
       <c r="L319" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="M319" s="65" t="s">
+      <c r="M319" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N319" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>783</v>
       </c>
@@ -18536,11 +19503,14 @@
       <c r="L320" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="M320" s="65" t="s">
+      <c r="M320" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N320" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>783</v>
       </c>
@@ -18577,11 +19547,14 @@
       <c r="L321" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="M321" s="65" t="s">
+      <c r="M321" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N321" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>783</v>
       </c>
@@ -18618,11 +19591,14 @@
       <c r="L322" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="M322" s="65" t="s">
+      <c r="M322" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N322" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>790</v>
       </c>
@@ -18659,11 +19635,14 @@
       <c r="L323" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="M323" s="65" t="s">
+      <c r="M323" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N323" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>790</v>
       </c>
@@ -18698,11 +19677,14 @@
         <v>19</v>
       </c>
       <c r="L324" s="9"/>
-      <c r="M324" s="65" t="s">
+      <c r="M324" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N324" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>790</v>
       </c>
@@ -18739,11 +19721,14 @@
       <c r="L325" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="M325" s="65" t="s">
+      <c r="M325" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N325" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>790</v>
       </c>
@@ -18780,11 +19765,14 @@
       <c r="L326" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="M326" s="65" t="s">
+      <c r="M326" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N326" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>790</v>
       </c>
@@ -18821,11 +19809,14 @@
       <c r="L327" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="M327" s="65" t="s">
+      <c r="M327" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N327" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>790</v>
       </c>
@@ -18862,11 +19853,14 @@
       <c r="L328" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="M328" s="65" t="s">
+      <c r="M328" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N328" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>790</v>
       </c>
@@ -18903,11 +19897,14 @@
       <c r="L329" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M329" s="65" t="s">
+      <c r="M329" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N329" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>790</v>
       </c>
@@ -18944,11 +19941,14 @@
       <c r="L330" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="M330" s="65" t="s">
+      <c r="M330" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N330" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
         <v>790</v>
       </c>
@@ -18983,11 +19983,14 @@
         <v>19</v>
       </c>
       <c r="L331" s="9"/>
-      <c r="M331" s="65" t="s">
+      <c r="M331" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N331" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>790</v>
       </c>
@@ -19024,11 +20027,14 @@
       <c r="L332" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="M332" s="65" t="s">
+      <c r="M332" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N332" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>790</v>
       </c>
@@ -19065,11 +20071,14 @@
       <c r="L333" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="M333" s="65" t="s">
+      <c r="M333" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N333" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>790</v>
       </c>
@@ -19106,11 +20115,14 @@
       <c r="L334" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M334" s="65" t="s">
+      <c r="M334" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N334" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>790</v>
       </c>
@@ -19147,11 +20159,14 @@
       <c r="L335" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="M335" s="65" t="s">
+      <c r="M335" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N335" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>790</v>
       </c>
@@ -19188,11 +20203,14 @@
       <c r="L336" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M336" s="65" t="s">
+      <c r="M336" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N336" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>790</v>
       </c>
@@ -19227,11 +20245,14 @@
         <v>19</v>
       </c>
       <c r="L337" s="9"/>
-      <c r="M337" s="65" t="s">
+      <c r="M337" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N337" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>790</v>
       </c>
@@ -19268,11 +20289,14 @@
       <c r="L338" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="M338" s="65" t="s">
+      <c r="M338" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N338" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>790</v>
       </c>
@@ -19309,11 +20333,14 @@
       <c r="L339" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M339" s="65" t="s">
+      <c r="M339" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N339" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>790</v>
       </c>
@@ -19350,11 +20377,14 @@
       <c r="L340" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="M340" s="65" t="s">
+      <c r="M340" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N340" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>790</v>
       </c>
@@ -19391,11 +20421,14 @@
       <c r="L341" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="M341" s="65" t="s">
+      <c r="M341" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N341" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>790</v>
       </c>
@@ -19432,11 +20465,14 @@
       <c r="L342" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="M342" s="65" t="s">
+      <c r="M342" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N342" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>790</v>
       </c>
@@ -19473,11 +20509,14 @@
       <c r="L343" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="M343" s="65" t="s">
+      <c r="M343" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N343" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>790</v>
       </c>
@@ -19514,11 +20553,14 @@
       <c r="L344" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="M344" s="65" t="s">
+      <c r="M344" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N344" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
         <v>790</v>
       </c>
@@ -19555,11 +20597,14 @@
       <c r="L345" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="M345" s="65" t="s">
+      <c r="M345" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N345" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>790</v>
       </c>
@@ -19596,11 +20641,14 @@
       <c r="L346" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="M346" s="65" t="s">
+      <c r="M346" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N346" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>790</v>
       </c>
@@ -19635,11 +20683,14 @@
         <v>19</v>
       </c>
       <c r="L347" s="9"/>
-      <c r="M347" s="65" t="s">
+      <c r="M347" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N347" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>790</v>
       </c>
@@ -19676,11 +20727,14 @@
       <c r="L348" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="M348" s="65" t="s">
+      <c r="M348" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N348" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>783</v>
       </c>
@@ -19717,11 +20771,14 @@
       <c r="L349" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="M349" s="65" t="s">
+      <c r="M349" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N349" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>783</v>
       </c>
@@ -19758,11 +20815,14 @@
       <c r="L350" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="M350" s="65" t="s">
+      <c r="M350" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N350" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>783</v>
       </c>
@@ -19799,11 +20859,14 @@
       <c r="L351" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="M351" s="65" t="s">
+      <c r="M351" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N351" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>783</v>
       </c>
@@ -19840,11 +20903,14 @@
       <c r="L352" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="M352" s="65" t="s">
+      <c r="M352" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N352" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>783</v>
       </c>
@@ -19881,11 +20947,14 @@
       <c r="L353" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="M353" s="65" t="s">
+      <c r="M353" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N353" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>783</v>
       </c>
@@ -19922,11 +20991,14 @@
       <c r="L354" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="M354" s="65" t="s">
+      <c r="M354" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N354" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
         <v>783</v>
       </c>
@@ -19963,11 +21035,14 @@
       <c r="L355" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="M355" s="65" t="s">
+      <c r="M355" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N355" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>783</v>
       </c>
@@ -20004,11 +21079,14 @@
       <c r="L356" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="M356" s="65" t="s">
+      <c r="M356" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N356" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>783</v>
       </c>
@@ -20045,11 +21123,14 @@
       <c r="L357" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="M357" s="65" t="s">
+      <c r="M357" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N357" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>783</v>
       </c>
@@ -20084,11 +21165,14 @@
         <v>19</v>
       </c>
       <c r="L358" s="9"/>
-      <c r="M358" s="65" t="s">
+      <c r="M358" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N358" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>783</v>
       </c>
@@ -20123,11 +21207,14 @@
         <v>19</v>
       </c>
       <c r="L359" s="9"/>
-      <c r="M359" s="65" t="s">
+      <c r="M359" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N359" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
         <v>783</v>
       </c>
@@ -20164,11 +21251,14 @@
       <c r="L360" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="M360" s="65" t="s">
+      <c r="M360" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N360" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
         <v>783</v>
       </c>
@@ -20205,11 +21295,14 @@
       <c r="L361" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M361" s="65" t="s">
+      <c r="M361" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N361" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>783</v>
       </c>
@@ -20244,11 +21337,14 @@
         <v>19</v>
       </c>
       <c r="L362" s="9"/>
-      <c r="M362" s="65" t="s">
+      <c r="M362" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N362" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>783</v>
       </c>
@@ -20285,11 +21381,14 @@
       <c r="L363" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="M363" s="65" t="s">
+      <c r="M363" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N363" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>783</v>
       </c>
@@ -20326,11 +21425,14 @@
       <c r="L364" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="M364" s="65" t="s">
+      <c r="M364" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N364" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>783</v>
       </c>
@@ -20365,11 +21467,14 @@
         <v>19</v>
       </c>
       <c r="L365" s="9"/>
-      <c r="M365" s="65" t="s">
+      <c r="M365" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N365" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>783</v>
       </c>
@@ -20406,11 +21511,14 @@
       <c r="L366" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="M366" s="65" t="s">
+      <c r="M366" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N366" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
         <v>783</v>
       </c>
@@ -20447,11 +21555,14 @@
       <c r="L367" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M367" s="65" t="s">
+      <c r="M367" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N367" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
         <v>783</v>
       </c>
@@ -20488,11 +21599,14 @@
       <c r="L368" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="M368" s="65" t="s">
+      <c r="M368" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N368" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
         <v>783</v>
       </c>
@@ -20529,11 +21643,14 @@
       <c r="L369" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="M369" s="65" t="s">
+      <c r="M369" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N369" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>783</v>
       </c>
@@ -20568,11 +21685,14 @@
         <v>19</v>
       </c>
       <c r="L370" s="9"/>
-      <c r="M370" s="65" t="s">
+      <c r="M370" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N370" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>783</v>
       </c>
@@ -20607,11 +21727,14 @@
         <v>19</v>
       </c>
       <c r="L371" s="9"/>
-      <c r="M371" s="65" t="s">
+      <c r="M371" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N371" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>783</v>
       </c>
@@ -20648,11 +21771,14 @@
       <c r="L372" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="M372" s="65" t="s">
+      <c r="M372" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N372" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
         <v>790</v>
       </c>
@@ -20689,11 +21815,14 @@
       <c r="L373" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="M373" s="65" t="s">
+      <c r="M373" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N373" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
         <v>790</v>
       </c>
@@ -20730,11 +21859,14 @@
       <c r="L374" t="s">
         <v>36</v>
       </c>
-      <c r="M374" s="65" t="s">
+      <c r="M374" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N374" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
         <v>790</v>
       </c>
@@ -20771,11 +21903,14 @@
       <c r="L375" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="M375" s="65" t="s">
+      <c r="M375" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N375" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
         <v>790</v>
       </c>
@@ -20812,11 +21947,14 @@
       <c r="L376" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="M376" s="65" t="s">
+      <c r="M376" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N376" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
         <v>790</v>
       </c>
@@ -20853,11 +21991,14 @@
       <c r="L377" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="M377" s="65" t="s">
+      <c r="M377" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N377" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
         <v>790</v>
       </c>
@@ -20894,11 +22035,14 @@
       <c r="L378" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="M378" s="65" t="s">
+      <c r="M378" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N378" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
         <v>790</v>
       </c>
@@ -20935,11 +22079,14 @@
       <c r="L379" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="M379" s="65" t="s">
+      <c r="M379" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N379" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>790</v>
       </c>
@@ -20976,11 +22123,14 @@
       <c r="L380" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="M380" s="65" t="s">
+      <c r="M380" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N380" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
         <v>790</v>
       </c>
@@ -21017,11 +22167,14 @@
       <c r="L381" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="M381" s="65" t="s">
+      <c r="M381" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N381" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
         <v>790</v>
       </c>
@@ -21058,11 +22211,14 @@
       <c r="L382" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M382" s="65" t="s">
+      <c r="M382" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N382" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
         <v>790</v>
       </c>
@@ -21099,11 +22255,14 @@
       <c r="L383" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M383" s="65" t="s">
+      <c r="M383" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N383" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
         <v>790</v>
       </c>
@@ -21140,11 +22299,14 @@
       <c r="L384" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="M384" s="65" t="s">
+      <c r="M384" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N384" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>783</v>
       </c>
@@ -21179,11 +22341,14 @@
         <v>19</v>
       </c>
       <c r="L385" s="9"/>
-      <c r="M385" s="65" t="s">
+      <c r="M385" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N385" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>783</v>
       </c>
@@ -21218,11 +22383,14 @@
         <v>19</v>
       </c>
       <c r="L386" s="9"/>
-      <c r="M386" s="65" t="s">
+      <c r="M386" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N386" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
         <v>783</v>
       </c>
@@ -21259,11 +22427,14 @@
       <c r="L387" t="s">
         <v>42</v>
       </c>
-      <c r="M387" s="65" t="s">
+      <c r="M387" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N387" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
         <v>783</v>
       </c>
@@ -21300,11 +22471,14 @@
       <c r="L388" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="M388" s="65" t="s">
+      <c r="M388" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N388" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
         <v>783</v>
       </c>
@@ -21341,11 +22515,14 @@
       <c r="L389" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="M389" s="65" t="s">
+      <c r="M389" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N389" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
         <v>783</v>
       </c>
@@ -21382,11 +22559,14 @@
       <c r="L390" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="M390" s="65" t="s">
+      <c r="M390" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N390" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
         <v>783</v>
       </c>
@@ -21423,11 +22603,14 @@
       <c r="L391" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="M391" s="65" t="s">
+      <c r="M391" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N391" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>783</v>
       </c>
@@ -21464,11 +22647,14 @@
       <c r="L392" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="M392" s="65" t="s">
+      <c r="M392" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N392" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
         <v>790</v>
       </c>
@@ -21505,11 +22691,14 @@
       <c r="L393" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M393" s="65" t="s">
+      <c r="M393" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N393" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>783</v>
       </c>
@@ -21546,11 +22735,14 @@
       <c r="L394" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="M394" s="65" t="s">
+      <c r="M394" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N394" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
         <v>790</v>
       </c>
@@ -21587,11 +22779,14 @@
       <c r="L395" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="M395" s="65" t="s">
+      <c r="M395" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N395" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>783</v>
       </c>
@@ -21628,11 +22823,14 @@
       <c r="L396" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="M396" s="65" t="s">
+      <c r="M396" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N396" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
         <v>783</v>
       </c>
@@ -21669,11 +22867,14 @@
       <c r="L397" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="M397" s="65" t="s">
+      <c r="M397" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N397" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
         <v>783</v>
       </c>
@@ -21710,11 +22911,14 @@
       <c r="L398" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="M398" s="65" t="s">
+      <c r="M398" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N398" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
         <v>783</v>
       </c>
@@ -21751,11 +22955,14 @@
       <c r="L399" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="M399" s="65" t="s">
+      <c r="M399" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N399" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>783</v>
       </c>
@@ -21792,11 +22999,14 @@
       <c r="L400" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="M400" s="65" t="s">
+      <c r="M400" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N400" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
         <v>790</v>
       </c>
@@ -21833,11 +23043,14 @@
       <c r="L401" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="M401" s="65" t="s">
+      <c r="M401" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N401" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
         <v>783</v>
       </c>
@@ -21874,11 +23087,14 @@
       <c r="L402" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="M402" s="65" t="s">
+      <c r="M402" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N402" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
         <v>783</v>
       </c>
@@ -21915,11 +23131,14 @@
       <c r="L403" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="M403" s="65" t="s">
+      <c r="M403" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N403" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
         <v>790</v>
       </c>
@@ -21954,11 +23173,14 @@
         <v>19</v>
       </c>
       <c r="L404" s="9"/>
-      <c r="M404" s="65" t="s">
+      <c r="M404" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N404" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
         <v>790</v>
       </c>
@@ -21995,11 +23217,14 @@
       <c r="L405" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="M405" s="65" t="s">
+      <c r="M405" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N405" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>790</v>
       </c>
@@ -22036,11 +23261,14 @@
       <c r="L406" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="M406" s="65" t="s">
+      <c r="M406" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N406" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>790</v>
       </c>
@@ -22077,11 +23305,14 @@
       <c r="L407" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="M407" s="65" t="s">
+      <c r="M407" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N407" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
         <v>790</v>
       </c>
@@ -22118,11 +23349,14 @@
       <c r="L408" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="M408" s="65" t="s">
+      <c r="M408" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N408" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
         <v>783</v>
       </c>
@@ -22159,11 +23393,14 @@
       <c r="L409" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="M409" s="65" t="s">
+      <c r="M409" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N409" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
         <v>40</v>
       </c>
@@ -22200,11 +23437,14 @@
       <c r="L410" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="M410" s="65" t="s">
+      <c r="M410" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N410" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>783</v>
       </c>
@@ -22241,11 +23481,14 @@
       <c r="L411" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M411" s="65" t="s">
+      <c r="M411" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N411" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
         <v>783</v>
       </c>
@@ -22282,11 +23525,14 @@
       <c r="L412" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="M412" s="65" t="s">
+      <c r="M412" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N412" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
         <v>790</v>
       </c>
@@ -22323,11 +23569,14 @@
       <c r="L413" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="M413" s="65" t="s">
+      <c r="M413" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N413" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
         <v>790</v>
       </c>
@@ -22364,11 +23613,14 @@
       <c r="L414" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M414" s="65" t="s">
+      <c r="M414" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N414" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
         <v>790</v>
       </c>
@@ -22405,11 +23657,14 @@
       <c r="L415" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="M415" s="65" t="s">
+      <c r="M415" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N415" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>783</v>
       </c>
@@ -22446,11 +23701,14 @@
       <c r="L416" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="M416" s="65" t="s">
+      <c r="M416" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N416" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
         <v>783</v>
       </c>
@@ -22487,11 +23745,14 @@
       <c r="L417" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M417" s="65" t="s">
+      <c r="M417" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N417" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
         <v>783</v>
       </c>
@@ -22528,11 +23789,14 @@
       <c r="L418" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="M418" s="65" t="s">
+      <c r="M418" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N418" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
         <v>790</v>
       </c>
@@ -22569,11 +23833,14 @@
       <c r="L419" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="M419" s="65" t="s">
+      <c r="M419" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N419" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
         <v>790</v>
       </c>
@@ -22610,11 +23877,14 @@
       <c r="L420" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="M420" s="65" t="s">
+      <c r="M420" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N420" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
         <v>783</v>
       </c>
@@ -22651,11 +23921,14 @@
       <c r="L421" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="M421" s="65" t="s">
+      <c r="M421" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N421" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
         <v>783</v>
       </c>
@@ -22692,11 +23965,14 @@
       <c r="L422" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="M422" s="65" t="s">
+      <c r="M422" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N422" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
         <v>783</v>
       </c>
@@ -22733,11 +24009,14 @@
       <c r="L423" t="s">
         <v>42</v>
       </c>
-      <c r="M423" s="65" t="s">
+      <c r="M423" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N423" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
         <v>790</v>
       </c>
@@ -22774,11 +24053,14 @@
       <c r="L424" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M424" s="65" t="s">
+      <c r="M424" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N424" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
         <v>783</v>
       </c>
@@ -22815,11 +24097,14 @@
       <c r="L425" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="M425" s="65" t="s">
+      <c r="M425" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N425" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
         <v>790</v>
       </c>
@@ -22856,11 +24141,14 @@
       <c r="L426" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M426" s="65" t="s">
+      <c r="M426" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N426" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
         <v>790</v>
       </c>
@@ -22897,11 +24185,14 @@
       <c r="L427" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="M427" s="65" t="s">
+      <c r="M427" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N427" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
         <v>790</v>
       </c>
@@ -22938,11 +24229,14 @@
       <c r="L428" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="M428" s="65" t="s">
+      <c r="M428" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N428" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
         <v>783</v>
       </c>
@@ -22979,11 +24273,14 @@
       <c r="L429" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="M429" s="65" t="s">
+      <c r="M429" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N429" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
         <v>783</v>
       </c>
@@ -23020,11 +24317,14 @@
       <c r="L430" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="M430" s="65" t="s">
+      <c r="M430" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N430" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
         <v>783</v>
       </c>
@@ -23061,11 +24361,14 @@
       <c r="L431" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="M431" s="65" t="s">
+      <c r="M431" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N431" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
         <v>783</v>
       </c>
@@ -23102,11 +24405,14 @@
       <c r="L432" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="M432" s="65" t="s">
+      <c r="M432" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N432" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
         <v>790</v>
       </c>
@@ -23143,11 +24449,14 @@
       <c r="L433" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="M433" s="65" t="s">
+      <c r="M433" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N433" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
         <v>790</v>
       </c>
@@ -23184,11 +24493,14 @@
       <c r="L434" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="M434" s="65" t="s">
+      <c r="M434" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N434" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
         <v>790</v>
       </c>
@@ -23225,11 +24537,14 @@
       <c r="L435" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="M435" s="65" t="s">
+      <c r="M435" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N435" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
         <v>783</v>
       </c>
@@ -23266,11 +24581,14 @@
       <c r="L436" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="M436" s="65" t="s">
+      <c r="M436" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N436" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
         <v>790</v>
       </c>
@@ -23307,11 +24625,14 @@
       <c r="L437" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="M437" s="65" t="s">
+      <c r="M437" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N437" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
         <v>790</v>
       </c>
@@ -23348,11 +24669,14 @@
       <c r="L438" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="M438" s="65" t="s">
+      <c r="M438" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N438" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
         <v>790</v>
       </c>
@@ -23389,11 +24713,14 @@
       <c r="L439" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M439" s="65" t="s">
+      <c r="M439" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N439" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
         <v>790</v>
       </c>
@@ -23430,11 +24757,14 @@
       <c r="L440" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="M440" s="65" t="s">
+      <c r="M440" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N440" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
         <v>790</v>
       </c>
@@ -23471,11 +24801,14 @@
       <c r="L441" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="M441" s="65" t="s">
+      <c r="M441" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N441" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
         <v>783</v>
       </c>
@@ -23512,11 +24845,14 @@
       <c r="L442" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="M442" s="65" t="s">
+      <c r="M442" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N442" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" s="6" t="s">
         <v>783</v>
       </c>
@@ -23553,11 +24889,14 @@
       <c r="L443" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="M443" s="65" t="s">
+      <c r="M443" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N443" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
         <v>783</v>
       </c>
@@ -23594,11 +24933,14 @@
       <c r="L444" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="M444" s="65" t="s">
+      <c r="M444" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N444" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
         <v>783</v>
       </c>
@@ -23635,11 +24977,14 @@
       <c r="L445" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="M445" s="65" t="s">
+      <c r="M445" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N445" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
         <v>790</v>
       </c>
@@ -23676,11 +25021,14 @@
       <c r="L446" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="M446" s="65" t="s">
+      <c r="M446" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N446" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
         <v>790</v>
       </c>
@@ -23717,11 +25065,14 @@
       <c r="L447" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="M447" s="65" t="s">
+      <c r="M447" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N447" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
         <v>790</v>
       </c>
@@ -23758,11 +25109,14 @@
       <c r="L448" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="M448" s="65" t="s">
+      <c r="M448" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N448" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
         <v>790</v>
       </c>
@@ -23799,11 +25153,14 @@
       <c r="L449" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="M449" s="65" t="s">
+      <c r="M449" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N449" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
         <v>790</v>
       </c>
@@ -23840,11 +25197,14 @@
       <c r="L450" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="M450" s="65" t="s">
+      <c r="M450" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N450" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
         <v>783</v>
       </c>
@@ -23881,11 +25241,14 @@
       <c r="L451" t="s">
         <v>46</v>
       </c>
-      <c r="M451" s="65" t="s">
+      <c r="M451" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N451" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
         <v>783</v>
       </c>
@@ -23922,11 +25285,14 @@
       <c r="L452" t="s">
         <v>46</v>
       </c>
-      <c r="M452" s="65" t="s">
+      <c r="M452" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N452" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
         <v>783</v>
       </c>
@@ -23963,11 +25329,14 @@
       <c r="L453" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="M453" s="65" t="s">
+      <c r="M453" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N453" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
         <v>790</v>
       </c>
@@ -24004,11 +25373,14 @@
       <c r="L454" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="M454" s="65" t="s">
+      <c r="M454" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N454" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
         <v>790</v>
       </c>
@@ -24045,11 +25417,14 @@
       <c r="L455" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="M455" s="65" t="s">
+      <c r="M455" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N455" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
         <v>783</v>
       </c>
@@ -24086,11 +25461,14 @@
       <c r="L456" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M456" s="65" t="s">
+      <c r="M456" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N456" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
         <v>790</v>
       </c>
@@ -24127,11 +25505,14 @@
       <c r="L457" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="M457" s="65" t="s">
+      <c r="M457" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N457" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
         <v>790</v>
       </c>
@@ -24168,11 +25549,14 @@
       <c r="L458" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="M458" s="65" t="s">
+      <c r="M458" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N458" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
         <v>790</v>
       </c>
@@ -24209,11 +25593,14 @@
       <c r="L459" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="M459" s="65" t="s">
+      <c r="M459" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N459" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
         <v>783</v>
       </c>
@@ -24250,11 +25637,14 @@
       <c r="L460" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="M460" s="65" t="s">
+      <c r="M460" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N460" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>783</v>
       </c>
@@ -24291,11 +25681,14 @@
       <c r="L461" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="M461" s="65" t="s">
+      <c r="M461" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N461" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
         <v>783</v>
       </c>
@@ -24332,11 +25725,14 @@
       <c r="L462" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="M462" s="65" t="s">
+      <c r="M462" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N462" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" s="6" t="s">
         <v>783</v>
       </c>
@@ -24371,11 +25767,14 @@
         <v>19</v>
       </c>
       <c r="L463" s="9"/>
-      <c r="M463" s="65" t="s">
+      <c r="M463" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N463" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
         <v>790</v>
       </c>
@@ -24412,11 +25811,14 @@
       <c r="L464" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="M464" s="65" t="s">
+      <c r="M464" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N464" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
         <v>790</v>
       </c>
@@ -24453,11 +25855,14 @@
       <c r="L465" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="M465" s="65" t="s">
+      <c r="M465" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N465" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
         <v>790</v>
       </c>
@@ -24494,11 +25899,14 @@
       <c r="L466" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="M466" s="65" t="s">
+      <c r="M466" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N466" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
         <v>790</v>
       </c>
@@ -24535,11 +25943,14 @@
       <c r="L467" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="M467" s="65" t="s">
+      <c r="M467" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N467" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
         <v>783</v>
       </c>
@@ -24576,11 +25987,14 @@
       <c r="L468" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="M468" s="65" t="s">
+      <c r="M468" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N468" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" s="6" t="s">
         <v>783</v>
       </c>
@@ -24617,11 +26031,14 @@
       <c r="L469" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="M469" s="65" t="s">
+      <c r="M469" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N469" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
         <v>783</v>
       </c>
@@ -24658,11 +26075,14 @@
       <c r="L470" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="M470" s="65" t="s">
+      <c r="M470" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N470" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" s="6" t="s">
         <v>790</v>
       </c>
@@ -24697,11 +26117,14 @@
         <v>19</v>
       </c>
       <c r="L471" s="9"/>
-      <c r="M471" s="65" t="s">
+      <c r="M471" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N471" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>790</v>
       </c>
@@ -24736,11 +26159,14 @@
         <v>19</v>
       </c>
       <c r="L472" s="9"/>
-      <c r="M472" s="65" t="s">
+      <c r="M472" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N472" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
         <v>790</v>
       </c>
@@ -24777,11 +26203,14 @@
       <c r="L473" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="M473" s="65" t="s">
+      <c r="M473" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N473" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
         <v>783</v>
       </c>
@@ -24818,11 +26247,14 @@
       <c r="L474" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="M474" s="65" t="s">
+      <c r="M474" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N474" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
         <v>783</v>
       </c>
@@ -24859,11 +26291,14 @@
       <c r="L475" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="M475" s="65" t="s">
+      <c r="M475" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N475" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
         <v>783</v>
       </c>
@@ -24900,11 +26335,14 @@
       <c r="L476" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="M476" s="65" t="s">
+      <c r="M476" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N476" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
         <v>783</v>
       </c>
@@ -24941,11 +26379,14 @@
       <c r="L477" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="M477" s="65" t="s">
+      <c r="M477" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N477" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
         <v>783</v>
       </c>
@@ -24982,11 +26423,14 @@
       <c r="L478" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="M478" s="65" t="s">
+      <c r="M478" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N478" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
         <v>790</v>
       </c>
@@ -25023,11 +26467,14 @@
       <c r="L479" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="M479" s="65" t="s">
+      <c r="M479" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N479" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
         <v>790</v>
       </c>
@@ -25064,11 +26511,14 @@
       <c r="L480" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="M480" s="65" t="s">
+      <c r="M480" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N480" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
         <v>790</v>
       </c>
@@ -25105,11 +26555,14 @@
       <c r="L481" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="M481" s="65" t="s">
+      <c r="M481" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N481" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
         <v>783</v>
       </c>
@@ -25146,11 +26599,14 @@
       <c r="L482" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="M482" s="65" t="s">
+      <c r="M482" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N482" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
         <v>790</v>
       </c>
@@ -25187,11 +26643,14 @@
       <c r="L483" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="M483" s="65" t="s">
+      <c r="M483" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N483" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
         <v>783</v>
       </c>
@@ -25228,11 +26687,14 @@
       <c r="L484" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="M484" s="65" t="s">
+      <c r="M484" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N484" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
         <v>783</v>
       </c>
@@ -25269,11 +26731,14 @@
       <c r="L485" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M485" s="65" t="s">
+      <c r="M485" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N485" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
         <v>790</v>
       </c>
@@ -25308,11 +26773,14 @@
         <v>19</v>
       </c>
       <c r="L486" s="9"/>
-      <c r="M486" s="65" t="s">
+      <c r="M486" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N486" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
         <v>790</v>
       </c>
@@ -25349,11 +26817,14 @@
       <c r="L487" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="M487" s="65" t="s">
+      <c r="M487" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N487" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
         <v>790</v>
       </c>
@@ -25390,11 +26861,14 @@
       <c r="L488" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="M488" s="65" t="s">
+      <c r="M488" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N488" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
         <v>783</v>
       </c>
@@ -25431,11 +26905,14 @@
       <c r="L489" t="s">
         <v>46</v>
       </c>
-      <c r="M489" s="65" t="s">
+      <c r="M489" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N489" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
         <v>783</v>
       </c>
@@ -25472,7 +26949,10 @@
       <c r="L490" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="M490" s="65" t="s">
+      <c r="M490" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N490" s="65" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -25641,8 +27121,8 @@
     <hyperlink ref="L487" r:id="rId160" xr:uid="{2C76EA13-4192-4021-BC08-AEF59C6CAC38}"/>
     <hyperlink ref="L488" r:id="rId161" xr:uid="{36F9C878-FB07-4232-A60E-8FAAD8C87E1F}"/>
     <hyperlink ref="L490" r:id="rId162" xr:uid="{7DFF0AD2-6A65-4654-9EAC-059619B83B6F}"/>
-    <hyperlink ref="M2" r:id="rId163" xr:uid="{84C7BBE6-EE28-48AF-8B0F-4E5DB1B2B786}"/>
-    <hyperlink ref="M3:M490" r:id="rId164" display="https://conexia.com.br" xr:uid="{067C0152-ED12-4A18-8A3A-1979D4FB441E}"/>
+    <hyperlink ref="N2" r:id="rId163" xr:uid="{84C7BBE6-EE28-48AF-8B0F-4E5DB1B2B786}"/>
+    <hyperlink ref="N3:N490" r:id="rId164" display="https://conexia.com.br" xr:uid="{067C0152-ED12-4A18-8A3A-1979D4FB441E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -46884,6 +48364,72 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AppVersion xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CultureName xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="badfd775-7abd-413a-998a-9fb661e3506f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Self_Registration_Enabled xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <NotebookType xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <FolderType xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <Students xmlns="badfd775-7abd-413a-998a-9fb661e3506f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Has_Teacher_Only_SectionGroup xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <TeamsChannelId xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <Invited_Teachers xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <Owner xmlns="badfd775-7abd-413a-998a-9fb661e3506f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Math_Settings xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <LMS_Mappings xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <Invited_Students xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <Distribution_Groups xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9af2dfcf-75d6-4331-b3d8-5db27d2567e2" xsi:nil="true"/>
+    <Teachers xmlns="badfd775-7abd-413a-998a-9fb661e3506f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Student_Groups xmlns="badfd775-7abd-413a-998a-9fb661e3506f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Templates xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F76118AAEDABBB489C8E2EBD12997450" ma:contentTypeVersion="40" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="53ec4ab2ba2e727d4cf2e3fd9d99e7d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="badfd775-7abd-413a-998a-9fb661e3506f" xmlns:ns3="9af2dfcf-75d6-4331-b3d8-5db27d2567e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27b9ad00fd338eda7dabdae8a6c046d6" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -47343,73 +48889,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AppVersion xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CultureName xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="badfd775-7abd-413a-998a-9fb661e3506f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Self_Registration_Enabled xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <NotebookType xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <FolderType xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <Students xmlns="badfd775-7abd-413a-998a-9fb661e3506f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Has_Teacher_Only_SectionGroup xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <TeamsChannelId xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <Invited_Teachers xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <Owner xmlns="badfd775-7abd-413a-998a-9fb661e3506f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Math_Settings xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <LMS_Mappings xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <Invited_Students xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <Distribution_Groups xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9af2dfcf-75d6-4331-b3d8-5db27d2567e2" xsi:nil="true"/>
-    <Teachers xmlns="badfd775-7abd-413a-998a-9fb661e3506f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Student_Groups xmlns="badfd775-7abd-413a-998a-9fb661e3506f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Templates xmlns="badfd775-7abd-413a-998a-9fb661e3506f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A4323E-BD15-4AD7-9722-8A20F6E6C11A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6704B4DF-FA5D-4D22-A5C5-B58115E9C550}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="badfd775-7abd-413a-998a-9fb661e3506f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9af2dfcf-75d6-4331-b3d8-5db27d2567e2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C4D8B78-909F-41D2-9C49-AB5083B179CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47427,24 +48927,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6704B4DF-FA5D-4D22-A5C5-B58115E9C550}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="badfd775-7abd-413a-998a-9fb661e3506f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9af2dfcf-75d6-4331-b3d8-5db27d2567e2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A4323E-BD15-4AD7-9722-8A20F6E6C11A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sistemaseb-my.sharepoint.com/personal/andreh_silva_sebsa_com_br/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3B71C807-1C2B-4B6A-B518-23154D5ACAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85DAA4B2-9492-4EE4-889B-CCFF2B862967}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{3B71C807-1C2B-4B6A-B518-23154D5ACAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEEFC840-FC25-4D2B-98FC-68996D82F92B}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TODOS OS VOLUMES" sheetId="17" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5962" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5962" uniqueCount="1283">
   <si>
     <t>VOLUME/PROJETO</t>
   </si>
@@ -3892,17 +3892,27 @@
   </si>
   <si>
     <t>SÉRIE</t>
+  </si>
+  <si>
+    <t>INFANTIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3985,30 +3995,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -4226,10 +4237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C37FD76-4C09-409F-B9A8-72882E138BC1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G497" sqref="G495:G497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4237,13 +4249,13 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="85.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" customWidth="1"/>
     <col min="5" max="5" width="50.140625" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
     <col min="8" max="8" width="37.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
     <col min="11" max="11" width="94.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="120.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="120.5703125" customWidth="1"/>
@@ -4316,8 +4328,8 @@
       <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="G2" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -4361,8 +4373,8 @@
       <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="G3" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -4389,7 +4401,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
@@ -4408,8 +4420,8 @@
       <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
+      <c r="G4" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -4436,7 +4448,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
@@ -4455,8 +4467,8 @@
       <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
+      <c r="G5" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
@@ -4483,7 +4495,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -4502,8 +4514,8 @@
       <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
+      <c r="G6" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
@@ -4528,7 +4540,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
@@ -4547,8 +4559,8 @@
       <c r="F7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
-        <v>10</v>
+      <c r="G7" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -4573,7 +4585,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -4592,8 +4604,8 @@
       <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
-        <v>10</v>
+      <c r="G8" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -4618,7 +4630,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
@@ -4637,8 +4649,8 @@
       <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
+      <c r="G9" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -4663,7 +4675,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
@@ -4682,8 +4694,8 @@
       <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
-        <v>10</v>
+      <c r="G10" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
@@ -4708,7 +4720,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -4727,8 +4739,8 @@
       <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>10</v>
+      <c r="G11" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H11" t="s">
         <v>48</v>
@@ -4755,7 +4767,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>45</v>
       </c>
@@ -4774,8 +4786,8 @@
       <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G12" t="s">
-        <v>10</v>
+      <c r="G12" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H12" t="s">
         <v>51</v>
@@ -4800,7 +4812,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -4819,8 +4831,8 @@
       <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
-        <v>10</v>
+      <c r="G13" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
@@ -4847,7 +4859,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -4866,8 +4878,8 @@
       <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
-        <v>10</v>
+      <c r="G14" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -4892,7 +4904,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
@@ -4911,8 +4923,8 @@
       <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
-        <v>10</v>
+      <c r="G15" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -4939,7 +4951,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
@@ -4958,8 +4970,8 @@
       <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G16" t="s">
-        <v>10</v>
+      <c r="G16" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H16" t="s">
         <v>63</v>
@@ -4984,7 +4996,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -5003,8 +5015,8 @@
       <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s">
-        <v>10</v>
+      <c r="G17" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -5029,7 +5041,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -5048,8 +5060,8 @@
       <c r="F18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G18" t="s">
-        <v>10</v>
+      <c r="G18" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H18" t="s">
         <v>69</v>
@@ -5074,7 +5086,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>45</v>
       </c>
@@ -5093,8 +5105,8 @@
       <c r="F19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
-        <v>10</v>
+      <c r="G19" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H19" t="s">
         <v>72</v>
@@ -5121,7 +5133,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
@@ -5140,8 +5152,8 @@
       <c r="F20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G20" t="s">
-        <v>10</v>
+      <c r="G20" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H20" t="s">
         <v>39</v>
@@ -5168,7 +5180,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>77</v>
       </c>
@@ -5187,8 +5199,8 @@
       <c r="F21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G21" t="s">
-        <v>10</v>
+      <c r="G21" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H21" t="s">
         <v>80</v>
@@ -5213,7 +5225,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>77</v>
       </c>
@@ -5232,8 +5244,8 @@
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" t="s">
-        <v>10</v>
+      <c r="G22" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>
@@ -5260,7 +5272,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>77</v>
       </c>
@@ -5279,8 +5291,8 @@
       <c r="F23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G23" t="s">
-        <v>10</v>
+      <c r="G23" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H23" t="s">
         <v>24</v>
@@ -5307,7 +5319,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>77</v>
       </c>
@@ -5326,8 +5338,8 @@
       <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G24" t="s">
-        <v>10</v>
+      <c r="G24" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H24" t="s">
         <v>72</v>
@@ -5354,7 +5366,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>77</v>
       </c>
@@ -5373,8 +5385,8 @@
       <c r="F25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G25" t="s">
-        <v>10</v>
+      <c r="G25" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H25" t="s">
         <v>44</v>
@@ -5401,7 +5413,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>77</v>
       </c>
@@ -5420,8 +5432,8 @@
       <c r="F26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G26" t="s">
-        <v>10</v>
+      <c r="G26" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H26" t="s">
         <v>72</v>
@@ -5448,7 +5460,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>77</v>
       </c>
@@ -5467,8 +5479,8 @@
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" t="s">
-        <v>10</v>
+      <c r="G27" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H27" t="s">
         <v>24</v>
@@ -5493,7 +5505,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>77</v>
       </c>
@@ -5512,8 +5524,8 @@
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" t="s">
-        <v>10</v>
+      <c r="G28" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H28" t="s">
         <v>96</v>
@@ -5538,7 +5550,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>77</v>
       </c>
@@ -5557,8 +5569,8 @@
       <c r="F29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G29" t="s">
-        <v>10</v>
+      <c r="G29" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H29" t="s">
         <v>99</v>
@@ -5583,7 +5595,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>9</v>
       </c>
@@ -5602,8 +5614,8 @@
       <c r="F30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G30" t="s">
-        <v>10</v>
+      <c r="G30" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H30" t="s">
         <v>102</v>
@@ -5628,7 +5640,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>9</v>
       </c>
@@ -5647,8 +5659,8 @@
       <c r="F31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G31" t="s">
-        <v>10</v>
+      <c r="G31" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H31" t="s">
         <v>80</v>
@@ -5673,7 +5685,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>9</v>
       </c>
@@ -5692,8 +5704,8 @@
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" t="s">
-        <v>10</v>
+      <c r="G32" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H32" t="s">
         <v>107</v>
@@ -5720,7 +5732,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -5739,8 +5751,8 @@
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" t="s">
-        <v>10</v>
+      <c r="G33" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H33" t="s">
         <v>20</v>
@@ -5767,7 +5779,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>9</v>
       </c>
@@ -5786,8 +5798,8 @@
       <c r="F34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G34" t="s">
-        <v>10</v>
+      <c r="G34" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H34" t="s">
         <v>114</v>
@@ -5814,7 +5826,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>9</v>
       </c>
@@ -5833,8 +5845,8 @@
       <c r="F35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G35" t="s">
-        <v>10</v>
+      <c r="G35" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H35" t="s">
         <v>118</v>
@@ -5861,7 +5873,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>9</v>
       </c>
@@ -5880,8 +5892,8 @@
       <c r="F36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G36" t="s">
-        <v>10</v>
+      <c r="G36" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H36" t="s">
         <v>44</v>
@@ -5908,7 +5920,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>17</v>
       </c>
@@ -5927,8 +5939,8 @@
       <c r="F37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G37" t="s">
-        <v>10</v>
+      <c r="G37" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H37" t="s">
         <v>39</v>
@@ -5955,7 +5967,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>17</v>
       </c>
@@ -5974,8 +5986,8 @@
       <c r="F38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G38" t="s">
-        <v>10</v>
+      <c r="G38" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H38" t="s">
         <v>44</v>
@@ -6002,7 +6014,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>17</v>
       </c>
@@ -6021,8 +6033,8 @@
       <c r="F39" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G39" t="s">
-        <v>10</v>
+      <c r="G39" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H39" t="s">
         <v>69</v>
@@ -6047,7 +6059,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>17</v>
       </c>
@@ -6066,8 +6078,8 @@
       <c r="F40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G40" t="s">
-        <v>10</v>
+      <c r="G40" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H40" t="s">
         <v>114</v>
@@ -6094,7 +6106,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>17</v>
       </c>
@@ -6113,8 +6125,8 @@
       <c r="F41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G41" t="s">
-        <v>10</v>
+      <c r="G41" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H41" t="s">
         <v>24</v>
@@ -6141,7 +6153,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>17</v>
       </c>
@@ -6160,8 +6172,8 @@
       <c r="F42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G42" t="s">
-        <v>10</v>
+      <c r="G42" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H42" t="s">
         <v>24</v>
@@ -6188,7 +6200,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>17</v>
       </c>
@@ -6207,8 +6219,8 @@
       <c r="F43" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G43" t="s">
-        <v>10</v>
+      <c r="G43" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H43" t="s">
         <v>72</v>
@@ -6235,7 +6247,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>17</v>
       </c>
@@ -6254,8 +6266,8 @@
       <c r="F44" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G44" t="s">
-        <v>10</v>
+      <c r="G44" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H44" t="s">
         <v>24</v>
@@ -6282,7 +6294,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>17</v>
       </c>
@@ -6301,8 +6313,8 @@
       <c r="F45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G45" t="s">
-        <v>10</v>
+      <c r="G45" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H45" t="s">
         <v>147</v>
@@ -6327,7 +6339,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>17</v>
       </c>
@@ -6346,8 +6358,8 @@
       <c r="F46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G46" t="s">
-        <v>10</v>
+      <c r="G46" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H46" t="s">
         <v>44</v>
@@ -6374,7 +6386,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>17</v>
       </c>
@@ -6393,8 +6405,8 @@
       <c r="F47" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G47" t="s">
-        <v>10</v>
+      <c r="G47" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H47" t="s">
         <v>152</v>
@@ -6421,7 +6433,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>32</v>
       </c>
@@ -6440,8 +6452,8 @@
       <c r="F48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G48" t="s">
-        <v>10</v>
+      <c r="G48" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H48" t="s">
         <v>155</v>
@@ -6466,7 +6478,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>32</v>
       </c>
@@ -6485,8 +6497,8 @@
       <c r="F49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G49" t="s">
-        <v>10</v>
+      <c r="G49" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H49" t="s">
         <v>159</v>
@@ -6511,7 +6523,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>32</v>
       </c>
@@ -6530,8 +6542,8 @@
       <c r="F50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G50" t="s">
-        <v>10</v>
+      <c r="G50" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H50" t="s">
         <v>162</v>
@@ -6556,7 +6568,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>32</v>
       </c>
@@ -6575,8 +6587,8 @@
       <c r="F51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G51" t="s">
-        <v>10</v>
+      <c r="G51" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H51" t="s">
         <v>165</v>
@@ -6601,7 +6613,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>32</v>
       </c>
@@ -6620,8 +6632,8 @@
       <c r="F52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G52" t="s">
-        <v>10</v>
+      <c r="G52" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H52" t="s">
         <v>167</v>
@@ -6646,7 +6658,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>32</v>
       </c>
@@ -6665,8 +6677,8 @@
       <c r="F53" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G53" t="s">
-        <v>10</v>
+      <c r="G53" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H53" t="s">
         <v>170</v>
@@ -6691,7 +6703,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>32</v>
       </c>
@@ -6710,8 +6722,8 @@
       <c r="F54" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G54" t="s">
-        <v>10</v>
+      <c r="G54" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H54" t="s">
         <v>118</v>
@@ -6736,7 +6748,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>32</v>
       </c>
@@ -6755,8 +6767,8 @@
       <c r="F55" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G55" t="s">
-        <v>10</v>
+      <c r="G55" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H55" t="s">
         <v>175</v>
@@ -6781,7 +6793,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>32</v>
       </c>
@@ -6800,8 +6812,8 @@
       <c r="F56" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G56" t="s">
-        <v>10</v>
+      <c r="G56" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H56" t="s">
         <v>51</v>
@@ -6826,7 +6838,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>41</v>
       </c>
@@ -6845,8 +6857,8 @@
       <c r="F57" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G57" t="s">
-        <v>10</v>
+      <c r="G57" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H57" t="s">
         <v>24</v>
@@ -6871,7 +6883,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>41</v>
       </c>
@@ -6890,8 +6902,8 @@
       <c r="F58" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G58" t="s">
-        <v>10</v>
+      <c r="G58" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H58" t="s">
         <v>182</v>
@@ -6916,7 +6928,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>41</v>
       </c>
@@ -6935,8 +6947,8 @@
       <c r="F59" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G59" t="s">
-        <v>10</v>
+      <c r="G59" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H59" t="s">
         <v>185</v>
@@ -6961,7 +6973,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>45</v>
       </c>
@@ -6980,8 +6992,8 @@
       <c r="F60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G60" t="s">
-        <v>10</v>
+      <c r="G60" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H60" t="s">
         <v>66</v>
@@ -7006,7 +7018,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>45</v>
       </c>
@@ -7025,8 +7037,8 @@
       <c r="F61" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G61" t="s">
-        <v>10</v>
+      <c r="G61" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H61" t="s">
         <v>39</v>
@@ -7053,7 +7065,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>45</v>
       </c>
@@ -7072,8 +7084,8 @@
       <c r="F62" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G62" t="s">
-        <v>10</v>
+      <c r="G62" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H62" t="s">
         <v>72</v>
@@ -7098,7 +7110,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>45</v>
       </c>
@@ -7117,8 +7129,8 @@
       <c r="F63" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G63" t="s">
-        <v>10</v>
+      <c r="G63" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H63" t="s">
         <v>194</v>
@@ -7145,7 +7157,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>77</v>
       </c>
@@ -7164,8 +7176,8 @@
       <c r="F64" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G64" t="s">
-        <v>10</v>
+      <c r="G64" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H64" t="s">
         <v>198</v>
@@ -7192,7 +7204,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>77</v>
       </c>
@@ -7211,8 +7223,8 @@
       <c r="F65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G65" t="s">
-        <v>10</v>
+      <c r="G65" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H65" t="s">
         <v>201</v>
@@ -7239,7 +7251,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>77</v>
       </c>
@@ -7258,8 +7270,8 @@
       <c r="F66" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G66" t="s">
-        <v>10</v>
+      <c r="G66" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H66" t="s">
         <v>198</v>
@@ -7286,7 +7298,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>77</v>
       </c>
@@ -7305,8 +7317,8 @@
       <c r="F67" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G67" t="s">
-        <v>10</v>
+      <c r="G67" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H67" t="s">
         <v>96</v>
@@ -7333,7 +7345,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>77</v>
       </c>
@@ -7352,8 +7364,8 @@
       <c r="F68" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G68" t="s">
-        <v>10</v>
+      <c r="G68" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H68" t="s">
         <v>210</v>
@@ -7380,7 +7392,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>77</v>
       </c>
@@ -7399,8 +7411,8 @@
       <c r="F69" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G69" t="s">
-        <v>10</v>
+      <c r="G69" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H69" t="s">
         <v>20</v>
@@ -7427,7 +7439,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>77</v>
       </c>
@@ -7446,8 +7458,8 @@
       <c r="F70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G70" t="s">
-        <v>10</v>
+      <c r="G70" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H70" t="s">
         <v>24</v>
@@ -7474,7 +7486,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>77</v>
       </c>
@@ -7493,8 +7505,8 @@
       <c r="F71" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G71" t="s">
-        <v>10</v>
+      <c r="G71" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H71" t="s">
         <v>201</v>
@@ -7521,7 +7533,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>9</v>
       </c>
@@ -7540,8 +7552,8 @@
       <c r="F72" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G72" t="s">
-        <v>10</v>
+      <c r="G72" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H72" t="s">
         <v>24</v>
@@ -7568,7 +7580,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>9</v>
       </c>
@@ -7587,8 +7599,8 @@
       <c r="F73" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G73" t="s">
-        <v>10</v>
+      <c r="G73" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H73" t="s">
         <v>39</v>
@@ -7615,7 +7627,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>9</v>
       </c>
@@ -7634,8 +7646,8 @@
       <c r="F74" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G74" t="s">
-        <v>10</v>
+      <c r="G74" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H74" t="s">
         <v>228</v>
@@ -7662,7 +7674,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>9</v>
       </c>
@@ -7681,8 +7693,8 @@
       <c r="F75" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G75" t="s">
-        <v>10</v>
+      <c r="G75" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H75" t="s">
         <v>20</v>
@@ -7709,7 +7721,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>9</v>
       </c>
@@ -7728,8 +7740,8 @@
       <c r="F76" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G76" t="s">
-        <v>10</v>
+      <c r="G76" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H76" t="s">
         <v>96</v>
@@ -7754,7 +7766,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>9</v>
       </c>
@@ -7773,8 +7785,8 @@
       <c r="F77" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G77" t="s">
-        <v>10</v>
+      <c r="G77" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H77" t="s">
         <v>24</v>
@@ -7801,7 +7813,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>9</v>
       </c>
@@ -7820,8 +7832,8 @@
       <c r="F78" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G78" t="s">
-        <v>10</v>
+      <c r="G78" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H78" t="s">
         <v>240</v>
@@ -7848,7 +7860,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>9</v>
       </c>
@@ -7867,8 +7879,8 @@
       <c r="F79" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G79" t="s">
-        <v>10</v>
+      <c r="G79" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H79" t="s">
         <v>39</v>
@@ -7895,7 +7907,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>9</v>
       </c>
@@ -7914,8 +7926,8 @@
       <c r="F80" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G80" t="s">
-        <v>10</v>
+      <c r="G80" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H80" t="s">
         <v>247</v>
@@ -7940,7 +7952,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>9</v>
       </c>
@@ -7959,8 +7971,8 @@
       <c r="F81" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G81" t="s">
-        <v>10</v>
+      <c r="G81" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H81" t="s">
         <v>250</v>
@@ -7985,7 +7997,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>9</v>
       </c>
@@ -8004,8 +8016,8 @@
       <c r="F82" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G82" t="s">
-        <v>10</v>
+      <c r="G82" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H82" t="s">
         <v>39</v>
@@ -8032,7 +8044,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>9</v>
       </c>
@@ -8051,8 +8063,8 @@
       <c r="F83" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G83" t="s">
-        <v>10</v>
+      <c r="G83" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H83" t="s">
         <v>255</v>
@@ -8077,7 +8089,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>17</v>
       </c>
@@ -8096,8 +8108,8 @@
       <c r="F84" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G84" t="s">
-        <v>10</v>
+      <c r="G84" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H84" t="s">
         <v>258</v>
@@ -8124,7 +8136,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>17</v>
       </c>
@@ -8143,8 +8155,8 @@
       <c r="F85" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G85" t="s">
-        <v>10</v>
+      <c r="G85" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H85" t="s">
         <v>262</v>
@@ -8169,7 +8181,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>17</v>
       </c>
@@ -8188,8 +8200,8 @@
       <c r="F86" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G86" t="s">
-        <v>10</v>
+      <c r="G86" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H86" t="s">
         <v>265</v>
@@ -8214,7 +8226,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>17</v>
       </c>
@@ -8233,8 +8245,8 @@
       <c r="F87" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G87" t="s">
-        <v>10</v>
+      <c r="G87" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H87" t="s">
         <v>72</v>
@@ -8261,7 +8273,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>17</v>
       </c>
@@ -8280,8 +8292,8 @@
       <c r="F88" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G88" t="s">
-        <v>10</v>
+      <c r="G88" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H88" t="s">
         <v>247</v>
@@ -8306,7 +8318,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>17</v>
       </c>
@@ -8325,8 +8337,8 @@
       <c r="F89" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G89" t="s">
-        <v>10</v>
+      <c r="G89" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H89" t="s">
         <v>272</v>
@@ -8353,7 +8365,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>32</v>
       </c>
@@ -8372,8 +8384,8 @@
       <c r="F90" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G90" t="s">
-        <v>10</v>
+      <c r="G90" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H90" t="s">
         <v>20</v>
@@ -8398,7 +8410,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>32</v>
       </c>
@@ -8417,8 +8429,8 @@
       <c r="F91" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G91" t="s">
-        <v>10</v>
+      <c r="G91" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H91" t="s">
         <v>255</v>
@@ -8443,7 +8455,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>32</v>
       </c>
@@ -8462,8 +8474,8 @@
       <c r="F92" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G92" t="s">
-        <v>10</v>
+      <c r="G92" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H92" t="s">
         <v>247</v>
@@ -8490,7 +8502,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>32</v>
       </c>
@@ -8509,8 +8521,8 @@
       <c r="F93" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G93" t="s">
-        <v>10</v>
+      <c r="G93" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H93" t="s">
         <v>24</v>
@@ -8535,7 +8547,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>32</v>
       </c>
@@ -8554,8 +8566,8 @@
       <c r="F94" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G94" t="s">
-        <v>10</v>
+      <c r="G94" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H94" t="s">
         <v>201</v>
@@ -8580,7 +8592,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>32</v>
       </c>
@@ -8599,8 +8611,8 @@
       <c r="F95" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G95" t="s">
-        <v>10</v>
+      <c r="G95" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H95" t="s">
         <v>147</v>
@@ -8625,7 +8637,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>32</v>
       </c>
@@ -8644,8 +8656,8 @@
       <c r="F96" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G96" t="s">
-        <v>10</v>
+      <c r="G96" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H96" t="s">
         <v>201</v>
@@ -8670,7 +8682,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>32</v>
       </c>
@@ -8689,8 +8701,8 @@
       <c r="F97" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G97" t="s">
-        <v>10</v>
+      <c r="G97" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H97" t="s">
         <v>20</v>
@@ -8715,7 +8727,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>32</v>
       </c>
@@ -8734,8 +8746,8 @@
       <c r="F98" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G98" t="s">
-        <v>10</v>
+      <c r="G98" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H98" t="s">
         <v>147</v>
@@ -8760,7 +8772,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>32</v>
       </c>
@@ -8779,8 +8791,8 @@
       <c r="F99" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G99" t="s">
-        <v>10</v>
+      <c r="G99" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H99" t="s">
         <v>20</v>
@@ -8805,7 +8817,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>32</v>
       </c>
@@ -8824,8 +8836,8 @@
       <c r="F100" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G100" t="s">
-        <v>10</v>
+      <c r="G100" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H100" t="s">
         <v>20</v>
@@ -8850,7 +8862,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>32</v>
       </c>
@@ -8869,8 +8881,8 @@
       <c r="F101" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G101" t="s">
-        <v>10</v>
+      <c r="G101" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H101" t="s">
         <v>20</v>
@@ -8895,7 +8907,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>32</v>
       </c>
@@ -8914,8 +8926,8 @@
       <c r="F102" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G102" t="s">
-        <v>10</v>
+      <c r="G102" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H102" t="s">
         <v>24</v>
@@ -8940,7 +8952,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>32</v>
       </c>
@@ -8959,8 +8971,8 @@
       <c r="F103" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G103" t="s">
-        <v>10</v>
+      <c r="G103" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H103" t="s">
         <v>303</v>
@@ -8985,7 +8997,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>32</v>
       </c>
@@ -9004,8 +9016,8 @@
       <c r="F104" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G104" t="s">
-        <v>10</v>
+      <c r="G104" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H104" t="s">
         <v>56</v>
@@ -9030,7 +9042,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>32</v>
       </c>
@@ -9049,8 +9061,8 @@
       <c r="F105" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G105" t="s">
-        <v>10</v>
+      <c r="G105" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H105" t="s">
         <v>96</v>
@@ -9075,7 +9087,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>32</v>
       </c>
@@ -9094,8 +9106,8 @@
       <c r="F106" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G106" t="s">
-        <v>10</v>
+      <c r="G106" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H106" t="s">
         <v>24</v>
@@ -9120,7 +9132,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>32</v>
       </c>
@@ -9139,8 +9151,8 @@
       <c r="F107" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G107" t="s">
-        <v>10</v>
+      <c r="G107" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H107" t="s">
         <v>39</v>
@@ -9165,7 +9177,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>32</v>
       </c>
@@ -9184,8 +9196,8 @@
       <c r="F108" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G108" t="s">
-        <v>10</v>
+      <c r="G108" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H108" t="s">
         <v>312</v>
@@ -9210,7 +9222,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>32</v>
       </c>
@@ -9229,8 +9241,8 @@
       <c r="F109" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G109" t="s">
-        <v>10</v>
+      <c r="G109" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H109" t="s">
         <v>20</v>
@@ -9255,7 +9267,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>32</v>
       </c>
@@ -9274,8 +9286,8 @@
       <c r="F110" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G110" t="s">
-        <v>10</v>
+      <c r="G110" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H110" t="s">
         <v>80</v>
@@ -9300,7 +9312,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>41</v>
       </c>
@@ -9319,8 +9331,8 @@
       <c r="F111" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G111" t="s">
-        <v>10</v>
+      <c r="G111" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H111" t="s">
         <v>20</v>
@@ -9345,7 +9357,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>41</v>
       </c>
@@ -9364,8 +9376,8 @@
       <c r="F112" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G112" t="s">
-        <v>10</v>
+      <c r="G112" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H112" t="s">
         <v>51</v>
@@ -9390,7 +9402,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>41</v>
       </c>
@@ -9409,8 +9421,8 @@
       <c r="F113" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G113" t="s">
-        <v>10</v>
+      <c r="G113" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H113" t="s">
         <v>210</v>
@@ -9435,7 +9447,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>41</v>
       </c>
@@ -9454,8 +9466,8 @@
       <c r="F114" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G114" t="s">
-        <v>10</v>
+      <c r="G114" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H114" t="s">
         <v>255</v>
@@ -9480,7 +9492,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>41</v>
       </c>
@@ -9499,8 +9511,8 @@
       <c r="F115" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G115" t="s">
-        <v>10</v>
+      <c r="G115" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H115" t="s">
         <v>24</v>
@@ -9525,7 +9537,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>41</v>
       </c>
@@ -9544,8 +9556,8 @@
       <c r="F116" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G116" t="s">
-        <v>10</v>
+      <c r="G116" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H116" t="s">
         <v>327</v>
@@ -9570,7 +9582,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>41</v>
       </c>
@@ -9589,8 +9601,8 @@
       <c r="F117" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G117" t="s">
-        <v>10</v>
+      <c r="G117" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H117" t="s">
         <v>39</v>
@@ -9615,7 +9627,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>41</v>
       </c>
@@ -9634,8 +9646,8 @@
       <c r="F118" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G118" t="s">
-        <v>10</v>
+      <c r="G118" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H118" t="s">
         <v>44</v>
@@ -9660,7 +9672,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>45</v>
       </c>
@@ -9679,8 +9691,8 @@
       <c r="F119" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G119" t="s">
-        <v>10</v>
+      <c r="G119" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H119" t="s">
         <v>147</v>
@@ -9707,7 +9719,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>45</v>
       </c>
@@ -9726,8 +9738,8 @@
       <c r="F120" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G120" t="s">
-        <v>10</v>
+      <c r="G120" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H120" t="s">
         <v>336</v>
@@ -9754,7 +9766,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>45</v>
       </c>
@@ -9773,8 +9785,8 @@
       <c r="F121" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G121" t="s">
-        <v>10</v>
+      <c r="G121" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H121" t="s">
         <v>340</v>
@@ -9799,7 +9811,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>45</v>
       </c>
@@ -9818,8 +9830,8 @@
       <c r="F122" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G122" t="s">
-        <v>10</v>
+      <c r="G122" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
@@ -9844,7 +9856,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>45</v>
       </c>
@@ -9863,8 +9875,8 @@
       <c r="F123" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G123" t="s">
-        <v>10</v>
+      <c r="G123" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H123" t="s">
         <v>66</v>
@@ -9889,7 +9901,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>45</v>
       </c>
@@ -9908,8 +9920,8 @@
       <c r="F124" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G124" t="s">
-        <v>10</v>
+      <c r="G124" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H124" t="s">
         <v>340</v>
@@ -9934,7 +9946,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>45</v>
       </c>
@@ -9953,8 +9965,8 @@
       <c r="F125" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G125" t="s">
-        <v>10</v>
+      <c r="G125" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H125" t="s">
         <v>72</v>
@@ -9981,7 +9993,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>45</v>
       </c>
@@ -10000,8 +10012,8 @@
       <c r="F126" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G126" t="s">
-        <v>10</v>
+      <c r="G126" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H126" t="s">
         <v>349</v>
@@ -10028,7 +10040,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>45</v>
       </c>
@@ -10047,8 +10059,8 @@
       <c r="F127" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G127" t="s">
-        <v>10</v>
+      <c r="G127" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H127" t="s">
         <v>24</v>
@@ -10075,7 +10087,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>45</v>
       </c>
@@ -10094,8 +10106,8 @@
       <c r="F128" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G128" t="s">
-        <v>10</v>
+      <c r="G128" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H128" t="s">
         <v>56</v>
@@ -10120,7 +10132,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>45</v>
       </c>
@@ -10139,8 +10151,8 @@
       <c r="F129" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G129" t="s">
-        <v>10</v>
+      <c r="G129" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H129" t="s">
         <v>358</v>
@@ -10167,7 +10179,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>77</v>
       </c>
@@ -10186,8 +10198,8 @@
       <c r="F130" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G130" t="s">
-        <v>10</v>
+      <c r="G130" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H130" t="s">
         <v>210</v>
@@ -10214,7 +10226,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>77</v>
       </c>
@@ -10233,8 +10245,8 @@
       <c r="F131" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G131" t="s">
-        <v>10</v>
+      <c r="G131" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H131" t="s">
         <v>24</v>
@@ -10261,7 +10273,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>77</v>
       </c>
@@ -10280,8 +10292,8 @@
       <c r="F132" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G132" t="s">
-        <v>10</v>
+      <c r="G132" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H132" t="s">
         <v>201</v>
@@ -10308,7 +10320,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>77</v>
       </c>
@@ -10327,8 +10339,8 @@
       <c r="F133" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G133" t="s">
-        <v>10</v>
+      <c r="G133" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H133" t="s">
         <v>371</v>
@@ -10355,7 +10367,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>77</v>
       </c>
@@ -10374,8 +10386,8 @@
       <c r="F134" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G134" t="s">
-        <v>10</v>
+      <c r="G134" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H134" t="s">
         <v>24</v>
@@ -10402,7 +10414,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>9</v>
       </c>
@@ -10421,8 +10433,8 @@
       <c r="F135" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G135" t="s">
-        <v>10</v>
+      <c r="G135" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H135" t="s">
         <v>255</v>
@@ -10447,7 +10459,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>9</v>
       </c>
@@ -10466,8 +10478,8 @@
       <c r="F136" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G136" t="s">
-        <v>10</v>
+      <c r="G136" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H136" t="s">
         <v>379</v>
@@ -10494,7 +10506,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>9</v>
       </c>
@@ -10513,8 +10525,8 @@
       <c r="F137" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G137" t="s">
-        <v>10</v>
+      <c r="G137" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H137" t="s">
         <v>382</v>
@@ -10541,7 +10553,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>9</v>
       </c>
@@ -10560,8 +10572,8 @@
       <c r="F138" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G138" t="s">
-        <v>10</v>
+      <c r="G138" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H138" t="s">
         <v>20</v>
@@ -10588,7 +10600,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>17</v>
       </c>
@@ -10607,8 +10619,8 @@
       <c r="F139" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G139" t="s">
-        <v>10</v>
+      <c r="G139" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H139" t="s">
         <v>31</v>
@@ -10633,7 +10645,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
@@ -10652,8 +10664,8 @@
       <c r="F140" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G140" t="s">
-        <v>10</v>
+      <c r="G140" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H140" t="s">
         <v>391</v>
@@ -10680,7 +10692,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
@@ -10699,8 +10711,8 @@
       <c r="F141" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G141" t="s">
-        <v>10</v>
+      <c r="G141" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H141" t="s">
         <v>44</v>
@@ -10727,7 +10739,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
@@ -10746,8 +10758,8 @@
       <c r="F142" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G142" t="s">
-        <v>10</v>
+      <c r="G142" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H142" t="s">
         <v>397</v>
@@ -10772,7 +10784,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
@@ -10791,8 +10803,8 @@
       <c r="F143" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G143" t="s">
-        <v>10</v>
+      <c r="G143" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H143" t="s">
         <v>39</v>
@@ -10817,7 +10829,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
@@ -10836,8 +10848,8 @@
       <c r="F144" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G144" t="s">
-        <v>10</v>
+      <c r="G144" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H144" t="s">
         <v>255</v>
@@ -10862,7 +10874,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>32</v>
       </c>
@@ -10909,7 +10921,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>32</v>
       </c>
@@ -10956,7 +10968,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>32</v>
       </c>
@@ -11001,7 +11013,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>32</v>
       </c>
@@ -11048,7 +11060,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>32</v>
       </c>
@@ -11093,7 +11105,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>41</v>
       </c>
@@ -11140,7 +11152,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>41</v>
       </c>
@@ -11187,7 +11199,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>41</v>
       </c>
@@ -11232,7 +11244,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>41</v>
       </c>
@@ -11279,7 +11291,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>41</v>
       </c>
@@ -11326,7 +11338,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>41</v>
       </c>
@@ -11371,7 +11383,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>32</v>
       </c>
@@ -11418,7 +11430,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>32</v>
       </c>
@@ -11465,7 +11477,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>32</v>
       </c>
@@ -11512,7 +11524,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>41</v>
       </c>
@@ -11559,7 +11571,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>41</v>
       </c>
@@ -11606,7 +11618,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>41</v>
       </c>
@@ -11653,7 +11665,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>32</v>
       </c>
@@ -11700,7 +11712,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>32</v>
       </c>
@@ -11747,7 +11759,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>32</v>
       </c>
@@ -11794,7 +11806,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>41</v>
       </c>
@@ -11841,7 +11853,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>32</v>
       </c>
@@ -11888,7 +11900,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>32</v>
       </c>
@@ -11935,7 +11947,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>32</v>
       </c>
@@ -11982,7 +11994,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>41</v>
       </c>
@@ -12029,7 +12041,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>41</v>
       </c>
@@ -12076,7 +12088,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>32</v>
       </c>
@@ -12123,7 +12135,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>32</v>
       </c>
@@ -12170,7 +12182,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>32</v>
       </c>
@@ -12215,7 +12227,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>32</v>
       </c>
@@ -12262,7 +12274,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>41</v>
       </c>
@@ -12309,7 +12321,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>41</v>
       </c>
@@ -12356,7 +12368,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>41</v>
       </c>
@@ -12403,7 +12415,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>41</v>
       </c>
@@ -12450,7 +12462,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>41</v>
       </c>
@@ -12497,7 +12509,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>41</v>
       </c>
@@ -12544,7 +12556,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>41</v>
       </c>
@@ -12591,7 +12603,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>41</v>
       </c>
@@ -12638,7 +12650,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>41</v>
       </c>
@@ -12685,7 +12697,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>32</v>
       </c>
@@ -12732,7 +12744,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>41</v>
       </c>
@@ -12779,7 +12791,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>41</v>
       </c>
@@ -12826,7 +12838,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>41</v>
       </c>
@@ -12873,7 +12885,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>32</v>
       </c>
@@ -12920,7 +12932,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>32</v>
       </c>
@@ -12967,7 +12979,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>41</v>
       </c>
@@ -13014,7 +13026,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>41</v>
       </c>
@@ -13061,7 +13073,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>41</v>
       </c>
@@ -13108,7 +13120,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>32</v>
       </c>
@@ -13155,7 +13167,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>32</v>
       </c>
@@ -13202,7 +13214,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>32</v>
       </c>
@@ -13249,7 +13261,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>41</v>
       </c>
@@ -13294,7 +13306,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>41</v>
       </c>
@@ -13341,7 +13353,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>41</v>
       </c>
@@ -13388,7 +13400,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>32</v>
       </c>
@@ -13435,7 +13447,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>32</v>
       </c>
@@ -13482,7 +13494,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>32</v>
       </c>
@@ -13527,7 +13539,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>32</v>
       </c>
@@ -13574,7 +13586,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>32</v>
       </c>
@@ -13621,7 +13633,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>32</v>
       </c>
@@ -13668,7 +13680,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>32</v>
       </c>
@@ -13713,7 +13725,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>32</v>
       </c>
@@ -13760,7 +13772,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>32</v>
       </c>
@@ -13807,7 +13819,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>32</v>
       </c>
@@ -13852,7 +13864,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>32</v>
       </c>
@@ -13897,7 +13909,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>41</v>
       </c>
@@ -13944,7 +13956,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>41</v>
       </c>
@@ -13991,7 +14003,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>41</v>
       </c>
@@ -14038,7 +14050,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>32</v>
       </c>
@@ -14083,7 +14095,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>41</v>
       </c>
@@ -14130,7 +14142,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>41</v>
       </c>
@@ -14177,7 +14189,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>32</v>
       </c>
@@ -14224,7 +14236,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>41</v>
       </c>
@@ -14271,7 +14283,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>41</v>
       </c>
@@ -14318,7 +14330,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>41</v>
       </c>
@@ -14365,7 +14377,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>32</v>
       </c>
@@ -14412,7 +14424,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>32</v>
       </c>
@@ -14459,7 +14471,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>41</v>
       </c>
@@ -14506,7 +14518,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>41</v>
       </c>
@@ -14551,7 +14563,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>41</v>
       </c>
@@ -14598,7 +14610,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>41</v>
       </c>
@@ -14645,7 +14657,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>32</v>
       </c>
@@ -14692,7 +14704,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>41</v>
       </c>
@@ -14739,7 +14751,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>41</v>
       </c>
@@ -14784,7 +14796,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>41</v>
       </c>
@@ -14831,7 +14843,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>41</v>
       </c>
@@ -14878,7 +14890,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>41</v>
       </c>
@@ -14925,7 +14937,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>41</v>
       </c>
@@ -14972,7 +14984,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>32</v>
       </c>
@@ -15017,7 +15029,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>32</v>
       </c>
@@ -15064,7 +15076,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>41</v>
       </c>
@@ -15111,7 +15123,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>32</v>
       </c>
@@ -15156,7 +15168,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>32</v>
       </c>
@@ -15203,7 +15215,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>32</v>
       </c>
@@ -15248,7 +15260,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>41</v>
       </c>
@@ -15295,7 +15307,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>41</v>
       </c>
@@ -15342,7 +15354,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>41</v>
       </c>
@@ -15389,7 +15401,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>32</v>
       </c>
@@ -15436,7 +15448,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>32</v>
       </c>
@@ -15483,7 +15495,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>32</v>
       </c>
@@ -15530,7 +15542,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>32</v>
       </c>
@@ -15577,7 +15589,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>32</v>
       </c>
@@ -15622,7 +15634,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>41</v>
       </c>
@@ -15669,7 +15681,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>41</v>
       </c>
@@ -15716,7 +15728,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>32</v>
       </c>
@@ -15761,7 +15773,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>41</v>
       </c>
@@ -15806,7 +15818,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>41</v>
       </c>
@@ -15851,7 +15863,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>41</v>
       </c>
@@ -15896,7 +15908,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>41</v>
       </c>
@@ -15941,7 +15953,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>41</v>
       </c>
@@ -15988,7 +16000,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>41</v>
       </c>
@@ -16035,7 +16047,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>41</v>
       </c>
@@ -16082,7 +16094,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>41</v>
       </c>
@@ -16129,7 +16141,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>32</v>
       </c>
@@ -16176,7 +16188,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>32</v>
       </c>
@@ -16221,7 +16233,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>32</v>
       </c>
@@ -16268,7 +16280,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>41</v>
       </c>
@@ -16313,7 +16325,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>41</v>
       </c>
@@ -16360,7 +16372,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>41</v>
       </c>
@@ -16407,7 +16419,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>32</v>
       </c>
@@ -16452,7 +16464,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>32</v>
       </c>
@@ -16497,7 +16509,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>41</v>
       </c>
@@ -16544,7 +16556,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>41</v>
       </c>
@@ -16591,7 +16603,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>32</v>
       </c>
@@ -16638,7 +16650,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>32</v>
       </c>
@@ -16685,7 +16697,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>32</v>
       </c>
@@ -16732,7 +16744,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>32</v>
       </c>
@@ -16779,7 +16791,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
         <v>32</v>
       </c>
@@ -16826,7 +16838,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>773</v>
       </c>
@@ -16845,8 +16857,8 @@
       <c r="F273" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G273" s="3" t="s">
-        <v>10</v>
+      <c r="G273" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>39</v>
@@ -16873,7 +16885,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>773</v>
       </c>
@@ -16892,8 +16904,8 @@
       <c r="F274" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G274" s="3" t="s">
-        <v>10</v>
+      <c r="G274" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H274" s="3" t="s">
         <v>10</v>
@@ -16920,7 +16932,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>780</v>
       </c>
@@ -16939,8 +16951,8 @@
       <c r="F275" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="G275" s="3" t="s">
-        <v>10</v>
+      <c r="G275" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>152</v>
@@ -16967,7 +16979,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>780</v>
       </c>
@@ -16986,8 +16998,8 @@
       <c r="F276" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G276" s="3" t="s">
-        <v>10</v>
+      <c r="G276" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>39</v>
@@ -17014,7 +17026,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>780</v>
       </c>
@@ -17033,8 +17045,8 @@
       <c r="F277" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G277" s="3" t="s">
-        <v>10</v>
+      <c r="G277" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>340</v>
@@ -17061,7 +17073,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>780</v>
       </c>
@@ -17080,8 +17092,8 @@
       <c r="F278" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G278" s="3" t="s">
-        <v>10</v>
+      <c r="G278" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H278" s="2" t="s">
         <v>20</v>
@@ -17108,7 +17120,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
         <v>780</v>
       </c>
@@ -17127,8 +17139,8 @@
       <c r="F279" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G279" s="3" t="s">
-        <v>10</v>
+      <c r="G279" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H279" s="2" t="s">
         <v>20</v>
@@ -17155,7 +17167,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>780</v>
       </c>
@@ -17174,8 +17186,8 @@
       <c r="F280" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G280" s="3" t="s">
-        <v>10</v>
+      <c r="G280" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>44</v>
@@ -17202,7 +17214,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
         <v>780</v>
       </c>
@@ -17221,8 +17233,8 @@
       <c r="F281" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G281" s="3" t="s">
-        <v>10</v>
+      <c r="G281" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>20</v>
@@ -17247,7 +17259,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
         <v>780</v>
       </c>
@@ -17266,8 +17278,8 @@
       <c r="F282" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G282" s="6" t="s">
-        <v>10</v>
+      <c r="G282" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H282" s="4" t="s">
         <v>340</v>
@@ -17292,7 +17304,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
         <v>780</v>
       </c>
@@ -17311,8 +17323,8 @@
       <c r="F283" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G283" s="6" t="s">
-        <v>10</v>
+      <c r="G283" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H283" s="4" t="s">
         <v>799</v>
@@ -17337,7 +17349,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
         <v>780</v>
       </c>
@@ -17356,8 +17368,8 @@
       <c r="F284" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G284" s="3" t="s">
-        <v>10</v>
+      <c r="G284" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H284" s="2" t="s">
         <v>72</v>
@@ -17384,7 +17396,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
         <v>780</v>
       </c>
@@ -17403,8 +17415,8 @@
       <c r="F285" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G285" s="3" t="s">
-        <v>10</v>
+      <c r="G285" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H285" s="2" t="s">
         <v>48</v>
@@ -17431,7 +17443,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="11" t="s">
         <v>780</v>
       </c>
@@ -17450,8 +17462,8 @@
       <c r="F286" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G286" s="6" t="s">
-        <v>10</v>
+      <c r="G286" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H286" s="6" t="s">
         <v>10</v>
@@ -17476,7 +17488,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>780</v>
       </c>
@@ -17495,8 +17507,8 @@
       <c r="F287" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G287" s="3" t="s">
-        <v>10</v>
+      <c r="G287" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H287" s="2" t="s">
         <v>114</v>
@@ -17521,7 +17533,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>780</v>
       </c>
@@ -17540,8 +17552,8 @@
       <c r="F288" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G288" s="3" t="s">
-        <v>10</v>
+      <c r="G288" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H288" s="2" t="s">
         <v>39</v>
@@ -17566,7 +17578,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>780</v>
       </c>
@@ -17585,8 +17597,8 @@
       <c r="F289" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G289" s="3" t="s">
-        <v>10</v>
+      <c r="G289" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H289" s="2" t="s">
         <v>31</v>
@@ -17611,7 +17623,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
         <v>780</v>
       </c>
@@ -17630,8 +17642,8 @@
       <c r="F290" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G290" s="3" t="s">
-        <v>10</v>
+      <c r="G290" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>72</v>
@@ -17658,7 +17670,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>773</v>
       </c>
@@ -17677,8 +17689,8 @@
       <c r="F291" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G291" s="3" t="s">
-        <v>10</v>
+      <c r="G291" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H291" s="2" t="s">
         <v>44</v>
@@ -17705,7 +17717,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>780</v>
       </c>
@@ -17724,8 +17736,8 @@
       <c r="F292" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G292" s="3" t="s">
-        <v>10</v>
+      <c r="G292" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>818</v>
@@ -17752,7 +17764,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="11" t="s">
         <v>780</v>
       </c>
@@ -17771,8 +17783,8 @@
       <c r="F293" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G293" s="6" t="s">
-        <v>10</v>
+      <c r="G293" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H293" s="6" t="s">
         <v>10</v>
@@ -17797,7 +17809,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>780</v>
       </c>
@@ -17816,8 +17828,8 @@
       <c r="F294" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G294" s="3" t="s">
-        <v>10</v>
+      <c r="G294" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>72</v>
@@ -17842,7 +17854,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>780</v>
       </c>
@@ -17861,8 +17873,8 @@
       <c r="F295" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G295" s="3" t="s">
-        <v>10</v>
+      <c r="G295" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H295" s="2" t="s">
         <v>39</v>
@@ -17889,7 +17901,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>780</v>
       </c>
@@ -17908,8 +17920,8 @@
       <c r="F296" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G296" s="3" t="s">
-        <v>10</v>
+      <c r="G296" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H296" s="2" t="s">
         <v>826</v>
@@ -17936,7 +17948,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>780</v>
       </c>
@@ -17955,8 +17967,8 @@
       <c r="F297" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G297" s="3" t="s">
-        <v>10</v>
+      <c r="G297" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H297" s="2" t="s">
         <v>210</v>
@@ -17983,7 +17995,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
         <v>780</v>
       </c>
@@ -18002,8 +18014,8 @@
       <c r="F298" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G298" s="3" t="s">
-        <v>10</v>
+      <c r="G298" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H298" s="2" t="s">
         <v>44</v>
@@ -18028,7 +18040,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
         <v>780</v>
       </c>
@@ -18047,8 +18059,8 @@
       <c r="F299" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G299" s="3" t="s">
-        <v>10</v>
+      <c r="G299" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>835</v>
@@ -18075,7 +18087,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="11" t="s">
         <v>780</v>
       </c>
@@ -18094,8 +18106,8 @@
       <c r="F300" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G300" s="6" t="s">
-        <v>10</v>
+      <c r="G300" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H300" s="4" t="s">
         <v>51</v>
@@ -18120,7 +18132,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
         <v>780</v>
       </c>
@@ -18139,8 +18151,8 @@
       <c r="F301" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G301" s="3" t="s">
-        <v>10</v>
+      <c r="G301" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H301" s="2" t="s">
         <v>754</v>
@@ -18167,7 +18179,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
         <v>780</v>
       </c>
@@ -18186,8 +18198,8 @@
       <c r="F302" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G302" s="3" t="s">
-        <v>10</v>
+      <c r="G302" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H302" s="2" t="s">
         <v>24</v>
@@ -18214,7 +18226,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
         <v>780</v>
       </c>
@@ -18233,8 +18245,8 @@
       <c r="F303" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G303" s="6" t="s">
-        <v>10</v>
+      <c r="G303" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H303" s="4" t="s">
         <v>96</v>
@@ -18259,7 +18271,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
         <v>780</v>
       </c>
@@ -18278,8 +18290,8 @@
       <c r="F304" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G304" s="3" t="s">
-        <v>10</v>
+      <c r="G304" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H304" s="2" t="s">
         <v>210</v>
@@ -18306,7 +18318,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>780</v>
       </c>
@@ -18325,8 +18337,8 @@
       <c r="F305" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G305" s="3" t="s">
-        <v>10</v>
+      <c r="G305" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H305" s="2" t="s">
         <v>147</v>
@@ -18353,7 +18365,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
         <v>773</v>
       </c>
@@ -18372,8 +18384,8 @@
       <c r="F306" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G306" s="3" t="s">
-        <v>10</v>
+      <c r="G306" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H306" s="2" t="s">
         <v>39</v>
@@ -18398,7 +18410,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>773</v>
       </c>
@@ -18417,8 +18429,8 @@
       <c r="F307" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G307" s="3" t="s">
-        <v>10</v>
+      <c r="G307" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H307" s="2" t="s">
         <v>44</v>
@@ -18445,7 +18457,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
         <v>773</v>
       </c>
@@ -18464,8 +18476,8 @@
       <c r="F308" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G308" s="3" t="s">
-        <v>10</v>
+      <c r="G308" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>44</v>
@@ -18492,7 +18504,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>773</v>
       </c>
@@ -18511,8 +18523,8 @@
       <c r="F309" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G309" s="3" t="s">
-        <v>10</v>
+      <c r="G309" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H309" s="2" t="s">
         <v>99</v>
@@ -18539,7 +18551,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>773</v>
       </c>
@@ -18558,8 +18570,8 @@
       <c r="F310" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G310" s="3" t="s">
-        <v>10</v>
+      <c r="G310" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H310" s="2" t="s">
         <v>24</v>
@@ -18586,7 +18598,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
         <v>773</v>
       </c>
@@ -18605,8 +18617,8 @@
       <c r="F311" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G311" s="6" t="s">
-        <v>10</v>
+      <c r="G311" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H311" s="4" t="s">
         <v>56</v>
@@ -18631,7 +18643,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>773</v>
       </c>
@@ -18650,8 +18662,8 @@
       <c r="F312" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G312" s="3" t="s">
-        <v>10</v>
+      <c r="G312" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H312" s="2" t="s">
         <v>854</v>
@@ -18678,7 +18690,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>773</v>
       </c>
@@ -18697,8 +18709,8 @@
       <c r="F313" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G313" s="3" t="s">
-        <v>10</v>
+      <c r="G313" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>44</v>
@@ -18725,7 +18737,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>773</v>
       </c>
@@ -18744,8 +18756,8 @@
       <c r="F314" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G314" s="3" t="s">
-        <v>10</v>
+      <c r="G314" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H314" s="2" t="s">
         <v>24</v>
@@ -18772,7 +18784,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>773</v>
       </c>
@@ -18791,8 +18803,8 @@
       <c r="F315" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G315" s="3" t="s">
-        <v>10</v>
+      <c r="G315" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H315" s="2" t="s">
         <v>48</v>
@@ -18819,7 +18831,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
         <v>773</v>
       </c>
@@ -18838,8 +18850,8 @@
       <c r="F316" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G316" s="3" t="s">
-        <v>10</v>
+      <c r="G316" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H316" s="2" t="s">
         <v>24</v>
@@ -18866,7 +18878,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>773</v>
       </c>
@@ -18885,8 +18897,8 @@
       <c r="F317" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G317" s="3" t="s">
-        <v>10</v>
+      <c r="G317" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H317" s="2" t="s">
         <v>44</v>
@@ -18913,7 +18925,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>773</v>
       </c>
@@ -18932,8 +18944,8 @@
       <c r="F318" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G318" s="3" t="s">
-        <v>10</v>
+      <c r="G318" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>44</v>
@@ -18960,7 +18972,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>773</v>
       </c>
@@ -18979,8 +18991,8 @@
       <c r="F319" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G319" s="3" t="s">
-        <v>10</v>
+      <c r="G319" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>24</v>
@@ -19007,7 +19019,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>773</v>
       </c>
@@ -19026,8 +19038,8 @@
       <c r="F320" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G320" s="3" t="s">
-        <v>10</v>
+      <c r="G320" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>867</v>
@@ -19054,7 +19066,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>773</v>
       </c>
@@ -19073,8 +19085,8 @@
       <c r="F321" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G321" s="3" t="s">
-        <v>10</v>
+      <c r="G321" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>871</v>
@@ -19101,7 +19113,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
         <v>773</v>
       </c>
@@ -19120,8 +19132,8 @@
       <c r="F322" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G322" s="3" t="s">
-        <v>10</v>
+      <c r="G322" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>39</v>
@@ -19148,7 +19160,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
         <v>780</v>
       </c>
@@ -19167,8 +19179,8 @@
       <c r="F323" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G323" s="3" t="s">
-        <v>10</v>
+      <c r="G323" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H323" s="2" t="s">
         <v>48</v>
@@ -19195,7 +19207,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="11" t="s">
         <v>780</v>
       </c>
@@ -19214,8 +19226,8 @@
       <c r="F324" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G324" s="6" t="s">
-        <v>10</v>
+      <c r="G324" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>31</v>
@@ -19240,7 +19252,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>780</v>
       </c>
@@ -19259,8 +19271,8 @@
       <c r="F325" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G325" s="3" t="s">
-        <v>10</v>
+      <c r="G325" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H325" s="2" t="s">
         <v>20</v>
@@ -19287,7 +19299,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
         <v>780</v>
       </c>
@@ -19306,8 +19318,8 @@
       <c r="F326" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G326" s="3" t="s">
-        <v>10</v>
+      <c r="G326" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H326" s="2" t="s">
         <v>72</v>
@@ -19334,7 +19346,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>780</v>
       </c>
@@ -19353,8 +19365,8 @@
       <c r="F327" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G327" s="3" t="s">
-        <v>10</v>
+      <c r="G327" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H327" s="2" t="s">
         <v>72</v>
@@ -19381,7 +19393,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
         <v>780</v>
       </c>
@@ -19400,8 +19412,8 @@
       <c r="F328" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G328" s="3" t="s">
-        <v>10</v>
+      <c r="G328" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H328" s="2" t="s">
         <v>889</v>
@@ -19428,7 +19440,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
         <v>780</v>
       </c>
@@ -19447,8 +19459,8 @@
       <c r="F329" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G329" s="3" t="s">
-        <v>10</v>
+      <c r="G329" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H329" s="2" t="s">
         <v>24</v>
@@ -19473,7 +19485,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
         <v>780</v>
       </c>
@@ -19492,8 +19504,8 @@
       <c r="F330" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G330" s="3" t="s">
-        <v>10</v>
+      <c r="G330" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H330" s="2" t="s">
         <v>72</v>
@@ -19520,7 +19532,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="11" t="s">
         <v>780</v>
       </c>
@@ -19539,8 +19551,8 @@
       <c r="F331" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G331" s="6" t="s">
-        <v>10</v>
+      <c r="G331" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H331" s="4" t="s">
         <v>51</v>
@@ -19565,7 +19577,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
         <v>780</v>
       </c>
@@ -19584,8 +19596,8 @@
       <c r="F332" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G332" s="3" t="s">
-        <v>10</v>
+      <c r="G332" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H332" s="2" t="s">
         <v>152</v>
@@ -19612,7 +19624,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
         <v>780</v>
       </c>
@@ -19631,8 +19643,8 @@
       <c r="F333" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G333" s="3" t="s">
-        <v>10</v>
+      <c r="G333" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H333" s="2" t="s">
         <v>901</v>
@@ -19659,7 +19671,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>780</v>
       </c>
@@ -19678,8 +19690,8 @@
       <c r="F334" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G334" s="3" t="s">
-        <v>10</v>
+      <c r="G334" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H334" s="2" t="s">
         <v>901</v>
@@ -19704,7 +19716,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
         <v>780</v>
       </c>
@@ -19723,8 +19735,8 @@
       <c r="F335" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G335" s="3" t="s">
-        <v>10</v>
+      <c r="G335" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H335" s="2" t="s">
         <v>799</v>
@@ -19751,7 +19763,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
         <v>780</v>
       </c>
@@ -19770,8 +19782,8 @@
       <c r="F336" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G336" s="3" t="s">
-        <v>10</v>
+      <c r="G336" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H336" s="2" t="s">
         <v>44</v>
@@ -19796,7 +19808,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
         <v>780</v>
       </c>
@@ -19815,8 +19827,8 @@
       <c r="F337" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G337" s="6" t="s">
-        <v>10</v>
+      <c r="G337" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H337" s="4" t="s">
         <v>910</v>
@@ -19841,7 +19853,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
         <v>780</v>
       </c>
@@ -19860,8 +19872,8 @@
       <c r="F338" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G338" s="3" t="s">
-        <v>10</v>
+      <c r="G338" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>185</v>
@@ -19888,7 +19900,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
         <v>780</v>
       </c>
@@ -19907,8 +19919,8 @@
       <c r="F339" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G339" s="3" t="s">
-        <v>10</v>
+      <c r="G339" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H339" s="2" t="s">
         <v>20</v>
@@ -19933,7 +19945,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
         <v>780</v>
       </c>
@@ -19952,8 +19964,8 @@
       <c r="F340" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G340" s="3" t="s">
-        <v>10</v>
+      <c r="G340" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H340" s="2" t="s">
         <v>918</v>
@@ -19980,7 +19992,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>780</v>
       </c>
@@ -19999,8 +20011,8 @@
       <c r="F341" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G341" s="3" t="s">
-        <v>10</v>
+      <c r="G341" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>922</v>
@@ -20027,7 +20039,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
         <v>780</v>
       </c>
@@ -20046,8 +20058,8 @@
       <c r="F342" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G342" s="3" t="s">
-        <v>10</v>
+      <c r="G342" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>24</v>
@@ -20074,7 +20086,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
         <v>780</v>
       </c>
@@ -20093,8 +20105,8 @@
       <c r="F343" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G343" s="3" t="s">
-        <v>10</v>
+      <c r="G343" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>24</v>
@@ -20121,7 +20133,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
         <v>780</v>
       </c>
@@ -20140,8 +20152,8 @@
       <c r="F344" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G344" s="3" t="s">
-        <v>10</v>
+      <c r="G344" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>162</v>
@@ -20168,7 +20180,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
         <v>780</v>
       </c>
@@ -20187,8 +20199,8 @@
       <c r="F345" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G345" s="3" t="s">
-        <v>10</v>
+      <c r="G345" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>24</v>
@@ -20215,7 +20227,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
         <v>780</v>
       </c>
@@ -20234,8 +20246,8 @@
       <c r="F346" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G346" s="3" t="s">
-        <v>10</v>
+      <c r="G346" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>155</v>
@@ -20262,7 +20274,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="11" t="s">
         <v>780</v>
       </c>
@@ -20281,8 +20293,8 @@
       <c r="F347" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G347" s="6" t="s">
-        <v>10</v>
+      <c r="G347" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H347" s="4" t="s">
         <v>51</v>
@@ -20307,7 +20319,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
         <v>780</v>
       </c>
@@ -20326,8 +20338,8 @@
       <c r="F348" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G348" s="3" t="s">
-        <v>10</v>
+      <c r="G348" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H348" s="2" t="s">
         <v>44</v>
@@ -20354,7 +20366,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
         <v>773</v>
       </c>
@@ -20373,8 +20385,8 @@
       <c r="F349" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G349" s="3" t="s">
-        <v>10</v>
+      <c r="G349" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H349" s="2" t="s">
         <v>210</v>
@@ -20401,7 +20413,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
         <v>773</v>
       </c>
@@ -20420,8 +20432,8 @@
       <c r="F350" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G350" s="3" t="s">
-        <v>10</v>
+      <c r="G350" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H350" s="2" t="s">
         <v>20</v>
@@ -20448,7 +20460,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
         <v>773</v>
       </c>
@@ -20467,8 +20479,8 @@
       <c r="F351" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G351" s="3" t="s">
-        <v>10</v>
+      <c r="G351" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H351" s="2" t="s">
         <v>118</v>
@@ -20495,7 +20507,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
         <v>773</v>
       </c>
@@ -20514,8 +20526,8 @@
       <c r="F352" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G352" s="3" t="s">
-        <v>10</v>
+      <c r="G352" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H352" s="2" t="s">
         <v>72</v>
@@ -20542,7 +20554,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
         <v>773</v>
       </c>
@@ -20561,8 +20573,8 @@
       <c r="F353" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G353" s="3" t="s">
-        <v>10</v>
+      <c r="G353" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H353" s="2" t="s">
         <v>44</v>
@@ -20589,7 +20601,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
         <v>773</v>
       </c>
@@ -20608,8 +20620,8 @@
       <c r="F354" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G354" s="3" t="s">
-        <v>10</v>
+      <c r="G354" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H354" s="2" t="s">
         <v>918</v>
@@ -20636,7 +20648,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
         <v>773</v>
       </c>
@@ -20655,8 +20667,8 @@
       <c r="F355" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G355" s="3" t="s">
-        <v>10</v>
+      <c r="G355" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>31</v>
@@ -20683,7 +20695,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
         <v>773</v>
       </c>
@@ -20702,8 +20714,8 @@
       <c r="F356" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G356" s="3" t="s">
-        <v>10</v>
+      <c r="G356" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H356" s="2" t="s">
         <v>247</v>
@@ -20730,7 +20742,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
         <v>773</v>
       </c>
@@ -20749,8 +20761,8 @@
       <c r="F357" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G357" s="3" t="s">
-        <v>10</v>
+      <c r="G357" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>449</v>
@@ -20777,7 +20789,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="11" t="s">
         <v>773</v>
       </c>
@@ -20796,8 +20808,8 @@
       <c r="F358" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G358" s="6" t="s">
-        <v>10</v>
+      <c r="G358" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H358" s="4" t="s">
         <v>255</v>
@@ -20822,7 +20834,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
         <v>773</v>
       </c>
@@ -20841,8 +20853,8 @@
       <c r="F359" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G359" s="6" t="s">
-        <v>10</v>
+      <c r="G359" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H359" s="4" t="s">
         <v>255</v>
@@ -20867,7 +20879,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
         <v>773</v>
       </c>
@@ -20886,8 +20898,8 @@
       <c r="F360" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G360" s="3" t="s">
-        <v>10</v>
+      <c r="G360" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>31</v>
@@ -20914,7 +20926,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
         <v>773</v>
       </c>
@@ -20933,8 +20945,8 @@
       <c r="F361" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G361" s="3" t="s">
-        <v>10</v>
+      <c r="G361" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H361" s="2" t="s">
         <v>155</v>
@@ -20959,7 +20971,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="11" t="s">
         <v>773</v>
       </c>
@@ -20978,8 +20990,8 @@
       <c r="F362" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G362" s="6" t="s">
-        <v>10</v>
+      <c r="G362" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H362" s="4" t="s">
         <v>96</v>
@@ -21004,7 +21016,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
         <v>773</v>
       </c>
@@ -21023,8 +21035,8 @@
       <c r="F363" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G363" s="3" t="s">
-        <v>10</v>
+      <c r="G363" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H363" s="2" t="s">
         <v>20</v>
@@ -21051,7 +21063,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
         <v>773</v>
       </c>
@@ -21070,8 +21082,8 @@
       <c r="F364" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G364" s="3" t="s">
-        <v>10</v>
+      <c r="G364" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H364" s="2" t="s">
         <v>39</v>
@@ -21098,7 +21110,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
         <v>773</v>
       </c>
@@ -21117,8 +21129,8 @@
       <c r="F365" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G365" s="6" t="s">
-        <v>10</v>
+      <c r="G365" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H365" s="6" t="s">
         <v>10</v>
@@ -21143,7 +21155,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
         <v>773</v>
       </c>
@@ -21162,8 +21174,8 @@
       <c r="F366" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G366" s="3" t="s">
-        <v>10</v>
+      <c r="G366" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H366" s="2" t="s">
         <v>24</v>
@@ -21190,7 +21202,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
         <v>773</v>
       </c>
@@ -21209,8 +21221,8 @@
       <c r="F367" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G367" s="3" t="s">
-        <v>10</v>
+      <c r="G367" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H367" s="2" t="s">
         <v>24</v>
@@ -21235,7 +21247,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
         <v>773</v>
       </c>
@@ -21254,8 +21266,8 @@
       <c r="F368" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G368" s="3" t="s">
-        <v>10</v>
+      <c r="G368" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>918</v>
@@ -21282,7 +21294,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
         <v>773</v>
       </c>
@@ -21301,8 +21313,8 @@
       <c r="F369" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G369" s="3" t="s">
-        <v>10</v>
+      <c r="G369" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>152</v>
@@ -21329,7 +21341,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="11" t="s">
         <v>773</v>
       </c>
@@ -21348,8 +21360,8 @@
       <c r="F370" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G370" s="6" t="s">
-        <v>10</v>
+      <c r="G370" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H370" s="6" t="s">
         <v>10</v>
@@ -21374,7 +21386,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="11" t="s">
         <v>773</v>
       </c>
@@ -21393,8 +21405,8 @@
       <c r="F371" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G371" s="6" t="s">
-        <v>10</v>
+      <c r="G371" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H371" s="6" t="s">
         <v>10</v>
@@ -21419,7 +21431,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
         <v>773</v>
       </c>
@@ -21438,8 +21450,8 @@
       <c r="F372" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G372" s="3" t="s">
-        <v>10</v>
+      <c r="G372" s="20" t="s">
+        <v>1282</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>147</v>
@@ -21466,7 +21478,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
         <v>780</v>
       </c>
@@ -21513,7 +21525,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
         <v>780</v>
       </c>
@@ -21558,7 +21570,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
         <v>780</v>
       </c>
@@ -21605,7 +21617,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
         <v>780</v>
       </c>
@@ -21652,7 +21664,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
         <v>780</v>
       </c>
@@ -21699,7 +21711,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
         <v>780</v>
       </c>
@@ -21746,7 +21758,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
         <v>780</v>
       </c>
@@ -21793,7 +21805,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
         <v>780</v>
       </c>
@@ -21840,7 +21852,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
         <v>780</v>
       </c>
@@ -21887,7 +21899,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
         <v>780</v>
       </c>
@@ -21934,7 +21946,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
         <v>780</v>
       </c>
@@ -21981,7 +21993,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
         <v>780</v>
       </c>
@@ -22028,7 +22040,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="11" t="s">
         <v>773</v>
       </c>
@@ -22073,7 +22085,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="11" t="s">
         <v>773</v>
       </c>
@@ -22118,7 +22130,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
         <v>773</v>
       </c>
@@ -22163,7 +22175,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
         <v>773</v>
       </c>
@@ -22210,7 +22222,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
         <v>773</v>
       </c>
@@ -22257,7 +22269,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
         <v>773</v>
       </c>
@@ -22304,7 +22316,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
         <v>773</v>
       </c>
@@ -22351,7 +22363,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
         <v>773</v>
       </c>
@@ -22398,7 +22410,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
         <v>780</v>
       </c>
@@ -22443,7 +22455,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
         <v>773</v>
       </c>
@@ -22490,7 +22502,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
         <v>780</v>
       </c>
@@ -22537,7 +22549,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
         <v>773</v>
       </c>
@@ -22584,7 +22596,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
         <v>773</v>
       </c>
@@ -22631,7 +22643,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="11" t="s">
         <v>773</v>
       </c>
@@ -22676,7 +22688,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
         <v>773</v>
       </c>
@@ -22723,7 +22735,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
         <v>773</v>
       </c>
@@ -22770,7 +22782,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
         <v>780</v>
       </c>
@@ -22817,7 +22829,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
         <v>773</v>
       </c>
@@ -22864,7 +22876,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
         <v>773</v>
       </c>
@@ -22911,7 +22923,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="11" t="s">
         <v>780</v>
       </c>
@@ -22956,7 +22968,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
         <v>780</v>
       </c>
@@ -23003,7 +23015,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
         <v>780</v>
       </c>
@@ -23050,7 +23062,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
         <v>780</v>
       </c>
@@ -23097,7 +23109,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
         <v>780</v>
       </c>
@@ -23144,7 +23156,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="11" t="s">
         <v>773</v>
       </c>
@@ -23191,7 +23203,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
         <v>35</v>
       </c>
@@ -23238,7 +23250,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
         <v>773</v>
       </c>
@@ -23285,7 +23297,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
         <v>773</v>
       </c>
@@ -23332,7 +23344,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
         <v>780</v>
       </c>
@@ -23379,7 +23391,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
         <v>780</v>
       </c>
@@ -23424,7 +23436,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
         <v>780</v>
       </c>
@@ -23471,7 +23483,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="11" t="s">
         <v>773</v>
       </c>
@@ -23518,7 +23530,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
         <v>773</v>
       </c>
@@ -23563,7 +23575,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
         <v>773</v>
       </c>
@@ -23610,7 +23622,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
         <v>780</v>
       </c>
@@ -23657,7 +23669,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
         <v>780</v>
       </c>
@@ -23704,7 +23716,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="11" t="s">
         <v>773</v>
       </c>
@@ -23749,7 +23761,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
         <v>773</v>
       </c>
@@ -23796,7 +23808,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="11" t="s">
         <v>773</v>
       </c>
@@ -23841,7 +23853,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
         <v>780</v>
       </c>
@@ -23888,7 +23900,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
         <v>773</v>
       </c>
@@ -23935,7 +23947,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
         <v>780</v>
       </c>
@@ -23982,7 +23994,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
         <v>780</v>
       </c>
@@ -24029,7 +24041,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="11" t="s">
         <v>780</v>
       </c>
@@ -24074,7 +24086,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
         <v>773</v>
       </c>
@@ -24121,7 +24133,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
         <v>773</v>
       </c>
@@ -24168,7 +24180,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
         <v>773</v>
       </c>
@@ -24215,7 +24227,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="11" t="s">
         <v>773</v>
       </c>
@@ -24260,7 +24272,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
         <v>780</v>
       </c>
@@ -24307,7 +24319,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
         <v>780</v>
       </c>
@@ -24354,7 +24366,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
         <v>780</v>
       </c>
@@ -24401,7 +24413,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
         <v>773</v>
       </c>
@@ -24448,7 +24460,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
         <v>780</v>
       </c>
@@ -24495,7 +24507,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
         <v>780</v>
       </c>
@@ -24542,7 +24554,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
         <v>780</v>
       </c>
@@ -24587,7 +24599,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
         <v>780</v>
       </c>
@@ -24634,7 +24646,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
         <v>780</v>
       </c>
@@ -24681,7 +24693,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
         <v>773</v>
       </c>
@@ -24728,7 +24740,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="11" t="s">
         <v>773</v>
       </c>
@@ -24773,7 +24785,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
         <v>773</v>
       </c>
@@ -24820,7 +24832,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
         <v>773</v>
       </c>
@@ -24867,7 +24879,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="11" t="s">
         <v>780</v>
       </c>
@@ -24912,7 +24924,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
         <v>780</v>
       </c>
@@ -24959,7 +24971,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
         <v>780</v>
       </c>
@@ -25006,7 +25018,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
         <v>780</v>
       </c>
@@ -25053,7 +25065,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
         <v>780</v>
       </c>
@@ -25100,7 +25112,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
         <v>773</v>
       </c>
@@ -25145,7 +25157,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
         <v>773</v>
       </c>
@@ -25190,7 +25202,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
         <v>773</v>
       </c>
@@ -25237,7 +25249,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
         <v>780</v>
       </c>
@@ -25284,7 +25296,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
         <v>780</v>
       </c>
@@ -25331,7 +25343,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
         <v>773</v>
       </c>
@@ -25376,7 +25388,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
         <v>780</v>
       </c>
@@ -25423,7 +25435,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
         <v>780</v>
       </c>
@@ -25470,7 +25482,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
         <v>780</v>
       </c>
@@ -25517,7 +25529,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
         <v>773</v>
       </c>
@@ -25564,7 +25576,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="11" t="s">
         <v>773</v>
       </c>
@@ -25609,7 +25621,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="11" t="s">
         <v>773</v>
       </c>
@@ -25654,7 +25666,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="11" t="s">
         <v>773</v>
       </c>
@@ -25699,7 +25711,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
         <v>780</v>
       </c>
@@ -25746,7 +25758,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="11" t="s">
         <v>780</v>
       </c>
@@ -25791,7 +25803,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
         <v>780</v>
       </c>
@@ -25838,7 +25850,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
         <v>780</v>
       </c>
@@ -25885,7 +25897,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
         <v>773</v>
       </c>
@@ -25932,7 +25944,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="11" t="s">
         <v>773</v>
       </c>
@@ -25977,7 +25989,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
         <v>773</v>
       </c>
@@ -26024,7 +26036,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="11" t="s">
         <v>780</v>
       </c>
@@ -26069,7 +26081,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="11" t="s">
         <v>780</v>
       </c>
@@ -26114,7 +26126,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
         <v>780</v>
       </c>
@@ -26161,7 +26173,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
         <v>773</v>
       </c>
@@ -26208,7 +26220,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
         <v>773</v>
       </c>
@@ -26255,7 +26267,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
         <v>773</v>
       </c>
@@ -26302,7 +26314,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
         <v>773</v>
       </c>
@@ -26349,7 +26361,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
         <v>773</v>
       </c>
@@ -26396,7 +26408,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
         <v>780</v>
       </c>
@@ -26443,7 +26455,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
         <v>780</v>
       </c>
@@ -26490,7 +26502,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
         <v>780</v>
       </c>
@@ -26537,7 +26549,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
         <v>773</v>
       </c>
@@ -26584,7 +26596,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
         <v>780</v>
       </c>
@@ -26631,7 +26643,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
         <v>773</v>
       </c>
@@ -26678,7 +26690,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
         <v>773</v>
       </c>
@@ -26723,7 +26735,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="11" t="s">
         <v>780</v>
       </c>
@@ -26768,7 +26780,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="11" t="s">
         <v>780</v>
       </c>
@@ -26813,7 +26825,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
         <v>780</v>
       </c>
@@ -26860,7 +26872,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
         <v>773</v>
       </c>
@@ -26905,7 +26917,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
         <v>773</v>
       </c>
@@ -26953,7 +26965,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O490" xr:uid="{9C37FD76-4C09-409F-B9A8-72882E138BC1}"/>
+  <autoFilter ref="A1:O490" xr:uid="{9C37FD76-4C09-409F-B9A8-72882E138BC1}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Multidisciplinar"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="L273" r:id="rId1" xr:uid="{642CAFD8-D8EC-4154-9DBC-BC3F44D4897E}"/>
     <hyperlink ref="L274" r:id="rId2" xr:uid="{F48CE0B9-7CBE-467D-970B-581BE7FF6803}"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.rodrigues\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\gallery_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4BA4C2-E777-4AFE-B0EA-2BC9BC68FFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB24103-3F4E-4033-9650-DE43DA5768BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filtro 1" guid="{CBCEDD35-89EB-4529-AFD1-E57F7F6E8C7B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filtro 2" guid="{5DE1752A-9F1B-4496-A575-26FC461CE632}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 1" guid="{CBCEDD35-89EB-4529-AFD1-E57F7F6E8C7B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3729,15 +3729,9 @@
     <t>Bichos de cá- poesia, natureza e música</t>
   </si>
   <si>
-    <t>A arca de Noé. Obs.: título original disponível no acervo plus.</t>
-  </si>
-  <si>
     <t>Caixa surpresa</t>
   </si>
   <si>
-    <t>A teia de Charlotte Obs.: livro disponível sob selo da editora HarperKids</t>
-  </si>
-  <si>
     <t>Salada de limeriques</t>
   </si>
   <si>
@@ -3747,9 +3741,6 @@
     <t xml:space="preserve"> Alfabético- almanaque do alfabeto poético </t>
   </si>
   <si>
-    <t>Passarinhos do Brasil- poemas que voam Obs.: título original disponível no acervo plus.</t>
-  </si>
-  <si>
     <t>Receitas para brincar</t>
   </si>
   <si>
@@ -3780,9 +3771,6 @@
     <t xml:space="preserve"> O monstro das cores vai à escola</t>
   </si>
   <si>
-    <t>Mario Quintana Obs.: antologia similar disponível no acervo plus.</t>
-  </si>
-  <si>
     <t>Som das letras</t>
   </si>
   <si>
@@ -5767,6 +5755,18 @@
   </si>
   <si>
     <t>NOME</t>
+  </si>
+  <si>
+    <t>A arca de Noé.</t>
+  </si>
+  <si>
+    <t>A teia de Charlotte.</t>
+  </si>
+  <si>
+    <t>Mario Quintana.</t>
+  </si>
+  <si>
+    <t>Passarinhos do Brasil- poemas que voam.</t>
   </si>
 </sst>
 </file>
@@ -6100,10 +6100,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C37FD76-4C09-409F-B9A8-72882E138BC1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D336" sqref="D336"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M501" sqref="M501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6140,7 +6141,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>4</v>
@@ -6176,7 +6177,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>763</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>146</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>125</v>
@@ -6214,19 +6215,19 @@
         <v>1190</v>
       </c>
       <c r="M2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O2" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="P2" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>768</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>849</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>850</v>
@@ -6264,19 +6265,19 @@
         <v>1190</v>
       </c>
       <c r="M3" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O3" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="P3" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>763</v>
       </c>
@@ -6320,13 +6321,13 @@
         <v>1198</v>
       </c>
       <c r="O4" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="P4" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
@@ -6370,13 +6371,13 @@
         <v>1198</v>
       </c>
       <c r="O5" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="P5" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>763</v>
       </c>
@@ -6420,13 +6421,13 @@
         <v>1198</v>
       </c>
       <c r="O6" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="P6" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -6473,10 +6474,10 @@
         <v>1196</v>
       </c>
       <c r="P7" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>768</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>1108</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>1109</v>
@@ -6514,19 +6515,19 @@
         <v>1190</v>
       </c>
       <c r="M8" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O8" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="P8" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>77</v>
       </c>
@@ -6570,13 +6571,13 @@
         <v>1198</v>
       </c>
       <c r="O9" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="P9" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>763</v>
       </c>
@@ -6620,10 +6621,10 @@
         <v>1198</v>
       </c>
       <c r="O10" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="P10" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -6640,7 +6641,7 @@
         <v>297</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>298</v>
@@ -6664,16 +6665,16 @@
         <v>1190</v>
       </c>
       <c r="M11" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O11" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="P11" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -6690,7 +6691,7 @@
         <v>297</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>298</v>
@@ -6714,16 +6715,16 @@
         <v>1190</v>
       </c>
       <c r="M12" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O12" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="P12" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -6740,7 +6741,7 @@
         <v>297</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>298</v>
@@ -6764,16 +6765,16 @@
         <v>1190</v>
       </c>
       <c r="M13" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O13" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="P13" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -6790,7 +6791,7 @@
         <v>297</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>298</v>
@@ -6814,16 +6815,16 @@
         <v>1190</v>
       </c>
       <c r="M14" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O14" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="P14" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -6840,7 +6841,7 @@
         <v>872</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>298</v>
@@ -6864,16 +6865,16 @@
         <v>1190</v>
       </c>
       <c r="M15" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O15" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="P15" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -6890,7 +6891,7 @@
         <v>297</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>298</v>
@@ -6914,19 +6915,19 @@
         <v>1190</v>
       </c>
       <c r="M16" t="s">
-        <v>1227</v>
+        <v>1903</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O16" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="P16" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
@@ -6970,13 +6971,13 @@
         <v>1198</v>
       </c>
       <c r="O17" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="P17" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
@@ -7020,13 +7021,13 @@
         <v>1198</v>
       </c>
       <c r="O18" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="P18" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>768</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>832</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>833</v>
@@ -7064,19 +7065,19 @@
         <v>1190</v>
       </c>
       <c r="M19" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O19" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="P19" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
@@ -7120,13 +7121,13 @@
         <v>1198</v>
       </c>
       <c r="O20" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="P20" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>768</v>
       </c>
@@ -7170,13 +7171,13 @@
         <v>1198</v>
       </c>
       <c r="O21" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="P21" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>45</v>
       </c>
@@ -7220,13 +7221,13 @@
         <v>1198</v>
       </c>
       <c r="O22" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="P22" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>41</v>
       </c>
@@ -7270,13 +7271,13 @@
         <v>1198</v>
       </c>
       <c r="O23" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="P23" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>768</v>
       </c>
@@ -7290,7 +7291,7 @@
         <v>835</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>836</v>
@@ -7314,19 +7315,19 @@
         <v>1190</v>
       </c>
       <c r="M24" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O24" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="P24" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>41</v>
       </c>
@@ -7370,13 +7371,13 @@
         <v>1198</v>
       </c>
       <c r="O25" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="P25" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>41</v>
       </c>
@@ -7420,13 +7421,13 @@
         <v>1198</v>
       </c>
       <c r="O26" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="P26" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>763</v>
       </c>
@@ -7470,13 +7471,13 @@
         <v>1198</v>
       </c>
       <c r="O27" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="P27" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>77</v>
       </c>
@@ -7520,13 +7521,13 @@
         <v>1198</v>
       </c>
       <c r="O28" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="P28" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>763</v>
       </c>
@@ -7570,13 +7571,13 @@
         <v>1198</v>
       </c>
       <c r="O29" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="P29" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>768</v>
       </c>
@@ -7620,13 +7621,13 @@
         <v>1198</v>
       </c>
       <c r="O30" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="P30" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>41</v>
       </c>
@@ -7670,10 +7671,10 @@
         <v>1198</v>
       </c>
       <c r="O31" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="P31" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -7690,7 +7691,7 @@
         <v>815</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>1229</v>
+        <v>1904</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>816</v>
@@ -7714,19 +7715,19 @@
         <v>1190</v>
       </c>
       <c r="M32" t="s">
-        <v>1229</v>
+        <v>1904</v>
       </c>
       <c r="N32" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O32" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="P32" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -7770,13 +7771,13 @@
         <v>1198</v>
       </c>
       <c r="O33" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="P33" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>768</v>
       </c>
@@ -7790,7 +7791,7 @@
         <v>942</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>125</v>
@@ -7814,19 +7815,19 @@
         <v>1190</v>
       </c>
       <c r="M34" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="N34" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O34" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="P34" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>77</v>
       </c>
@@ -7870,13 +7871,13 @@
         <v>1198</v>
       </c>
       <c r="O35" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="P35" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>32</v>
       </c>
@@ -7920,13 +7921,13 @@
         <v>1198</v>
       </c>
       <c r="O36" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="P36" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>763</v>
       </c>
@@ -7970,13 +7971,13 @@
         <v>1198</v>
       </c>
       <c r="O37" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="P37" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>768</v>
       </c>
@@ -8020,13 +8021,13 @@
         <v>1198</v>
       </c>
       <c r="O38" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="P38" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>17</v>
       </c>
@@ -8070,13 +8071,13 @@
         <v>1198</v>
       </c>
       <c r="O39" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="P39" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>768</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>1180</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>1181</v>
@@ -8114,19 +8115,19 @@
         <v>1190</v>
       </c>
       <c r="M40" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O40" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="P40" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>17</v>
       </c>
@@ -8170,13 +8171,13 @@
         <v>1198</v>
       </c>
       <c r="O41" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="P41" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>768</v>
       </c>
@@ -8190,7 +8191,7 @@
         <v>1089</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>1015</v>
@@ -8214,19 +8215,19 @@
         <v>1190</v>
       </c>
       <c r="M42" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="N42" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O42" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="P42" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>763</v>
       </c>
@@ -8270,13 +8271,13 @@
         <v>1198</v>
       </c>
       <c r="O43" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="P43" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>768</v>
       </c>
@@ -8320,13 +8321,13 @@
         <v>1198</v>
       </c>
       <c r="O44" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="P44" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>768</v>
       </c>
@@ -8370,13 +8371,13 @@
         <v>1198</v>
       </c>
       <c r="O45" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="P45" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>9</v>
       </c>
@@ -8420,13 +8421,13 @@
         <v>1198</v>
       </c>
       <c r="O46" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="P46" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>9</v>
       </c>
@@ -8470,13 +8471,13 @@
         <v>1198</v>
       </c>
       <c r="O47" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="P47" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>768</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>1028</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>1029</v>
@@ -8514,19 +8515,19 @@
         <v>1190</v>
       </c>
       <c r="M48" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="N48" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O48" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="P48" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>763</v>
       </c>
@@ -8570,13 +8571,13 @@
         <v>1198</v>
       </c>
       <c r="O49" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="P49" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>9</v>
       </c>
@@ -8620,13 +8621,13 @@
         <v>1198</v>
       </c>
       <c r="O50" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="P50" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>17</v>
       </c>
@@ -8670,13 +8671,13 @@
         <v>1198</v>
       </c>
       <c r="O51" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="P51" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>763</v>
       </c>
@@ -8720,13 +8721,13 @@
         <v>1198</v>
       </c>
       <c r="O52" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="P52" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>768</v>
       </c>
@@ -8740,7 +8741,7 @@
         <v>1096</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>1097</v>
@@ -8764,7 +8765,7 @@
         <v>1190</v>
       </c>
       <c r="M53" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="N53" s="9" t="s">
         <v>1200</v>
@@ -8773,10 +8774,10 @@
         <v>1196</v>
       </c>
       <c r="P53" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>32</v>
       </c>
@@ -8820,13 +8821,13 @@
         <v>1198</v>
       </c>
       <c r="O54" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="P54" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>32</v>
       </c>
@@ -8870,13 +8871,13 @@
         <v>1198</v>
       </c>
       <c r="O55" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="P55" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>41</v>
       </c>
@@ -8920,13 +8921,13 @@
         <v>1198</v>
       </c>
       <c r="O56" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="P56" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>763</v>
       </c>
@@ -8970,13 +8971,13 @@
         <v>1198</v>
       </c>
       <c r="O57" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="P57" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>768</v>
       </c>
@@ -8990,7 +8991,7 @@
         <v>1166</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>1167</v>
@@ -9014,19 +9015,19 @@
         <v>1190</v>
       </c>
       <c r="M58" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="N58" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O58" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="P58" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>768</v>
       </c>
@@ -9070,13 +9071,13 @@
         <v>1198</v>
       </c>
       <c r="O59" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="P59" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>763</v>
       </c>
@@ -9090,7 +9091,7 @@
         <v>648</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>71</v>
@@ -9114,19 +9115,19 @@
         <v>1190</v>
       </c>
       <c r="M60" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="N60" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O60" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="P60" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>41</v>
       </c>
@@ -9170,13 +9171,13 @@
         <v>1198</v>
       </c>
       <c r="O61" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="P61" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>768</v>
       </c>
@@ -9220,13 +9221,13 @@
         <v>1198</v>
       </c>
       <c r="O62" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="P62" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>768</v>
       </c>
@@ -9270,13 +9271,13 @@
         <v>1198</v>
       </c>
       <c r="O63" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="P63" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>763</v>
       </c>
@@ -9320,13 +9321,13 @@
         <v>1198</v>
       </c>
       <c r="O64" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="P64" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>77</v>
       </c>
@@ -9370,13 +9371,13 @@
         <v>1198</v>
       </c>
       <c r="O65" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="P65" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>763</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>825</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>826</v>
@@ -9414,19 +9415,19 @@
         <v>1190</v>
       </c>
       <c r="M66" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="N66" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O66" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="P66" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>763</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>1161</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>1162</v>
@@ -9464,19 +9465,19 @@
         <v>1190</v>
       </c>
       <c r="M67" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="N67" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O67" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="P67" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>768</v>
       </c>
@@ -9520,13 +9521,13 @@
         <v>1198</v>
       </c>
       <c r="O68" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="P68" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>768</v>
       </c>
@@ -9570,13 +9571,13 @@
         <v>1198</v>
       </c>
       <c r="O69" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="P69" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>763</v>
       </c>
@@ -9620,13 +9621,13 @@
         <v>1198</v>
       </c>
       <c r="O70" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="P70" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>17</v>
       </c>
@@ -9670,13 +9671,13 @@
         <v>1198</v>
       </c>
       <c r="O71" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="P71" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>17</v>
       </c>
@@ -9720,13 +9721,13 @@
         <v>1198</v>
       </c>
       <c r="O72" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="P72" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>9</v>
       </c>
@@ -9770,13 +9771,13 @@
         <v>1198</v>
       </c>
       <c r="O73" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="P73" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>768</v>
       </c>
@@ -9790,7 +9791,7 @@
         <v>813</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>814</v>
@@ -9814,19 +9815,19 @@
         <v>1190</v>
       </c>
       <c r="M74" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="N74" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O74" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="P74" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>45</v>
       </c>
@@ -9870,13 +9871,13 @@
         <v>1198</v>
       </c>
       <c r="O75" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="P75" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>768</v>
       </c>
@@ -9920,13 +9921,13 @@
         <v>1198</v>
       </c>
       <c r="O76" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="P76" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>32</v>
       </c>
@@ -9970,13 +9971,13 @@
         <v>1198</v>
       </c>
       <c r="O77" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="P77" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>763</v>
       </c>
@@ -10020,13 +10021,13 @@
         <v>1198</v>
       </c>
       <c r="O78" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="P78" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>768</v>
       </c>
@@ -10040,7 +10041,7 @@
         <v>1117</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>1118</v>
@@ -10064,19 +10065,19 @@
         <v>1190</v>
       </c>
       <c r="M79" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="N79" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O79" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="P79" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>768</v>
       </c>
@@ -10090,7 +10091,7 @@
         <v>1151</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>1152</v>
@@ -10114,19 +10115,19 @@
         <v>1190</v>
       </c>
       <c r="M80" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="N80" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O80" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="P80" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>77</v>
       </c>
@@ -10170,13 +10171,13 @@
         <v>1198</v>
       </c>
       <c r="O81" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="P81" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>41</v>
       </c>
@@ -10220,13 +10221,13 @@
         <v>1198</v>
       </c>
       <c r="O82" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="P82" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>41</v>
       </c>
@@ -10270,13 +10271,13 @@
         <v>1198</v>
       </c>
       <c r="O83" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="P83" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>32</v>
       </c>
@@ -10320,13 +10321,13 @@
         <v>1198</v>
       </c>
       <c r="O84" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="P84" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>768</v>
       </c>
@@ -10370,13 +10371,13 @@
         <v>1198</v>
       </c>
       <c r="O85" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="P85" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>768</v>
       </c>
@@ -10390,7 +10391,7 @@
         <v>1018</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>659</v>
@@ -10414,19 +10415,19 @@
         <v>1190</v>
       </c>
       <c r="M86" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="N86" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O86" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="P86" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>763</v>
       </c>
@@ -10470,13 +10471,13 @@
         <v>1198</v>
       </c>
       <c r="O87" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="P87" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>32</v>
       </c>
@@ -10520,13 +10521,13 @@
         <v>1198</v>
       </c>
       <c r="O88" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="P88" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>41</v>
       </c>
@@ -10570,13 +10571,13 @@
         <v>1198</v>
       </c>
       <c r="O89" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="P89" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>41</v>
       </c>
@@ -10620,13 +10621,13 @@
         <v>1198</v>
       </c>
       <c r="O90" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="P90" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>77</v>
       </c>
@@ -10670,13 +10671,13 @@
         <v>1198</v>
       </c>
       <c r="O91" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="P91" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>41</v>
       </c>
@@ -10720,13 +10721,13 @@
         <v>1198</v>
       </c>
       <c r="O92" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="P92" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>41</v>
       </c>
@@ -10770,13 +10771,13 @@
         <v>1198</v>
       </c>
       <c r="O93" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="P93" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>41</v>
       </c>
@@ -10820,13 +10821,13 @@
         <v>1198</v>
       </c>
       <c r="O94" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="P94" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>763</v>
       </c>
@@ -10870,13 +10871,13 @@
         <v>1198</v>
       </c>
       <c r="O95" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="P95" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>763</v>
       </c>
@@ -10920,13 +10921,13 @@
         <v>1198</v>
       </c>
       <c r="O96" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="P96" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>768</v>
       </c>
@@ -10970,13 +10971,13 @@
         <v>1198</v>
       </c>
       <c r="O97" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="P97" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>763</v>
       </c>
@@ -11020,13 +11021,13 @@
         <v>1198</v>
       </c>
       <c r="O98" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="P98" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>77</v>
       </c>
@@ -11070,13 +11071,13 @@
         <v>1198</v>
       </c>
       <c r="O99" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="P99" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>77</v>
       </c>
@@ -11120,13 +11121,13 @@
         <v>1198</v>
       </c>
       <c r="O100" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="P100" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>41</v>
       </c>
@@ -11170,13 +11171,13 @@
         <v>1198</v>
       </c>
       <c r="O101" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="P101" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>41</v>
       </c>
@@ -11220,13 +11221,13 @@
         <v>1198</v>
       </c>
       <c r="O102" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="P102" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>32</v>
       </c>
@@ -11270,13 +11271,13 @@
         <v>1198</v>
       </c>
       <c r="O103" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="P103" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>17</v>
       </c>
@@ -11320,13 +11321,13 @@
         <v>1198</v>
       </c>
       <c r="O104" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="P104" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>768</v>
       </c>
@@ -11370,13 +11371,13 @@
         <v>1198</v>
       </c>
       <c r="O105" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="P105" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>41</v>
       </c>
@@ -11420,13 +11421,13 @@
         <v>1198</v>
       </c>
       <c r="O106" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="P106" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>41</v>
       </c>
@@ -11470,13 +11471,13 @@
         <v>1198</v>
       </c>
       <c r="O107" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="P107" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>41</v>
       </c>
@@ -11520,13 +11521,13 @@
         <v>1198</v>
       </c>
       <c r="O108" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="P108" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>32</v>
       </c>
@@ -11570,13 +11571,13 @@
         <v>1198</v>
       </c>
       <c r="O109" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="P109" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>768</v>
       </c>
@@ -11620,13 +11621,13 @@
         <v>1198</v>
       </c>
       <c r="O110" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="P110" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>768</v>
       </c>
@@ -11640,7 +11641,7 @@
         <v>1014</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>1015</v>
@@ -11664,19 +11665,19 @@
         <v>1190</v>
       </c>
       <c r="M111" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="N111" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O111" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="P111" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>763</v>
       </c>
@@ -11720,13 +11721,13 @@
         <v>1198</v>
       </c>
       <c r="O112" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="P112" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>763</v>
       </c>
@@ -11770,13 +11771,13 @@
         <v>1198</v>
       </c>
       <c r="O113" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="P113" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>41</v>
       </c>
@@ -11820,13 +11821,13 @@
         <v>1198</v>
       </c>
       <c r="O114" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="P114" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>41</v>
       </c>
@@ -11870,13 +11871,13 @@
         <v>1198</v>
       </c>
       <c r="O115" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="P115" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>768</v>
       </c>
@@ -11890,7 +11891,7 @@
         <v>1116</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>244</v>
@@ -11914,19 +11915,19 @@
         <v>1190</v>
       </c>
       <c r="M116" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="N116" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O116" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="P116" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>32</v>
       </c>
@@ -11970,13 +11971,13 @@
         <v>1198</v>
       </c>
       <c r="O117" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="P117" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>45</v>
       </c>
@@ -12020,13 +12021,13 @@
         <v>1198</v>
       </c>
       <c r="O118" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="P118" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>45</v>
       </c>
@@ -12070,13 +12071,13 @@
         <v>1198</v>
       </c>
       <c r="O119" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="P119" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>45</v>
       </c>
@@ -12120,13 +12121,13 @@
         <v>1198</v>
       </c>
       <c r="O120" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="P120" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>41</v>
       </c>
@@ -12170,13 +12171,13 @@
         <v>1198</v>
       </c>
       <c r="O121" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="P121" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>768</v>
       </c>
@@ -12190,7 +12191,7 @@
         <v>1060</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>1061</v>
@@ -12214,19 +12215,19 @@
         <v>1190</v>
       </c>
       <c r="M122" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="N122" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O122" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="P122" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>763</v>
       </c>
@@ -12270,13 +12271,13 @@
         <v>1198</v>
       </c>
       <c r="O123" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="P123" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>41</v>
       </c>
@@ -12320,13 +12321,13 @@
         <v>1198</v>
       </c>
       <c r="O124" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="P124" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>41</v>
       </c>
@@ -12370,13 +12371,13 @@
         <v>1198</v>
       </c>
       <c r="O125" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="P125" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>45</v>
       </c>
@@ -12420,13 +12421,13 @@
         <v>1198</v>
       </c>
       <c r="O126" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="P126" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>9</v>
       </c>
@@ -12470,13 +12471,13 @@
         <v>1198</v>
       </c>
       <c r="O127" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="P127" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>763</v>
       </c>
@@ -12520,13 +12521,13 @@
         <v>1198</v>
       </c>
       <c r="O128" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="P128" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>77</v>
       </c>
@@ -12570,13 +12571,13 @@
         <v>1198</v>
       </c>
       <c r="O129" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="P129" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>77</v>
       </c>
@@ -12620,13 +12621,13 @@
         <v>1198</v>
       </c>
       <c r="O130" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="P130" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>768</v>
       </c>
@@ -12670,13 +12671,13 @@
         <v>1198</v>
       </c>
       <c r="O131" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="P131" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>32</v>
       </c>
@@ -12720,13 +12721,13 @@
         <v>1198</v>
       </c>
       <c r="O132" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="P132" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>32</v>
       </c>
@@ -12770,13 +12771,13 @@
         <v>1198</v>
       </c>
       <c r="O133" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="P133" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>763</v>
       </c>
@@ -12820,13 +12821,13 @@
         <v>1198</v>
       </c>
       <c r="O134" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="P134" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>77</v>
       </c>
@@ -12870,13 +12871,13 @@
         <v>1198</v>
       </c>
       <c r="O135" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="P135" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>32</v>
       </c>
@@ -12920,13 +12921,13 @@
         <v>1198</v>
       </c>
       <c r="O136" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="P136" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>763</v>
       </c>
@@ -12970,13 +12971,13 @@
         <v>1198</v>
       </c>
       <c r="O137" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="P137" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>768</v>
       </c>
@@ -13020,13 +13021,13 @@
         <v>1198</v>
       </c>
       <c r="O138" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="P138" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>32</v>
       </c>
@@ -13070,13 +13071,13 @@
         <v>1198</v>
       </c>
       <c r="O139" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="P139" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>768</v>
       </c>
@@ -13120,13 +13121,13 @@
         <v>1198</v>
       </c>
       <c r="O140" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="P140" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>768</v>
       </c>
@@ -13170,13 +13171,13 @@
         <v>1198</v>
       </c>
       <c r="O141" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="P141" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>9</v>
       </c>
@@ -13220,13 +13221,13 @@
         <v>1198</v>
       </c>
       <c r="O142" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="P142" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>32</v>
       </c>
@@ -13270,13 +13271,13 @@
         <v>1198</v>
       </c>
       <c r="O143" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="P143" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>768</v>
       </c>
@@ -13320,13 +13321,13 @@
         <v>1198</v>
       </c>
       <c r="O144" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="P144" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>32</v>
       </c>
@@ -13370,13 +13371,13 @@
         <v>1198</v>
       </c>
       <c r="O145" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="P145" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>768</v>
       </c>
@@ -13390,7 +13391,7 @@
         <v>1040</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>1041</v>
@@ -13414,19 +13415,19 @@
         <v>1190</v>
       </c>
       <c r="M146" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="N146" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O146" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="P146" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>32</v>
       </c>
@@ -13470,13 +13471,13 @@
         <v>1198</v>
       </c>
       <c r="O147" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="P147" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>768</v>
       </c>
@@ -13520,13 +13521,13 @@
         <v>1198</v>
       </c>
       <c r="O148" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="P148" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>763</v>
       </c>
@@ -13570,13 +13571,13 @@
         <v>1198</v>
       </c>
       <c r="O149" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="P149" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>32</v>
       </c>
@@ -13620,13 +13621,13 @@
         <v>1198</v>
       </c>
       <c r="O150" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="P150" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>763</v>
       </c>
@@ -13640,7 +13641,7 @@
         <v>828</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>829</v>
@@ -13664,19 +13665,19 @@
         <v>1190</v>
       </c>
       <c r="M151" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="N151" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O151" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="P151" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>763</v>
       </c>
@@ -13720,13 +13721,13 @@
         <v>1198</v>
       </c>
       <c r="O152" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="P152" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>32</v>
       </c>
@@ -13770,13 +13771,13 @@
         <v>1198</v>
       </c>
       <c r="O153" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="P153" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>763</v>
       </c>
@@ -13820,13 +13821,13 @@
         <v>1198</v>
       </c>
       <c r="O154" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="P154" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>768</v>
       </c>
@@ -13840,7 +13841,7 @@
         <v>840</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>841</v>
@@ -13864,19 +13865,19 @@
         <v>1190</v>
       </c>
       <c r="M155" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="N155" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O155" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="P155" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>41</v>
       </c>
@@ -13920,13 +13921,13 @@
         <v>1198</v>
       </c>
       <c r="O156" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="P156" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>763</v>
       </c>
@@ -13970,13 +13971,13 @@
         <v>1198</v>
       </c>
       <c r="O157" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="P157" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>768</v>
       </c>
@@ -14020,13 +14021,13 @@
         <v>1198</v>
       </c>
       <c r="O158" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="P158" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>768</v>
       </c>
@@ -14070,13 +14071,13 @@
         <v>1198</v>
       </c>
       <c r="O159" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="P159" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>32</v>
       </c>
@@ -14120,13 +14121,13 @@
         <v>1198</v>
       </c>
       <c r="O160" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="P160" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>41</v>
       </c>
@@ -14170,13 +14171,13 @@
         <v>1198</v>
       </c>
       <c r="O161" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="P161" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>768</v>
       </c>
@@ -14220,13 +14221,13 @@
         <v>1198</v>
       </c>
       <c r="O162" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="P162" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>41</v>
       </c>
@@ -14270,13 +14271,13 @@
         <v>1198</v>
       </c>
       <c r="O163" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="P163" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>32</v>
       </c>
@@ -14320,13 +14321,13 @@
         <v>1198</v>
       </c>
       <c r="O164" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="P164" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>41</v>
       </c>
@@ -14370,13 +14371,13 @@
         <v>1198</v>
       </c>
       <c r="O165" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="P165" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>32</v>
       </c>
@@ -14420,13 +14421,13 @@
         <v>1198</v>
       </c>
       <c r="O166" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="P166" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>768</v>
       </c>
@@ -14470,13 +14471,13 @@
         <v>1198</v>
       </c>
       <c r="O167" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="P167" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>9</v>
       </c>
@@ -14520,13 +14521,13 @@
         <v>1198</v>
       </c>
       <c r="O168" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="P168" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>32</v>
       </c>
@@ -14570,13 +14571,13 @@
         <v>1198</v>
       </c>
       <c r="O169" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="P169" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>41</v>
       </c>
@@ -14620,13 +14621,13 @@
         <v>1198</v>
       </c>
       <c r="O170" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="P170" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>41</v>
       </c>
@@ -14670,13 +14671,13 @@
         <v>1198</v>
       </c>
       <c r="O171" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="P171" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>41</v>
       </c>
@@ -14720,13 +14721,13 @@
         <v>1198</v>
       </c>
       <c r="O172" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="P172" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>768</v>
       </c>
@@ -14770,10 +14771,10 @@
         <v>1198</v>
       </c>
       <c r="O173" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="P173" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
@@ -14790,7 +14791,7 @@
         <v>875</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>1244</v>
+        <v>1905</v>
       </c>
       <c r="F174" s="10" t="s">
         <v>419</v>
@@ -14814,7 +14815,7 @@
         <v>1190</v>
       </c>
       <c r="M174" t="s">
-        <v>1244</v>
+        <v>1905</v>
       </c>
       <c r="N174" s="9" t="s">
         <v>1200</v>
@@ -14823,10 +14824,10 @@
         <v>1196</v>
       </c>
       <c r="P174" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>768</v>
       </c>
@@ -14870,13 +14871,13 @@
         <v>1198</v>
       </c>
       <c r="O175" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="P175" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>32</v>
       </c>
@@ -14920,13 +14921,13 @@
         <v>1198</v>
       </c>
       <c r="O176" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="P176" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>41</v>
       </c>
@@ -14970,13 +14971,13 @@
         <v>1198</v>
       </c>
       <c r="O177" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="P177" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>45</v>
       </c>
@@ -15020,13 +15021,13 @@
         <v>1198</v>
       </c>
       <c r="O178" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="P178" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>763</v>
       </c>
@@ -15070,13 +15071,13 @@
         <v>1198</v>
       </c>
       <c r="O179" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="P179" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>763</v>
       </c>
@@ -15120,13 +15121,13 @@
         <v>1198</v>
       </c>
       <c r="O180" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="P180" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>41</v>
       </c>
@@ -15170,13 +15171,13 @@
         <v>1198</v>
       </c>
       <c r="O181" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="P181" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>32</v>
       </c>
@@ -15220,13 +15221,13 @@
         <v>1198</v>
       </c>
       <c r="O182" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="P182" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>763</v>
       </c>
@@ -15270,13 +15271,13 @@
         <v>1198</v>
       </c>
       <c r="O183" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="P183" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>41</v>
       </c>
@@ -15320,13 +15321,13 @@
         <v>1198</v>
       </c>
       <c r="O184" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="P184" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>768</v>
       </c>
@@ -15370,13 +15371,13 @@
         <v>1198</v>
       </c>
       <c r="O185" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="P185" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>45</v>
       </c>
@@ -15420,13 +15421,13 @@
         <v>1198</v>
       </c>
       <c r="O186" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="P186" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>17</v>
       </c>
@@ -15470,13 +15471,13 @@
         <v>1198</v>
       </c>
       <c r="O187" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="P187" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>41</v>
       </c>
@@ -15520,13 +15521,13 @@
         <v>1198</v>
       </c>
       <c r="O188" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="P188" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>17</v>
       </c>
@@ -15570,13 +15571,13 @@
         <v>1198</v>
       </c>
       <c r="O189" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="P189" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>32</v>
       </c>
@@ -15620,13 +15621,13 @@
         <v>1198</v>
       </c>
       <c r="O190" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="P190" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>41</v>
       </c>
@@ -15670,13 +15671,13 @@
         <v>1198</v>
       </c>
       <c r="O191" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="P191" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>763</v>
       </c>
@@ -15720,13 +15721,13 @@
         <v>1198</v>
       </c>
       <c r="O192" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="P192" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>41</v>
       </c>
@@ -15770,13 +15771,13 @@
         <v>1198</v>
       </c>
       <c r="O193" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="P193" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>32</v>
       </c>
@@ -15820,13 +15821,13 @@
         <v>1198</v>
       </c>
       <c r="O194" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="P194" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>763</v>
       </c>
@@ -15870,13 +15871,13 @@
         <v>1198</v>
       </c>
       <c r="O195" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="P195" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>763</v>
       </c>
@@ -15920,13 +15921,13 @@
         <v>1198</v>
       </c>
       <c r="O196" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="P196" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>768</v>
       </c>
@@ -15970,13 +15971,13 @@
         <v>1198</v>
       </c>
       <c r="O197" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="P197" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>77</v>
       </c>
@@ -16020,13 +16021,13 @@
         <v>1198</v>
       </c>
       <c r="O198" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="P198" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>32</v>
       </c>
@@ -16070,13 +16071,13 @@
         <v>1198</v>
       </c>
       <c r="O199" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="P199" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>41</v>
       </c>
@@ -16120,13 +16121,13 @@
         <v>1198</v>
       </c>
       <c r="O200" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="P200" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>41</v>
       </c>
@@ -16170,13 +16171,13 @@
         <v>1198</v>
       </c>
       <c r="O201" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="P201" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>32</v>
       </c>
@@ -16220,13 +16221,13 @@
         <v>1198</v>
       </c>
       <c r="O202" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="P202" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>32</v>
       </c>
@@ -16270,13 +16271,13 @@
         <v>1198</v>
       </c>
       <c r="O203" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="P203" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>41</v>
       </c>
@@ -16320,13 +16321,13 @@
         <v>1198</v>
       </c>
       <c r="O204" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="P204" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>763</v>
       </c>
@@ -16370,13 +16371,13 @@
         <v>1198</v>
       </c>
       <c r="O205" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="P205" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>9</v>
       </c>
@@ -16420,13 +16421,13 @@
         <v>1198</v>
       </c>
       <c r="O206" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="P206" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>17</v>
       </c>
@@ -16470,13 +16471,13 @@
         <v>1198</v>
       </c>
       <c r="O207" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="P207" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>763</v>
       </c>
@@ -16520,13 +16521,13 @@
         <v>1198</v>
       </c>
       <c r="O208" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="P208" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>41</v>
       </c>
@@ -16570,13 +16571,13 @@
         <v>1198</v>
       </c>
       <c r="O209" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="P209" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>768</v>
       </c>
@@ -16620,13 +16621,13 @@
         <v>1198</v>
       </c>
       <c r="O210" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="P210" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>17</v>
       </c>
@@ -16670,13 +16671,13 @@
         <v>1198</v>
       </c>
       <c r="O211" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="P211" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>763</v>
       </c>
@@ -16720,13 +16721,13 @@
         <v>1198</v>
       </c>
       <c r="O212" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="P212" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>41</v>
       </c>
@@ -16770,13 +16771,13 @@
         <v>1198</v>
       </c>
       <c r="O213" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="P213" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>32</v>
       </c>
@@ -16820,13 +16821,13 @@
         <v>1198</v>
       </c>
       <c r="O214" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="P214" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>32</v>
       </c>
@@ -16870,13 +16871,13 @@
         <v>1198</v>
       </c>
       <c r="O215" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="P215" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>9</v>
       </c>
@@ -16920,13 +16921,13 @@
         <v>1198</v>
       </c>
       <c r="O216" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="P216" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>45</v>
       </c>
@@ -16970,13 +16971,13 @@
         <v>1198</v>
       </c>
       <c r="O217" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="P217" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>41</v>
       </c>
@@ -17020,13 +17021,13 @@
         <v>1198</v>
       </c>
       <c r="O218" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="P218" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
         <v>763</v>
       </c>
@@ -17040,7 +17041,7 @@
         <v>1007</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="F219" s="11" t="s">
         <v>1008</v>
@@ -17064,19 +17065,19 @@
         <v>1190</v>
       </c>
       <c r="M219" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="N219" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O219" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="P219" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>41</v>
       </c>
@@ -17120,13 +17121,13 @@
         <v>1198</v>
       </c>
       <c r="O220" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="P220" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>768</v>
       </c>
@@ -17170,13 +17171,13 @@
         <v>1198</v>
       </c>
       <c r="O221" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="P221" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>32</v>
       </c>
@@ -17220,13 +17221,13 @@
         <v>1198</v>
       </c>
       <c r="O222" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="P222" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>32</v>
       </c>
@@ -17270,13 +17271,13 @@
         <v>1198</v>
       </c>
       <c r="O223" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="P223" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>763</v>
       </c>
@@ -17320,13 +17321,13 @@
         <v>1198</v>
       </c>
       <c r="O224" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="P224" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>768</v>
       </c>
@@ -17370,13 +17371,13 @@
         <v>1198</v>
       </c>
       <c r="O225" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="P225" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>763</v>
       </c>
@@ -17420,13 +17421,13 @@
         <v>1198</v>
       </c>
       <c r="O226" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="P226" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>9</v>
       </c>
@@ -17470,13 +17471,13 @@
         <v>1198</v>
       </c>
       <c r="O227" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="P227" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>763</v>
       </c>
@@ -17520,13 +17521,13 @@
         <v>1198</v>
       </c>
       <c r="O228" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="P228" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>768</v>
       </c>
@@ -17570,13 +17571,13 @@
         <v>1198</v>
       </c>
       <c r="O229" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="P229" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>768</v>
       </c>
@@ -17620,13 +17621,13 @@
         <v>1198</v>
       </c>
       <c r="O230" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="P230" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>17</v>
       </c>
@@ -17670,13 +17671,13 @@
         <v>1198</v>
       </c>
       <c r="O231" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="P231" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>9</v>
       </c>
@@ -17720,13 +17721,13 @@
         <v>1198</v>
       </c>
       <c r="O232" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="P232" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>763</v>
       </c>
@@ -17770,13 +17771,13 @@
         <v>1198</v>
       </c>
       <c r="O233" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="P233" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>17</v>
       </c>
@@ -17820,13 +17821,13 @@
         <v>1198</v>
       </c>
       <c r="O234" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="P234" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>763</v>
       </c>
@@ -17870,13 +17871,13 @@
         <v>1198</v>
       </c>
       <c r="O235" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="P235" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>768</v>
       </c>
@@ -17890,7 +17891,7 @@
         <v>1171</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="F236" s="13" t="s">
         <v>10</v>
@@ -17914,19 +17915,19 @@
         <v>1190</v>
       </c>
       <c r="M236" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="N236" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O236" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="P236" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>763</v>
       </c>
@@ -17970,13 +17971,13 @@
         <v>1198</v>
       </c>
       <c r="O237" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="P237" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>17</v>
       </c>
@@ -18020,13 +18021,13 @@
         <v>1198</v>
       </c>
       <c r="O238" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="P238" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>763</v>
       </c>
@@ -18070,13 +18071,13 @@
         <v>1198</v>
       </c>
       <c r="O239" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="P239" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>17</v>
       </c>
@@ -18120,13 +18121,13 @@
         <v>1198</v>
       </c>
       <c r="O240" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="P240" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>32</v>
       </c>
@@ -18170,13 +18171,13 @@
         <v>1198</v>
       </c>
       <c r="O241" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="P241" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>41</v>
       </c>
@@ -18220,13 +18221,13 @@
         <v>1198</v>
       </c>
       <c r="O242" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="P242" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>41</v>
       </c>
@@ -18270,13 +18271,13 @@
         <v>1198</v>
       </c>
       <c r="O243" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="P243" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>45</v>
       </c>
@@ -18320,13 +18321,13 @@
         <v>1198</v>
       </c>
       <c r="O244" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="P244" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>9</v>
       </c>
@@ -18370,13 +18371,13 @@
         <v>1198</v>
       </c>
       <c r="O245" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="P245" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>768</v>
       </c>
@@ -18390,7 +18391,7 @@
         <v>1106</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="F246" s="10" t="s">
         <v>1107</v>
@@ -18414,19 +18415,19 @@
         <v>1190</v>
       </c>
       <c r="M246" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="N246" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O246" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="P246" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>41</v>
       </c>
@@ -18470,13 +18471,13 @@
         <v>1198</v>
       </c>
       <c r="O247" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="P247" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>763</v>
       </c>
@@ -18520,13 +18521,13 @@
         <v>1198</v>
       </c>
       <c r="O248" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="P248" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>32</v>
       </c>
@@ -18570,13 +18571,13 @@
         <v>1198</v>
       </c>
       <c r="O249" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="P249" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>763</v>
       </c>
@@ -18620,13 +18621,13 @@
         <v>1198</v>
       </c>
       <c r="O250" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="P250" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>768</v>
       </c>
@@ -18670,13 +18671,13 @@
         <v>1198</v>
       </c>
       <c r="O251" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="P251" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>41</v>
       </c>
@@ -18720,13 +18721,13 @@
         <v>1198</v>
       </c>
       <c r="O252" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="P252" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>763</v>
       </c>
@@ -18770,13 +18771,13 @@
         <v>1198</v>
       </c>
       <c r="O253" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="P253" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>768</v>
       </c>
@@ -18820,13 +18821,13 @@
         <v>1198</v>
       </c>
       <c r="O254" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="P254" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>77</v>
       </c>
@@ -18870,13 +18871,13 @@
         <v>1198</v>
       </c>
       <c r="O255" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="P255" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>763</v>
       </c>
@@ -18920,13 +18921,13 @@
         <v>1198</v>
       </c>
       <c r="O256" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="P256" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>45</v>
       </c>
@@ -18970,13 +18971,13 @@
         <v>1198</v>
       </c>
       <c r="O257" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="P257" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>41</v>
       </c>
@@ -19020,13 +19021,13 @@
         <v>1198</v>
       </c>
       <c r="O258" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="P258" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>768</v>
       </c>
@@ -19070,13 +19071,13 @@
         <v>1198</v>
       </c>
       <c r="O259" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="P259" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>35</v>
       </c>
@@ -19120,10 +19121,10 @@
         <v>1198</v>
       </c>
       <c r="O260" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="P260" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.25">
@@ -19140,7 +19141,7 @@
         <v>821</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>1233</v>
+        <v>1906</v>
       </c>
       <c r="F261" s="10" t="s">
         <v>82</v>
@@ -19164,19 +19165,19 @@
         <v>1190</v>
       </c>
       <c r="M261" t="s">
-        <v>1233</v>
+        <v>1906</v>
       </c>
       <c r="N261" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O261" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="P261" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>768</v>
       </c>
@@ -19190,7 +19191,7 @@
         <v>1065</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="F262" s="10" t="s">
         <v>1066</v>
@@ -19214,19 +19215,19 @@
         <v>1190</v>
       </c>
       <c r="M262" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="N262" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O262" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="P262" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>768</v>
       </c>
@@ -19240,7 +19241,7 @@
         <v>847</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F263" s="10" t="s">
         <v>848</v>
@@ -19264,19 +19265,19 @@
         <v>1190</v>
       </c>
       <c r="M263" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="N263" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O263" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="P263" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>768</v>
       </c>
@@ -19320,13 +19321,13 @@
         <v>1198</v>
       </c>
       <c r="O264" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="P264" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>763</v>
       </c>
@@ -19370,13 +19371,13 @@
         <v>1198</v>
       </c>
       <c r="O265" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="P265" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>763</v>
       </c>
@@ -19420,13 +19421,13 @@
         <v>1198</v>
       </c>
       <c r="O266" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="P266" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>41</v>
       </c>
@@ -19470,13 +19471,13 @@
         <v>1198</v>
       </c>
       <c r="O267" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="P267" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>768</v>
       </c>
@@ -19520,13 +19521,13 @@
         <v>1198</v>
       </c>
       <c r="O268" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="P268" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>77</v>
       </c>
@@ -19570,13 +19571,13 @@
         <v>1198</v>
       </c>
       <c r="O269" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="P269" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
         <v>763</v>
       </c>
@@ -19620,13 +19621,13 @@
         <v>1198</v>
       </c>
       <c r="O270" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="P270" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>768</v>
       </c>
@@ -19670,13 +19671,13 @@
         <v>1198</v>
       </c>
       <c r="O271" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="P271" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>763</v>
       </c>
@@ -19720,13 +19721,13 @@
         <v>1198</v>
       </c>
       <c r="O272" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="P272" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>17</v>
       </c>
@@ -19770,13 +19771,13 @@
         <v>1198</v>
       </c>
       <c r="O273" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="P273" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>768</v>
       </c>
@@ -19790,7 +19791,7 @@
         <v>972</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="F274" s="10" t="s">
         <v>71</v>
@@ -19814,19 +19815,19 @@
         <v>1190</v>
       </c>
       <c r="M274" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="N274" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O274" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="P274" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>45</v>
       </c>
@@ -19870,13 +19871,13 @@
         <v>1198</v>
       </c>
       <c r="O275" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="P275" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>768</v>
       </c>
@@ -19920,13 +19921,13 @@
         <v>1198</v>
       </c>
       <c r="O276" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="P276" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>768</v>
       </c>
@@ -19970,13 +19971,13 @@
         <v>1198</v>
       </c>
       <c r="O277" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="P277" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>763</v>
       </c>
@@ -19990,7 +19991,7 @@
         <v>822</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="F278" s="10" t="s">
         <v>170</v>
@@ -20014,19 +20015,19 @@
         <v>1190</v>
       </c>
       <c r="M278" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="N278" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O278" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="P278" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>32</v>
       </c>
@@ -20070,13 +20071,13 @@
         <v>1198</v>
       </c>
       <c r="O279" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="P279" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>768</v>
       </c>
@@ -20090,7 +20091,7 @@
         <v>845</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F280" s="10" t="s">
         <v>71</v>
@@ -20114,19 +20115,19 @@
         <v>1190</v>
       </c>
       <c r="M280" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="N280" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O280" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="P280" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
         <v>763</v>
       </c>
@@ -20170,13 +20171,13 @@
         <v>1198</v>
       </c>
       <c r="O281" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="P281" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
         <v>763</v>
       </c>
@@ -20190,7 +20191,7 @@
         <v>792</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F282" s="10" t="s">
         <v>817</v>
@@ -20214,19 +20215,19 @@
         <v>1190</v>
       </c>
       <c r="M282" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="N282" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O282" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="P282" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>32</v>
       </c>
@@ -20270,13 +20271,13 @@
         <v>1198</v>
       </c>
       <c r="O283" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="P283" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
         <v>763</v>
       </c>
@@ -20323,10 +20324,10 @@
         <v>1189</v>
       </c>
       <c r="P284" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>77</v>
       </c>
@@ -20370,13 +20371,13 @@
         <v>1198</v>
       </c>
       <c r="O285" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="P285" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
         <v>9</v>
       </c>
@@ -20420,13 +20421,13 @@
         <v>1198</v>
       </c>
       <c r="O286" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="P286" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>768</v>
       </c>
@@ -20470,13 +20471,13 @@
         <v>1198</v>
       </c>
       <c r="O287" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="P287" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>763</v>
       </c>
@@ -20520,13 +20521,13 @@
         <v>1198</v>
       </c>
       <c r="O288" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="P288" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>9</v>
       </c>
@@ -20570,13 +20571,13 @@
         <v>1198</v>
       </c>
       <c r="O289" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="P289" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
         <v>768</v>
       </c>
@@ -20620,13 +20621,13 @@
         <v>1198</v>
       </c>
       <c r="O290" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="P290" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>768</v>
       </c>
@@ -20640,7 +20641,7 @@
         <v>940</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="F291" s="10" t="s">
         <v>941</v>
@@ -20664,19 +20665,19 @@
         <v>1190</v>
       </c>
       <c r="M291" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="N291" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O291" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="P291" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>768</v>
       </c>
@@ -20690,7 +20691,7 @@
         <v>1058</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="F292" s="10" t="s">
         <v>1059</v>
@@ -20714,19 +20715,19 @@
         <v>1190</v>
       </c>
       <c r="M292" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="N292" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O292" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="P292" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
         <v>763</v>
       </c>
@@ -20770,13 +20771,13 @@
         <v>1198</v>
       </c>
       <c r="O293" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="P293" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>768</v>
       </c>
@@ -20820,13 +20821,13 @@
         <v>1198</v>
       </c>
       <c r="O294" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="P294" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>17</v>
       </c>
@@ -20870,13 +20871,13 @@
         <v>1198</v>
       </c>
       <c r="O295" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="P295" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
         <v>77</v>
       </c>
@@ -20920,13 +20921,13 @@
         <v>1198</v>
       </c>
       <c r="O296" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="P296" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>77</v>
       </c>
@@ -20970,13 +20971,13 @@
         <v>1198</v>
       </c>
       <c r="O297" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="P297" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
         <v>45</v>
       </c>
@@ -21020,13 +21021,13 @@
         <v>1198</v>
       </c>
       <c r="O298" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="P298" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
         <v>32</v>
       </c>
@@ -21070,13 +21071,13 @@
         <v>1198</v>
       </c>
       <c r="O299" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="P299" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
         <v>763</v>
       </c>
@@ -21120,13 +21121,13 @@
         <v>1198</v>
       </c>
       <c r="O300" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="P300" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>32</v>
       </c>
@@ -21170,13 +21171,13 @@
         <v>1198</v>
       </c>
       <c r="O301" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="P301" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
         <v>17</v>
       </c>
@@ -21220,13 +21221,13 @@
         <v>1198</v>
       </c>
       <c r="O302" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="P302" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
         <v>41</v>
       </c>
@@ -21270,13 +21271,13 @@
         <v>1198</v>
       </c>
       <c r="O303" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="P303" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
         <v>32</v>
       </c>
@@ -21320,13 +21321,13 @@
         <v>1198</v>
       </c>
       <c r="O304" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="P304" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>768</v>
       </c>
@@ -21370,13 +21371,13 @@
         <v>1198</v>
       </c>
       <c r="O305" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="P305" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
         <v>763</v>
       </c>
@@ -21390,7 +21391,7 @@
         <v>1019</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F306" s="11" t="s">
         <v>1020</v>
@@ -21414,19 +21415,19 @@
         <v>1190</v>
       </c>
       <c r="M306" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="N306" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O306" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="P306" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>768</v>
       </c>
@@ -21470,13 +21471,13 @@
         <v>1198</v>
       </c>
       <c r="O307" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="P307" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
         <v>41</v>
       </c>
@@ -21520,13 +21521,13 @@
         <v>1198</v>
       </c>
       <c r="O308" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="P308" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>768</v>
       </c>
@@ -21570,13 +21571,13 @@
         <v>1198</v>
       </c>
       <c r="O309" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="P309" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>763</v>
       </c>
@@ -21620,13 +21621,13 @@
         <v>1198</v>
       </c>
       <c r="O310" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="P310" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>41</v>
       </c>
@@ -21670,13 +21671,13 @@
         <v>1198</v>
       </c>
       <c r="O311" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="P311" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>41</v>
       </c>
@@ -21720,13 +21721,13 @@
         <v>1198</v>
       </c>
       <c r="O312" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="P312" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>768</v>
       </c>
@@ -21770,13 +21771,13 @@
         <v>1198</v>
       </c>
       <c r="O313" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="P313" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>763</v>
       </c>
@@ -21820,13 +21821,13 @@
         <v>1198</v>
       </c>
       <c r="O314" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="P314" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
         <v>77</v>
       </c>
@@ -21870,13 +21871,13 @@
         <v>1198</v>
       </c>
       <c r="O315" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="P315" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
         <v>32</v>
       </c>
@@ -21920,13 +21921,13 @@
         <v>1198</v>
       </c>
       <c r="O316" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="P316" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
         <v>41</v>
       </c>
@@ -21970,13 +21971,13 @@
         <v>1198</v>
       </c>
       <c r="O317" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="P317" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>763</v>
       </c>
@@ -22020,13 +22021,13 @@
         <v>1198</v>
       </c>
       <c r="O318" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="P318" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>768</v>
       </c>
@@ -22040,7 +22041,7 @@
         <v>837</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F319" s="10" t="s">
         <v>838</v>
@@ -22064,7 +22065,7 @@
         <v>1190</v>
       </c>
       <c r="M319" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="N319" s="9" t="s">
         <v>1200</v>
@@ -22073,10 +22074,10 @@
         <v>1196</v>
       </c>
       <c r="P319" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>768</v>
       </c>
@@ -22090,7 +22091,7 @@
         <v>1168</v>
       </c>
       <c r="E320" s="10" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="F320" s="10" t="s">
         <v>1169</v>
@@ -22114,19 +22115,19 @@
         <v>1190</v>
       </c>
       <c r="M320" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="N320" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="O320" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="P320" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>9</v>
       </c>
@@ -22170,13 +22171,13 @@
         <v>1198</v>
       </c>
       <c r="O321" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="P321" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>32</v>
       </c>
@@ -22220,13 +22221,13 @@
         <v>1198</v>
       </c>
       <c r="O322" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="P322" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
         <v>768</v>
       </c>
@@ -22270,13 +22271,13 @@
         <v>1198</v>
       </c>
       <c r="O323" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="P323" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
         <v>32</v>
       </c>
@@ -22320,13 +22321,13 @@
         <v>1198</v>
       </c>
       <c r="O324" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="P324" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>768</v>
       </c>
@@ -22370,13 +22371,13 @@
         <v>1198</v>
       </c>
       <c r="O325" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="P325" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
         <v>32</v>
       </c>
@@ -22420,13 +22421,13 @@
         <v>1198</v>
       </c>
       <c r="O326" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="P326" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>17</v>
       </c>
@@ -22471,10 +22472,10 @@
         <v>1196</v>
       </c>
       <c r="P327" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>32</v>
       </c>
@@ -22519,10 +22520,10 @@
         <v>1196</v>
       </c>
       <c r="P328" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>32</v>
       </c>
@@ -22567,10 +22568,10 @@
         <v>1196</v>
       </c>
       <c r="P329" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>32</v>
       </c>
@@ -22615,10 +22616,10 @@
         <v>1196</v>
       </c>
       <c r="P330" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>41</v>
       </c>
@@ -22663,10 +22664,10 @@
         <v>1196</v>
       </c>
       <c r="P331" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
         <v>45</v>
       </c>
@@ -22711,10 +22712,10 @@
         <v>1196</v>
       </c>
       <c r="P332" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
         <v>45</v>
       </c>
@@ -22759,10 +22760,10 @@
         <v>1196</v>
       </c>
       <c r="P333" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
         <v>45</v>
       </c>
@@ -22807,10 +22808,10 @@
         <v>1196</v>
       </c>
       <c r="P334" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>77</v>
       </c>
@@ -22855,10 +22856,10 @@
         <v>1196</v>
       </c>
       <c r="P335" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
         <v>77</v>
       </c>
@@ -22903,10 +22904,10 @@
         <v>1196</v>
       </c>
       <c r="P336" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>9</v>
       </c>
@@ -22951,10 +22952,10 @@
         <v>1196</v>
       </c>
       <c r="P337" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
         <v>17</v>
       </c>
@@ -22999,10 +23000,10 @@
         <v>1196</v>
       </c>
       <c r="P338" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>32</v>
       </c>
@@ -23047,10 +23048,10 @@
         <v>1196</v>
       </c>
       <c r="P339" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
         <v>32</v>
       </c>
@@ -23095,10 +23096,10 @@
         <v>1196</v>
       </c>
       <c r="P340" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
         <v>32</v>
       </c>
@@ -23143,10 +23144,10 @@
         <v>1196</v>
       </c>
       <c r="P341" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
         <v>32</v>
       </c>
@@ -23191,10 +23192,10 @@
         <v>1196</v>
       </c>
       <c r="P342" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
         <v>32</v>
       </c>
@@ -23239,10 +23240,10 @@
         <v>1196</v>
       </c>
       <c r="P343" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>32</v>
       </c>
@@ -23287,10 +23288,10 @@
         <v>1196</v>
       </c>
       <c r="P344" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>32</v>
       </c>
@@ -23335,10 +23336,10 @@
         <v>1196</v>
       </c>
       <c r="P345" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>32</v>
       </c>
@@ -23383,10 +23384,10 @@
         <v>1196</v>
       </c>
       <c r="P346" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>41</v>
       </c>
@@ -23431,10 +23432,10 @@
         <v>1196</v>
       </c>
       <c r="P347" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
         <v>41</v>
       </c>
@@ -23479,10 +23480,10 @@
         <v>1196</v>
       </c>
       <c r="P348" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
         <v>41</v>
       </c>
@@ -23527,10 +23528,10 @@
         <v>1196</v>
       </c>
       <c r="P349" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>45</v>
       </c>
@@ -23575,10 +23576,10 @@
         <v>1196</v>
       </c>
       <c r="P350" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>45</v>
       </c>
@@ -23623,10 +23624,10 @@
         <v>1196</v>
       </c>
       <c r="P351" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
         <v>9</v>
       </c>
@@ -23671,10 +23672,10 @@
         <v>1196</v>
       </c>
       <c r="P352" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>9</v>
       </c>
@@ -23719,10 +23720,10 @@
         <v>1196</v>
       </c>
       <c r="P353" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>17</v>
       </c>
@@ -23767,10 +23768,10 @@
         <v>1196</v>
       </c>
       <c r="P354" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>17</v>
       </c>
@@ -23815,10 +23816,10 @@
         <v>1196</v>
       </c>
       <c r="P355" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
         <v>32</v>
       </c>
@@ -23863,10 +23864,10 @@
         <v>1196</v>
       </c>
       <c r="P356" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>32</v>
       </c>
@@ -23911,10 +23912,10 @@
         <v>1196</v>
       </c>
       <c r="P357" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
         <v>32</v>
       </c>
@@ -23959,10 +23960,10 @@
         <v>1196</v>
       </c>
       <c r="P358" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
         <v>32</v>
       </c>
@@ -24007,10 +24008,10 @@
         <v>1196</v>
       </c>
       <c r="P359" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
         <v>32</v>
       </c>
@@ -24055,10 +24056,10 @@
         <v>1196</v>
       </c>
       <c r="P360" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>32</v>
       </c>
@@ -24103,10 +24104,10 @@
         <v>1196</v>
       </c>
       <c r="P361" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
         <v>32</v>
       </c>
@@ -24151,10 +24152,10 @@
         <v>1196</v>
       </c>
       <c r="P362" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
         <v>32</v>
       </c>
@@ -24199,10 +24200,10 @@
         <v>1196</v>
       </c>
       <c r="P363" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
         <v>32</v>
       </c>
@@ -24247,10 +24248,10 @@
         <v>1196</v>
       </c>
       <c r="P364" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
         <v>32</v>
       </c>
@@ -24295,10 +24296,10 @@
         <v>1196</v>
       </c>
       <c r="P365" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
         <v>32</v>
       </c>
@@ -24343,10 +24344,10 @@
         <v>1196</v>
       </c>
       <c r="P366" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
         <v>32</v>
       </c>
@@ -24391,10 +24392,10 @@
         <v>1196</v>
       </c>
       <c r="P367" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
         <v>32</v>
       </c>
@@ -24439,10 +24440,10 @@
         <v>1196</v>
       </c>
       <c r="P368" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>32</v>
       </c>
@@ -24487,10 +24488,10 @@
         <v>1196</v>
       </c>
       <c r="P369" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>32</v>
       </c>
@@ -24535,10 +24536,10 @@
         <v>1196</v>
       </c>
       <c r="P370" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
         <v>32</v>
       </c>
@@ -24583,10 +24584,10 @@
         <v>1196</v>
       </c>
       <c r="P371" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
         <v>32</v>
       </c>
@@ -24631,10 +24632,10 @@
         <v>1196</v>
       </c>
       <c r="P372" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
         <v>32</v>
       </c>
@@ -24679,10 +24680,10 @@
         <v>1196</v>
       </c>
       <c r="P373" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
         <v>41</v>
       </c>
@@ -24727,10 +24728,10 @@
         <v>1196</v>
       </c>
       <c r="P374" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
         <v>41</v>
       </c>
@@ -24775,10 +24776,10 @@
         <v>1196</v>
       </c>
       <c r="P375" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
         <v>41</v>
       </c>
@@ -24823,10 +24824,10 @@
         <v>1196</v>
       </c>
       <c r="P376" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
         <v>41</v>
       </c>
@@ -24871,10 +24872,10 @@
         <v>1196</v>
       </c>
       <c r="P377" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
         <v>41</v>
       </c>
@@ -24919,10 +24920,10 @@
         <v>1196</v>
       </c>
       <c r="P378" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
         <v>41</v>
       </c>
@@ -24967,10 +24968,10 @@
         <v>1196</v>
       </c>
       <c r="P379" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>45</v>
       </c>
@@ -25015,10 +25016,10 @@
         <v>1196</v>
       </c>
       <c r="P380" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
         <v>45</v>
       </c>
@@ -25063,10 +25064,10 @@
         <v>1196</v>
       </c>
       <c r="P381" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
         <v>45</v>
       </c>
@@ -25111,10 +25112,10 @@
         <v>1196</v>
       </c>
       <c r="P382" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
         <v>45</v>
       </c>
@@ -25159,10 +25160,10 @@
         <v>1196</v>
       </c>
       <c r="P383" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
         <v>17</v>
       </c>
@@ -25207,10 +25208,10 @@
         <v>1196</v>
       </c>
       <c r="P384" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
         <v>17</v>
       </c>
@@ -25255,10 +25256,10 @@
         <v>1196</v>
       </c>
       <c r="P385" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
         <v>17</v>
       </c>
@@ -25303,10 +25304,10 @@
         <v>1196</v>
       </c>
       <c r="P386" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
         <v>32</v>
       </c>
@@ -25351,10 +25352,10 @@
         <v>1196</v>
       </c>
       <c r="P387" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
         <v>41</v>
       </c>
@@ -25399,10 +25400,10 @@
         <v>1196</v>
       </c>
       <c r="P388" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
         <v>32</v>
       </c>
@@ -25447,10 +25448,10 @@
         <v>1196</v>
       </c>
       <c r="P389" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
         <v>32</v>
       </c>
@@ -25495,10 +25496,10 @@
         <v>1196</v>
       </c>
       <c r="P390" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
         <v>32</v>
       </c>
@@ -25543,10 +25544,10 @@
         <v>1196</v>
       </c>
       <c r="P391" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
         <v>41</v>
       </c>
@@ -25591,10 +25592,10 @@
         <v>1196</v>
       </c>
       <c r="P392" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
         <v>32</v>
       </c>
@@ -25639,10 +25640,10 @@
         <v>1196</v>
       </c>
       <c r="P393" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
         <v>41</v>
       </c>
@@ -25687,10 +25688,10 @@
         <v>1196</v>
       </c>
       <c r="P394" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
         <v>32</v>
       </c>
@@ -25735,10 +25736,10 @@
         <v>1196</v>
       </c>
       <c r="P395" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
         <v>768</v>
       </c>
@@ -25783,10 +25784,10 @@
         <v>1196</v>
       </c>
       <c r="P396" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
         <v>768</v>
       </c>
@@ -25831,10 +25832,10 @@
         <v>1196</v>
       </c>
       <c r="P397" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
         <v>768</v>
       </c>
@@ -25879,10 +25880,10 @@
         <v>1196</v>
       </c>
       <c r="P398" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
         <v>768</v>
       </c>
@@ -25927,10 +25928,10 @@
         <v>1196</v>
       </c>
       <c r="P399" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
         <v>768</v>
       </c>
@@ -25975,10 +25976,10 @@
         <v>1196</v>
       </c>
       <c r="P400" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
         <v>768</v>
       </c>
@@ -26023,10 +26024,10 @@
         <v>1196</v>
       </c>
       <c r="P401" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
         <v>763</v>
       </c>
@@ -26071,10 +26072,10 @@
         <v>1196</v>
       </c>
       <c r="P402" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
         <v>768</v>
       </c>
@@ -26119,10 +26120,10 @@
         <v>1196</v>
       </c>
       <c r="P403" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
         <v>768</v>
       </c>
@@ -26167,10 +26168,10 @@
         <v>1196</v>
       </c>
       <c r="P404" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
         <v>768</v>
       </c>
@@ -26215,10 +26216,10 @@
         <v>1196</v>
       </c>
       <c r="P405" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
         <v>768</v>
       </c>
@@ -26263,10 +26264,10 @@
         <v>1196</v>
       </c>
       <c r="P406" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
         <v>763</v>
       </c>
@@ -26311,10 +26312,10 @@
         <v>1196</v>
       </c>
       <c r="P407" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
         <v>763</v>
       </c>
@@ -26359,10 +26360,10 @@
         <v>1196</v>
       </c>
       <c r="P408" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
         <v>768</v>
       </c>
@@ -26407,10 +26408,10 @@
         <v>1196</v>
       </c>
       <c r="P409" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
         <v>763</v>
       </c>
@@ -26455,10 +26456,10 @@
         <v>1196</v>
       </c>
       <c r="P410" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
         <v>768</v>
       </c>
@@ -26503,10 +26504,10 @@
         <v>1196</v>
       </c>
       <c r="P411" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
         <v>768</v>
       </c>
@@ -26551,10 +26552,10 @@
         <v>1196</v>
       </c>
       <c r="P412" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
         <v>763</v>
       </c>
@@ -26599,10 +26600,10 @@
         <v>1196</v>
       </c>
       <c r="P413" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="11" t="s">
         <v>763</v>
       </c>
@@ -26647,10 +26648,10 @@
         <v>1196</v>
       </c>
       <c r="P414" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
         <v>768</v>
       </c>
@@ -26695,10 +26696,10 @@
         <v>1196</v>
       </c>
       <c r="P415" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
         <v>763</v>
       </c>
@@ -26743,10 +26744,10 @@
         <v>1196</v>
       </c>
       <c r="P416" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
         <v>763</v>
       </c>
@@ -26791,10 +26792,10 @@
         <v>1196</v>
       </c>
       <c r="P417" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
         <v>763</v>
       </c>
@@ -26839,10 +26840,10 @@
         <v>1196</v>
       </c>
       <c r="P418" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
         <v>763</v>
       </c>
@@ -26887,10 +26888,10 @@
         <v>1196</v>
       </c>
       <c r="P419" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
         <v>763</v>
       </c>
@@ -26935,10 +26936,10 @@
         <v>1196</v>
       </c>
       <c r="P420" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="11" t="s">
         <v>763</v>
       </c>
@@ -26980,13 +26981,13 @@
         <v>1199</v>
       </c>
       <c r="O421" s="9" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="P421" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
         <v>45</v>
       </c>
@@ -27028,13 +27029,13 @@
         <v>1199</v>
       </c>
       <c r="O422" s="9" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="P422" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
         <v>45</v>
       </c>
@@ -27076,13 +27077,13 @@
         <v>1199</v>
       </c>
       <c r="O423" s="9" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="P423" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="11" t="s">
         <v>763</v>
       </c>
@@ -27124,13 +27125,13 @@
         <v>1199</v>
       </c>
       <c r="O424" s="9" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="P424" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="11" t="s">
         <v>763</v>
       </c>
@@ -27172,13 +27173,13 @@
         <v>1199</v>
       </c>
       <c r="O425" s="9" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="P425" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>32</v>
       </c>
@@ -27220,13 +27221,13 @@
         <v>1199</v>
       </c>
       <c r="O426" s="9" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="P426" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
         <v>41</v>
       </c>
@@ -27268,13 +27269,13 @@
         <v>1199</v>
       </c>
       <c r="O427" s="9" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="P427" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="11" t="s">
         <v>768</v>
       </c>
@@ -27316,13 +27317,13 @@
         <v>1199</v>
       </c>
       <c r="O428" s="9" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="P428" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="11" t="s">
         <v>768</v>
       </c>
@@ -27364,13 +27365,13 @@
         <v>1199</v>
       </c>
       <c r="O429" s="9" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="P429" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
         <v>9</v>
       </c>
@@ -27412,13 +27413,13 @@
         <v>1199</v>
       </c>
       <c r="O430" s="9" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="P430" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="11" t="s">
         <v>768</v>
       </c>
@@ -27460,13 +27461,13 @@
         <v>1199</v>
       </c>
       <c r="O431" s="9" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="P431" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
         <v>32</v>
       </c>
@@ -27508,13 +27509,13 @@
         <v>1199</v>
       </c>
       <c r="O432" s="9" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="P432" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="11" t="s">
         <v>763</v>
       </c>
@@ -27556,13 +27557,13 @@
         <v>1199</v>
       </c>
       <c r="O433" s="9" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="P433" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="11" t="s">
         <v>763</v>
       </c>
@@ -27604,13 +27605,13 @@
         <v>1199</v>
       </c>
       <c r="O434" s="9" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="P434" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>41</v>
       </c>
@@ -27652,13 +27653,13 @@
         <v>1199</v>
       </c>
       <c r="O435" s="9" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="P435" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
         <v>32</v>
       </c>
@@ -27700,13 +27701,13 @@
         <v>1199</v>
       </c>
       <c r="O436" s="9" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="P436" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="11" t="s">
         <v>768</v>
       </c>
@@ -27748,13 +27749,13 @@
         <v>1199</v>
       </c>
       <c r="O437" s="9" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="P437" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
         <v>17</v>
       </c>
@@ -27796,13 +27797,13 @@
         <v>1199</v>
       </c>
       <c r="O438" s="9" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="P438" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="11" t="s">
         <v>768</v>
       </c>
@@ -27844,13 +27845,13 @@
         <v>1199</v>
       </c>
       <c r="O439" s="9" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="P439" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
         <v>41</v>
       </c>
@@ -27892,13 +27893,13 @@
         <v>1199</v>
       </c>
       <c r="O440" s="9" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="P440" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="11" t="s">
         <v>763</v>
       </c>
@@ -27940,13 +27941,13 @@
         <v>1199</v>
       </c>
       <c r="O441" s="9" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="P441" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
         <v>41</v>
       </c>
@@ -27988,13 +27989,13 @@
         <v>1199</v>
       </c>
       <c r="O442" s="9" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="P442" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="11" t="s">
         <v>768</v>
       </c>
@@ -28036,13 +28037,13 @@
         <v>1199</v>
       </c>
       <c r="O443" s="9" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="P443" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="11" t="s">
         <v>763</v>
       </c>
@@ -28084,13 +28085,13 @@
         <v>1199</v>
       </c>
       <c r="O444" s="9" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="P444" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="11" t="s">
         <v>768</v>
       </c>
@@ -28132,13 +28133,13 @@
         <v>1199</v>
       </c>
       <c r="O445" s="9" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="P445" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="11" t="s">
         <v>768</v>
       </c>
@@ -28180,13 +28181,13 @@
         <v>1199</v>
       </c>
       <c r="O446" s="9" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="P446" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
         <v>41</v>
       </c>
@@ -28228,13 +28229,13 @@
         <v>1199</v>
       </c>
       <c r="O447" s="9" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="P447" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
         <v>41</v>
       </c>
@@ -28276,13 +28277,13 @@
         <v>1199</v>
       </c>
       <c r="O448" s="9" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="P448" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
         <v>32</v>
       </c>
@@ -28324,13 +28325,13 @@
         <v>1199</v>
       </c>
       <c r="O449" s="9" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="P449" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
         <v>32</v>
       </c>
@@ -28372,13 +28373,13 @@
         <v>1199</v>
       </c>
       <c r="O450" s="9" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="P450" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
         <v>41</v>
       </c>
@@ -28420,13 +28421,13 @@
         <v>1199</v>
       </c>
       <c r="O451" s="9" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="P451" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
         <v>9</v>
       </c>
@@ -28468,13 +28469,13 @@
         <v>1199</v>
       </c>
       <c r="O452" s="9" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="P452" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="11" t="s">
         <v>763</v>
       </c>
@@ -28516,13 +28517,13 @@
         <v>1199</v>
       </c>
       <c r="O453" s="9" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="P453" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
         <v>17</v>
       </c>
@@ -28564,13 +28565,13 @@
         <v>1199</v>
       </c>
       <c r="O454" s="9" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="P454" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="11" t="s">
         <v>768</v>
       </c>
@@ -28612,13 +28613,13 @@
         <v>1199</v>
       </c>
       <c r="O455" s="9" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="P455" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="11" t="s">
         <v>763</v>
       </c>
@@ -28660,13 +28661,13 @@
         <v>1199</v>
       </c>
       <c r="O456" s="9" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="P456" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="11" t="s">
         <v>763</v>
       </c>
@@ -28708,13 +28709,13 @@
         <v>1199</v>
       </c>
       <c r="O457" s="9" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="P457" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
         <v>32</v>
       </c>
@@ -28756,13 +28757,13 @@
         <v>1199</v>
       </c>
       <c r="O458" s="9" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="P458" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="11" t="s">
         <v>763</v>
       </c>
@@ -28804,13 +28805,13 @@
         <v>1199</v>
       </c>
       <c r="O459" s="9" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="P459" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
         <v>17</v>
       </c>
@@ -28852,13 +28853,13 @@
         <v>1199</v>
       </c>
       <c r="O460" s="9" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="P460" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
         <v>32</v>
       </c>
@@ -28900,13 +28901,13 @@
         <v>1199</v>
       </c>
       <c r="O461" s="9" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="P461" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
         <v>32</v>
       </c>
@@ -28948,13 +28949,13 @@
         <v>1199</v>
       </c>
       <c r="O462" s="9" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="P462" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="11" t="s">
         <v>763</v>
       </c>
@@ -28996,13 +28997,13 @@
         <v>1199</v>
       </c>
       <c r="O463" s="9" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="P463" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="11" t="s">
         <v>768</v>
       </c>
@@ -29044,13 +29045,13 @@
         <v>1199</v>
       </c>
       <c r="O464" s="9" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="P464" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="11" t="s">
         <v>763</v>
       </c>
@@ -29092,13 +29093,13 @@
         <v>1199</v>
       </c>
       <c r="O465" s="9" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="P465" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="11" t="s">
         <v>768</v>
       </c>
@@ -29140,13 +29141,13 @@
         <v>1199</v>
       </c>
       <c r="O466" s="9" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="P466" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
         <v>41</v>
       </c>
@@ -29188,13 +29189,13 @@
         <v>1199</v>
       </c>
       <c r="O467" s="9" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="P467" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="11" t="s">
         <v>768</v>
       </c>
@@ -29236,13 +29237,13 @@
         <v>1199</v>
       </c>
       <c r="O468" s="9" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="P468" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="11" t="s">
         <v>768</v>
       </c>
@@ -29284,13 +29285,13 @@
         <v>1199</v>
       </c>
       <c r="O469" s="9" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="P469" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="11" t="s">
         <v>763</v>
       </c>
@@ -29332,13 +29333,13 @@
         <v>1199</v>
       </c>
       <c r="O470" s="9" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="P470" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="11" t="s">
         <v>768</v>
       </c>
@@ -29380,13 +29381,13 @@
         <v>1199</v>
       </c>
       <c r="O471" s="9" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="P471" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
         <v>32</v>
       </c>
@@ -29428,13 +29429,13 @@
         <v>1199</v>
       </c>
       <c r="O472" s="9" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="P472" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="9" t="s">
         <v>77</v>
       </c>
@@ -29476,13 +29477,13 @@
         <v>1199</v>
       </c>
       <c r="O473" s="9" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="P473" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="11" t="s">
         <v>768</v>
       </c>
@@ -29524,13 +29525,13 @@
         <v>1199</v>
       </c>
       <c r="O474" s="9" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="P474" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
         <v>45</v>
       </c>
@@ -29572,13 +29573,13 @@
         <v>1199</v>
       </c>
       <c r="O475" s="9" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="P475" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
         <v>32</v>
       </c>
@@ -29620,13 +29621,13 @@
         <v>1199</v>
       </c>
       <c r="O476" s="9" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="P476" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="11" t="s">
         <v>768</v>
       </c>
@@ -29668,13 +29669,13 @@
         <v>1199</v>
       </c>
       <c r="O477" s="9" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="P477" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
         <v>9</v>
       </c>
@@ -29716,13 +29717,13 @@
         <v>1199</v>
       </c>
       <c r="O478" s="9" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="P478" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="11" t="s">
         <v>763</v>
       </c>
@@ -29764,13 +29765,13 @@
         <v>1199</v>
       </c>
       <c r="O479" s="9" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="P479" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
         <v>9</v>
       </c>
@@ -29812,13 +29813,13 @@
         <v>1199</v>
       </c>
       <c r="O480" s="9" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="P480" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>32</v>
       </c>
@@ -29860,13 +29861,13 @@
         <v>1199</v>
       </c>
       <c r="O481" s="9" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="P481" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="11" t="s">
         <v>763</v>
       </c>
@@ -29908,13 +29909,13 @@
         <v>1199</v>
       </c>
       <c r="O482" s="9" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="P482" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
         <v>32</v>
       </c>
@@ -29956,13 +29957,13 @@
         <v>1199</v>
       </c>
       <c r="O483" s="9" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="P483" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
         <v>77</v>
       </c>
@@ -30004,13 +30005,13 @@
         <v>1199</v>
       </c>
       <c r="O484" s="9" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="P484" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="11" t="s">
         <v>768</v>
       </c>
@@ -30052,13 +30053,13 @@
         <v>1199</v>
       </c>
       <c r="O485" s="9" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="P485" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="11" t="s">
         <v>763</v>
       </c>
@@ -30100,13 +30101,13 @@
         <v>1199</v>
       </c>
       <c r="O486" s="9" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="P486" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
         <v>32</v>
       </c>
@@ -30148,13 +30149,13 @@
         <v>1199</v>
       </c>
       <c r="O487" s="9" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="P487" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="11" t="s">
         <v>768</v>
       </c>
@@ -30196,13 +30197,13 @@
         <v>1199</v>
       </c>
       <c r="O488" s="9" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="P488" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
         <v>9</v>
       </c>
@@ -30244,13 +30245,13 @@
         <v>1199</v>
       </c>
       <c r="O489" s="9" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="P489" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
         <v>41</v>
       </c>
@@ -30292,14 +30293,22 @@
         <v>1199</v>
       </c>
       <c r="O490" s="9" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="P490" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P490" xr:uid="{9C37FD76-4C09-409F-B9A8-72882E138BC1}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="A arca de Noé. Obs.: título original disponível no acervo plus."/>
+        <filter val="A teia de Charlotte Obs.: livro disponível sob selo da editora HarperKids"/>
+        <filter val="Mario Quintana Obs.: antologia similar disponível no acervo plus."/>
+        <filter val="Passarinhos do Brasil- poemas que voam Obs.: título original disponível no acervo plus."/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P490">
       <sortCondition ref="E1:E490"/>
     </sortState>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\gallery_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB24103-3F4E-4033-9650-DE43DA5768BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345B011-0472-458C-9ED8-6D4A53102BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filtro 2" guid="{5DE1752A-9F1B-4496-A575-26FC461CE632}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filtro 1" guid="{CBCEDD35-89EB-4529-AFD1-E57F7F6E8C7B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 2" guid="{5DE1752A-9F1B-4496-A575-26FC461CE632}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6452" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6452" uniqueCount="1908">
   <si>
     <t>VOLUME/PROJETO</t>
   </si>
@@ -5767,6 +5767,9 @@
   </si>
   <si>
     <t>Passarinhos do Brasil- poemas que voam.</t>
+  </si>
+  <si>
+    <t>A teia de Charlotte - Editora HarperKids.</t>
   </si>
 </sst>
 </file>
@@ -6103,8 +6106,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M501" sqref="M501"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E501" sqref="E501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6627,7 +6630,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>768</v>
       </c>
@@ -6677,7 +6680,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>763</v>
       </c>
@@ -6727,7 +6730,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>763</v>
       </c>
@@ -6777,7 +6780,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>763</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>768</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>768</v>
       </c>
@@ -7691,7 +7694,7 @@
         <v>815</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>816</v>
@@ -14777,7 +14780,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>768</v>
       </c>
@@ -19127,7 +19130,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>763</v>
       </c>
@@ -30303,15 +30306,9 @@
   <autoFilter ref="A1:P490" xr:uid="{9C37FD76-4C09-409F-B9A8-72882E138BC1}">
     <filterColumn colId="4">
       <filters>
-        <filter val="A arca de Noé. Obs.: título original disponível no acervo plus."/>
-        <filter val="A teia de Charlotte Obs.: livro disponível sob selo da editora HarperKids"/>
-        <filter val="Mario Quintana Obs.: antologia similar disponível no acervo plus."/>
-        <filter val="Passarinhos do Brasil- poemas que voam Obs.: título original disponível no acervo plus."/>
+        <filter val="A teia de Charlotte."/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P490">
-      <sortCondition ref="E1:E490"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\gallery_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E50BF3D-CFD3-4CB2-99F4-7D6CB0C89DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27047EE0-285C-4D28-97D5-4FDF079F1441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\gallery_tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.rodrigues\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27047EE0-285C-4D28-97D5-4FDF079F1441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274BBBF1-DB0B-48C4-AC2A-FB44FF4CEAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filtro 1" guid="{CBCEDD35-89EB-4529-AFD1-E57F7F6E8C7B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filtro 2" guid="{5DE1752A-9F1B-4496-A575-26FC461CE632}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 1" guid="{CBCEDD35-89EB-4529-AFD1-E57F7F6E8C7B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6370" uniqueCount="1910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6366" uniqueCount="1910">
   <si>
     <t>VOLUME/PROJETO</t>
   </si>
@@ -6109,11 +6109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C37FD76-4C09-409F-B9A8-72882E138BC1}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P484"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E501" sqref="E501"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6186,7 +6185,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>762</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>767</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>762</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
@@ -6386,7 +6385,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>762</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -6471,11 +6470,9 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>1208</v>
-      </c>
+        <v>1193</v>
+      </c>
+      <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
         <v>1198</v>
       </c>
@@ -6486,7 +6483,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>767</v>
       </c>
@@ -6536,7 +6533,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>77</v>
       </c>
@@ -6586,7 +6583,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>762</v>
       </c>
@@ -6636,7 +6633,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>1906</v>
       </c>
@@ -6686,7 +6683,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -6736,7 +6733,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
@@ -6786,7 +6783,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>767</v>
       </c>
@@ -6836,7 +6833,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
@@ -6886,7 +6883,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>767</v>
       </c>
@@ -6936,7 +6933,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -6986,7 +6983,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
@@ -7036,7 +7033,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>767</v>
       </c>
@@ -7086,7 +7083,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
@@ -7136,7 +7133,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>41</v>
       </c>
@@ -7186,7 +7183,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>762</v>
       </c>
@@ -7236,7 +7233,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>77</v>
       </c>
@@ -7286,7 +7283,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>762</v>
       </c>
@@ -7336,7 +7333,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>767</v>
       </c>
@@ -7386,7 +7383,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>41</v>
       </c>
@@ -7436,7 +7433,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>767</v>
       </c>
@@ -7486,7 +7483,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
@@ -7536,7 +7533,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>767</v>
       </c>
@@ -7586,7 +7583,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>77</v>
       </c>
@@ -7636,7 +7633,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
@@ -7686,7 +7683,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>762</v>
       </c>
@@ -7736,7 +7733,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>767</v>
       </c>
@@ -7786,7 +7783,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>17</v>
       </c>
@@ -7836,7 +7833,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>767</v>
       </c>
@@ -7886,7 +7883,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
@@ -7936,7 +7933,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>767</v>
       </c>
@@ -7986,7 +7983,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>762</v>
       </c>
@@ -8036,7 +8033,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>767</v>
       </c>
@@ -8086,7 +8083,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>767</v>
       </c>
@@ -8136,7 +8133,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>9</v>
       </c>
@@ -8186,7 +8183,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>9</v>
       </c>
@@ -8236,7 +8233,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>767</v>
       </c>
@@ -8286,7 +8283,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>762</v>
       </c>
@@ -8336,7 +8333,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>9</v>
       </c>
@@ -8386,7 +8383,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>17</v>
       </c>
@@ -8436,7 +8433,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>762</v>
       </c>
@@ -8486,7 +8483,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>767</v>
       </c>
@@ -8521,10 +8518,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M48" t="s">
-        <v>1251</v>
+        <v>1193</v>
       </c>
       <c r="N48" s="9" t="s">
         <v>1198</v>
@@ -8536,7 +8530,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>32</v>
       </c>
@@ -8586,7 +8580,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>32</v>
       </c>
@@ -8636,7 +8630,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>41</v>
       </c>
@@ -8686,7 +8680,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>762</v>
       </c>
@@ -8736,7 +8730,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>767</v>
       </c>
@@ -8786,7 +8780,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>767</v>
       </c>
@@ -8836,7 +8830,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>762</v>
       </c>
@@ -8886,7 +8880,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>41</v>
       </c>
@@ -8936,7 +8930,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>767</v>
       </c>
@@ -8986,7 +8980,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>767</v>
       </c>
@@ -9036,7 +9030,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>762</v>
       </c>
@@ -9086,7 +9080,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>77</v>
       </c>
@@ -9136,7 +9130,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>762</v>
       </c>
@@ -9186,7 +9180,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>762</v>
       </c>
@@ -9236,7 +9230,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>767</v>
       </c>
@@ -9286,7 +9280,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>767</v>
       </c>
@@ -9336,7 +9330,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>762</v>
       </c>
@@ -9386,7 +9380,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>17</v>
       </c>
@@ -9436,7 +9430,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>17</v>
       </c>
@@ -9486,7 +9480,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>9</v>
       </c>
@@ -9536,7 +9530,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>767</v>
       </c>
@@ -9586,7 +9580,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>45</v>
       </c>
@@ -9636,7 +9630,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>767</v>
       </c>
@@ -9686,7 +9680,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>32</v>
       </c>
@@ -9736,7 +9730,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>762</v>
       </c>
@@ -9786,7 +9780,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>767</v>
       </c>
@@ -9836,7 +9830,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>767</v>
       </c>
@@ -9886,7 +9880,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>77</v>
       </c>
@@ -9936,7 +9930,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>41</v>
       </c>
@@ -9986,7 +9980,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>41</v>
       </c>
@@ -10036,7 +10030,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>32</v>
       </c>
@@ -10086,7 +10080,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>767</v>
       </c>
@@ -10136,7 +10130,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>767</v>
       </c>
@@ -10186,7 +10180,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>762</v>
       </c>
@@ -10236,7 +10230,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>32</v>
       </c>
@@ -10286,7 +10280,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>41</v>
       </c>
@@ -10336,7 +10330,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>41</v>
       </c>
@@ -10386,7 +10380,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>77</v>
       </c>
@@ -10436,7 +10430,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>41</v>
       </c>
@@ -10486,7 +10480,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>41</v>
       </c>
@@ -10536,7 +10530,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>41</v>
       </c>
@@ -10586,7 +10580,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>762</v>
       </c>
@@ -10636,7 +10630,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>762</v>
       </c>
@@ -10686,7 +10680,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>767</v>
       </c>
@@ -10736,7 +10730,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>762</v>
       </c>
@@ -10786,7 +10780,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>77</v>
       </c>
@@ -10836,7 +10830,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>77</v>
       </c>
@@ -10886,7 +10880,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>41</v>
       </c>
@@ -10936,7 +10930,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>41</v>
       </c>
@@ -10986,7 +10980,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>32</v>
       </c>
@@ -11036,7 +11030,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>17</v>
       </c>
@@ -11086,7 +11080,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>767</v>
       </c>
@@ -11136,7 +11130,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>41</v>
       </c>
@@ -11186,7 +11180,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>41</v>
       </c>
@@ -11236,7 +11230,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>41</v>
       </c>
@@ -11286,7 +11280,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>32</v>
       </c>
@@ -11336,7 +11330,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>767</v>
       </c>
@@ -11386,7 +11380,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>767</v>
       </c>
@@ -11436,7 +11430,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>762</v>
       </c>
@@ -11486,7 +11480,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>762</v>
       </c>
@@ -11536,7 +11530,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>41</v>
       </c>
@@ -11586,7 +11580,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>41</v>
       </c>
@@ -11636,7 +11630,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>767</v>
       </c>
@@ -11686,7 +11680,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>32</v>
       </c>
@@ -11736,7 +11730,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>45</v>
       </c>
@@ -11786,7 +11780,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>45</v>
       </c>
@@ -11836,7 +11830,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>45</v>
       </c>
@@ -11886,7 +11880,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>41</v>
       </c>
@@ -11936,7 +11930,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>767</v>
       </c>
@@ -11986,7 +11980,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>762</v>
       </c>
@@ -12036,7 +12030,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>41</v>
       </c>
@@ -12086,7 +12080,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>41</v>
       </c>
@@ -12136,7 +12130,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>45</v>
       </c>
@@ -12186,7 +12180,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>9</v>
       </c>
@@ -12236,7 +12230,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>762</v>
       </c>
@@ -12286,7 +12280,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>77</v>
       </c>
@@ -12336,7 +12330,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>77</v>
       </c>
@@ -12386,7 +12380,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>767</v>
       </c>
@@ -12436,7 +12430,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>32</v>
       </c>
@@ -12486,7 +12480,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>32</v>
       </c>
@@ -12536,7 +12530,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>762</v>
       </c>
@@ -12586,7 +12580,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>77</v>
       </c>
@@ -12636,7 +12630,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>32</v>
       </c>
@@ -12686,7 +12680,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>762</v>
       </c>
@@ -12736,7 +12730,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>767</v>
       </c>
@@ -12786,7 +12780,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>32</v>
       </c>
@@ -12836,7 +12830,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>767</v>
       </c>
@@ -12886,7 +12880,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>767</v>
       </c>
@@ -12936,7 +12930,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>9</v>
       </c>
@@ -12986,7 +12980,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>32</v>
       </c>
@@ -13036,7 +13030,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>767</v>
       </c>
@@ -13086,7 +13080,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>32</v>
       </c>
@@ -13136,7 +13130,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>767</v>
       </c>
@@ -13186,7 +13180,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>32</v>
       </c>
@@ -13236,7 +13230,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>767</v>
       </c>
@@ -13286,7 +13280,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>762</v>
       </c>
@@ -13336,7 +13330,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>32</v>
       </c>
@@ -13386,7 +13380,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>762</v>
       </c>
@@ -13436,7 +13430,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>762</v>
       </c>
@@ -13486,7 +13480,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>32</v>
       </c>
@@ -13536,7 +13530,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>762</v>
       </c>
@@ -13586,7 +13580,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>767</v>
       </c>
@@ -13636,7 +13630,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>41</v>
       </c>
@@ -13686,7 +13680,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>762</v>
       </c>
@@ -13736,7 +13730,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>767</v>
       </c>
@@ -13786,7 +13780,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>767</v>
       </c>
@@ -13836,7 +13830,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>32</v>
       </c>
@@ -13886,7 +13880,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>41</v>
       </c>
@@ -13936,7 +13930,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>767</v>
       </c>
@@ -13986,7 +13980,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>41</v>
       </c>
@@ -14036,7 +14030,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>32</v>
       </c>
@@ -14086,7 +14080,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>41</v>
       </c>
@@ -14136,7 +14130,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>32</v>
       </c>
@@ -14186,7 +14180,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>767</v>
       </c>
@@ -14236,7 +14230,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>9</v>
       </c>
@@ -14286,7 +14280,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>32</v>
       </c>
@@ -14336,7 +14330,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>41</v>
       </c>
@@ -14386,7 +14380,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>41</v>
       </c>
@@ -14436,7 +14430,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>41</v>
       </c>
@@ -14486,7 +14480,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>767</v>
       </c>
@@ -14536,7 +14530,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>767</v>
       </c>
@@ -14571,10 +14565,7 @@
         <v>1</v>
       </c>
       <c r="L169" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M169" t="s">
-        <v>1903</v>
+        <v>1193</v>
       </c>
       <c r="N169" s="9" t="s">
         <v>1198</v>
@@ -14586,7 +14577,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>767</v>
       </c>
@@ -14636,7 +14627,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>32</v>
       </c>
@@ -14686,7 +14677,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>41</v>
       </c>
@@ -14736,7 +14727,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>45</v>
       </c>
@@ -14786,7 +14777,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>762</v>
       </c>
@@ -14836,7 +14827,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>762</v>
       </c>
@@ -14886,7 +14877,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>41</v>
       </c>
@@ -14936,7 +14927,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>32</v>
       </c>
@@ -14986,7 +14977,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>762</v>
       </c>
@@ -15036,7 +15027,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>41</v>
       </c>
@@ -15086,7 +15077,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>767</v>
       </c>
@@ -15136,7 +15127,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>45</v>
       </c>
@@ -15186,7 +15177,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>17</v>
       </c>
@@ -15236,7 +15227,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>41</v>
       </c>
@@ -15286,7 +15277,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>17</v>
       </c>
@@ -15336,7 +15327,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>32</v>
       </c>
@@ -15386,7 +15377,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>41</v>
       </c>
@@ -15436,7 +15427,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>762</v>
       </c>
@@ -15486,7 +15477,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>41</v>
       </c>
@@ -15536,7 +15527,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>32</v>
       </c>
@@ -15586,7 +15577,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>762</v>
       </c>
@@ -15636,7 +15627,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>762</v>
       </c>
@@ -15686,7 +15677,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>767</v>
       </c>
@@ -15736,7 +15727,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>77</v>
       </c>
@@ -15786,7 +15777,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>32</v>
       </c>
@@ -15836,7 +15827,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>41</v>
       </c>
@@ -15886,7 +15877,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>41</v>
       </c>
@@ -15936,7 +15927,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>32</v>
       </c>
@@ -15986,7 +15977,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>32</v>
       </c>
@@ -16036,7 +16027,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>41</v>
       </c>
@@ -16086,7 +16077,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>762</v>
       </c>
@@ -16136,7 +16127,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>9</v>
       </c>
@@ -16186,7 +16177,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>17</v>
       </c>
@@ -16236,7 +16227,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>762</v>
       </c>
@@ -16286,7 +16277,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>41</v>
       </c>
@@ -16336,7 +16327,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>767</v>
       </c>
@@ -16386,7 +16377,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>17</v>
       </c>
@@ -16436,7 +16427,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>762</v>
       </c>
@@ -16486,7 +16477,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>41</v>
       </c>
@@ -16536,7 +16527,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>32</v>
       </c>
@@ -16586,7 +16577,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>32</v>
       </c>
@@ -16636,7 +16627,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>9</v>
       </c>
@@ -16686,7 +16677,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>45</v>
       </c>
@@ -16736,7 +16727,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>41</v>
       </c>
@@ -16786,7 +16777,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
         <v>762</v>
       </c>
@@ -16836,7 +16827,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>41</v>
       </c>
@@ -16886,7 +16877,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>767</v>
       </c>
@@ -16936,7 +16927,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>32</v>
       </c>
@@ -16986,7 +16977,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>32</v>
       </c>
@@ -17036,7 +17027,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>762</v>
       </c>
@@ -17086,7 +17077,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>767</v>
       </c>
@@ -17136,7 +17127,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>762</v>
       </c>
@@ -17186,7 +17177,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>9</v>
       </c>
@@ -17236,7 +17227,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>762</v>
       </c>
@@ -17286,7 +17277,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>767</v>
       </c>
@@ -17336,7 +17327,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>767</v>
       </c>
@@ -17386,7 +17377,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>17</v>
       </c>
@@ -17436,7 +17427,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>9</v>
       </c>
@@ -17486,7 +17477,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>762</v>
       </c>
@@ -17536,7 +17527,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>17</v>
       </c>
@@ -17586,7 +17577,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>762</v>
       </c>
@@ -17636,7 +17627,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>767</v>
       </c>
@@ -17686,7 +17677,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>762</v>
       </c>
@@ -17736,7 +17727,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>17</v>
       </c>
@@ -17786,7 +17777,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>762</v>
       </c>
@@ -17836,7 +17827,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>17</v>
       </c>
@@ -17886,7 +17877,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>32</v>
       </c>
@@ -17936,7 +17927,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>41</v>
       </c>
@@ -17986,7 +17977,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>41</v>
       </c>
@@ -18036,7 +18027,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>45</v>
       </c>
@@ -18086,7 +18077,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
@@ -18136,7 +18127,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
         <v>767</v>
       </c>
@@ -18186,7 +18177,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>41</v>
       </c>
@@ -18236,7 +18227,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
         <v>762</v>
       </c>
@@ -18286,7 +18277,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>32</v>
       </c>
@@ -18336,7 +18327,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>762</v>
       </c>
@@ -18386,7 +18377,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>767</v>
       </c>
@@ -18436,7 +18427,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>41</v>
       </c>
@@ -18486,7 +18477,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>762</v>
       </c>
@@ -18536,7 +18527,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>767</v>
       </c>
@@ -18586,7 +18577,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>77</v>
       </c>
@@ -18636,7 +18627,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>762</v>
       </c>
@@ -18686,7 +18677,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>45</v>
       </c>
@@ -18736,7 +18727,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>41</v>
       </c>
@@ -18786,7 +18777,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>767</v>
       </c>
@@ -18836,7 +18827,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>35</v>
       </c>
@@ -18886,7 +18877,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>762</v>
       </c>
@@ -18936,7 +18927,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>767</v>
       </c>
@@ -18986,7 +18977,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>767</v>
       </c>
@@ -19036,7 +19027,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>767</v>
       </c>
@@ -19086,7 +19077,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>762</v>
       </c>
@@ -19136,7 +19127,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>762</v>
       </c>
@@ -19186,7 +19177,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>41</v>
       </c>
@@ -19236,7 +19227,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>767</v>
       </c>
@@ -19286,7 +19277,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>77</v>
       </c>
@@ -19336,7 +19327,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>762</v>
       </c>
@@ -19386,7 +19377,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>767</v>
       </c>
@@ -19436,7 +19427,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>762</v>
       </c>
@@ -19486,7 +19477,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>17</v>
       </c>
@@ -19536,7 +19527,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>767</v>
       </c>
@@ -19586,7 +19577,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>45</v>
       </c>
@@ -19636,7 +19627,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>767</v>
       </c>
@@ -19686,7 +19677,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>767</v>
       </c>
@@ -19736,7 +19727,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>762</v>
       </c>
@@ -19786,7 +19777,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
         <v>32</v>
       </c>
@@ -19836,7 +19827,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>767</v>
       </c>
@@ -19886,7 +19877,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>762</v>
       </c>
@@ -19936,7 +19927,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>762</v>
       </c>
@@ -19986,7 +19977,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>32</v>
       </c>
@@ -20036,7 +20027,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
         <v>762</v>
       </c>
@@ -20086,7 +20077,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
         <v>77</v>
       </c>
@@ -20136,7 +20127,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>9</v>
       </c>
@@ -20186,7 +20177,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
         <v>767</v>
       </c>
@@ -20236,7 +20227,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
         <v>762</v>
       </c>
@@ -20286,7 +20277,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>9</v>
       </c>
@@ -20336,7 +20327,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
         <v>767</v>
       </c>
@@ -20386,7 +20377,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
         <v>767</v>
       </c>
@@ -20436,7 +20427,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>767</v>
       </c>
@@ -20486,7 +20477,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>762</v>
       </c>
@@ -20536,7 +20527,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>767</v>
       </c>
@@ -20586,7 +20577,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>17</v>
       </c>
@@ -20786,7 +20777,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>32</v>
       </c>
@@ -20836,7 +20827,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>762</v>
       </c>
@@ -20886,7 +20877,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
         <v>32</v>
       </c>
@@ -20936,7 +20927,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>17</v>
       </c>
@@ -20986,7 +20977,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
         <v>41</v>
       </c>
@@ -21036,7 +21027,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
         <v>32</v>
       </c>
@@ -21086,7 +21077,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
         <v>767</v>
       </c>
@@ -21136,7 +21127,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
         <v>762</v>
       </c>
@@ -21186,7 +21177,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
         <v>767</v>
       </c>
@@ -21236,7 +21227,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
         <v>41</v>
       </c>
@@ -21286,7 +21277,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
         <v>767</v>
       </c>
@@ -21336,7 +21327,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>762</v>
       </c>
@@ -21386,7 +21377,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
         <v>41</v>
       </c>
@@ -21436,7 +21427,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>41</v>
       </c>
@@ -21486,7 +21477,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
         <v>767</v>
       </c>
@@ -21536,7 +21527,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>762</v>
       </c>
@@ -21586,7 +21577,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>77</v>
       </c>
@@ -21636,7 +21627,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>32</v>
       </c>
@@ -21686,7 +21677,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>41</v>
       </c>
@@ -21736,7 +21727,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>762</v>
       </c>
@@ -21786,7 +21777,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>767</v>
       </c>
@@ -21821,10 +21812,7 @@
         <v>1</v>
       </c>
       <c r="L314" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M314" t="s">
-        <v>1234</v>
+        <v>1193</v>
       </c>
       <c r="N314" s="9" t="s">
         <v>1198</v>
@@ -21836,7 +21824,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>767</v>
       </c>
@@ -21886,7 +21874,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
         <v>9</v>
       </c>
@@ -21936,7 +21924,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
         <v>32</v>
       </c>
@@ -21986,7 +21974,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>767</v>
       </c>
@@ -22036,7 +22024,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
         <v>32</v>
       </c>
@@ -22086,7 +22074,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>767</v>
       </c>
@@ -22136,7 +22124,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>32</v>
       </c>
@@ -22186,7 +22174,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>17</v>
       </c>
@@ -22234,7 +22222,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
         <v>32</v>
       </c>
@@ -22282,7 +22270,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
         <v>32</v>
       </c>
@@ -22330,7 +22318,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>32</v>
       </c>
@@ -22378,7 +22366,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
         <v>41</v>
       </c>
@@ -22426,7 +22414,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>45</v>
       </c>
@@ -22474,7 +22462,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>45</v>
       </c>
@@ -22522,7 +22510,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>45</v>
       </c>
@@ -22570,7 +22558,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>77</v>
       </c>
@@ -22618,7 +22606,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>77</v>
       </c>
@@ -22666,7 +22654,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
         <v>9</v>
       </c>
@@ -22714,7 +22702,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
         <v>17</v>
       </c>
@@ -22762,7 +22750,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
         <v>32</v>
       </c>
@@ -22810,7 +22798,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>32</v>
       </c>
@@ -22858,7 +22846,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
         <v>32</v>
       </c>
@@ -22906,7 +22894,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>32</v>
       </c>
@@ -22954,7 +22942,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
         <v>32</v>
       </c>
@@ -23002,7 +22990,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>32</v>
       </c>
@@ -23050,7 +23038,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
         <v>32</v>
       </c>
@@ -23098,7 +23086,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
         <v>32</v>
       </c>
@@ -23146,7 +23134,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
         <v>41</v>
       </c>
@@ -23194,7 +23182,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
         <v>41</v>
       </c>
@@ -23242,7 +23230,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>41</v>
       </c>
@@ -23290,7 +23278,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>45</v>
       </c>
@@ -23338,7 +23326,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>45</v>
       </c>
@@ -23386,7 +23374,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>9</v>
       </c>
@@ -23434,7 +23422,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
         <v>9</v>
       </c>
@@ -23482,7 +23470,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
         <v>17</v>
       </c>
@@ -23530,7 +23518,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>17</v>
       </c>
@@ -23578,7 +23566,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>32</v>
       </c>
@@ -23626,7 +23614,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
         <v>32</v>
       </c>
@@ -23674,7 +23662,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>32</v>
       </c>
@@ -23722,7 +23710,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>32</v>
       </c>
@@ -23770,7 +23758,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>32</v>
       </c>
@@ -23818,7 +23806,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
         <v>32</v>
       </c>
@@ -23866,7 +23854,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>32</v>
       </c>
@@ -23914,7 +23902,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
         <v>32</v>
       </c>
@@ -23962,7 +23950,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
         <v>32</v>
       </c>
@@ -24010,7 +23998,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
         <v>32</v>
       </c>
@@ -24058,7 +24046,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>32</v>
       </c>
@@ -24106,7 +24094,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
         <v>32</v>
       </c>
@@ -24154,7 +24142,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
         <v>32</v>
       </c>
@@ -24202,7 +24190,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
         <v>32</v>
       </c>
@@ -24250,7 +24238,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
         <v>32</v>
       </c>
@@ -24298,7 +24286,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
         <v>32</v>
       </c>
@@ -24346,7 +24334,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
         <v>32</v>
       </c>
@@ -24394,7 +24382,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
         <v>41</v>
       </c>
@@ -24442,7 +24430,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>41</v>
       </c>
@@ -24490,7 +24478,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>41</v>
       </c>
@@ -24538,7 +24526,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
         <v>41</v>
       </c>
@@ -24586,7 +24574,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
         <v>41</v>
       </c>
@@ -24634,7 +24622,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
         <v>41</v>
       </c>
@@ -24682,7 +24670,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
         <v>45</v>
       </c>
@@ -24730,7 +24718,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
         <v>45</v>
       </c>
@@ -24778,7 +24766,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
         <v>45</v>
       </c>
@@ -24826,7 +24814,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
         <v>45</v>
       </c>
@@ -24874,7 +24862,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
         <v>17</v>
       </c>
@@ -24922,7 +24910,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
         <v>17</v>
       </c>
@@ -24970,7 +24958,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>17</v>
       </c>
@@ -25018,7 +25006,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
         <v>32</v>
       </c>
@@ -25066,7 +25054,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
         <v>41</v>
       </c>
@@ -25114,7 +25102,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
         <v>32</v>
       </c>
@@ -25162,7 +25150,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
         <v>32</v>
       </c>
@@ -25210,7 +25198,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
         <v>32</v>
       </c>
@@ -25258,7 +25246,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
         <v>41</v>
       </c>
@@ -25306,7 +25294,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
         <v>32</v>
       </c>
@@ -25354,7 +25342,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
         <v>41</v>
       </c>
@@ -25402,7 +25390,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
         <v>32</v>
       </c>
@@ -25450,7 +25438,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
         <v>767</v>
       </c>
@@ -25498,7 +25486,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
         <v>767</v>
       </c>
@@ -25546,7 +25534,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
         <v>767</v>
       </c>
@@ -25594,7 +25582,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
         <v>767</v>
       </c>
@@ -25642,7 +25630,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
         <v>767</v>
       </c>
@@ -25690,7 +25678,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
         <v>767</v>
       </c>
@@ -25738,7 +25726,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
         <v>762</v>
       </c>
@@ -25786,7 +25774,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
         <v>767</v>
       </c>
@@ -25834,7 +25822,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
         <v>767</v>
       </c>
@@ -25882,7 +25870,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
         <v>767</v>
       </c>
@@ -25930,7 +25918,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
         <v>767</v>
       </c>
@@ -25978,7 +25966,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
         <v>762</v>
       </c>
@@ -26026,7 +26014,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
         <v>762</v>
       </c>
@@ -26074,7 +26062,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
         <v>767</v>
       </c>
@@ -26122,7 +26110,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
         <v>762</v>
       </c>
@@ -26170,7 +26158,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
         <v>767</v>
       </c>
@@ -26218,7 +26206,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
         <v>767</v>
       </c>
@@ -26266,7 +26254,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
         <v>762</v>
       </c>
@@ -26314,7 +26302,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" s="11" t="s">
         <v>762</v>
       </c>
@@ -26362,7 +26350,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
         <v>767</v>
       </c>
@@ -26410,7 +26398,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
         <v>762</v>
       </c>
@@ -26458,7 +26446,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
         <v>762</v>
       </c>
@@ -26506,7 +26494,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
         <v>762</v>
       </c>
@@ -26554,7 +26542,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
         <v>762</v>
       </c>
@@ -26602,7 +26590,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
         <v>762</v>
       </c>
@@ -26650,7 +26638,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A415" s="11" t="s">
         <v>762</v>
       </c>
@@ -26698,7 +26686,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
         <v>45</v>
       </c>
@@ -26746,7 +26734,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
         <v>45</v>
       </c>
@@ -26794,7 +26782,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A418" s="11" t="s">
         <v>762</v>
       </c>
@@ -26842,7 +26830,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A419" s="11" t="s">
         <v>762</v>
       </c>
@@ -26890,7 +26878,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
         <v>32</v>
       </c>
@@ -26938,7 +26926,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
         <v>41</v>
       </c>
@@ -26986,7 +26974,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A422" s="11" t="s">
         <v>767</v>
       </c>
@@ -27034,7 +27022,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A423" s="11" t="s">
         <v>767</v>
       </c>
@@ -27082,7 +27070,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
         <v>9</v>
       </c>
@@ -27130,7 +27118,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A425" s="11" t="s">
         <v>767</v>
       </c>
@@ -27178,7 +27166,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>32</v>
       </c>
@@ -27226,7 +27214,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A427" s="11" t="s">
         <v>762</v>
       </c>
@@ -27274,7 +27262,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A428" s="11" t="s">
         <v>762</v>
       </c>
@@ -27322,7 +27310,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
         <v>41</v>
       </c>
@@ -27370,7 +27358,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
         <v>32</v>
       </c>
@@ -27418,7 +27406,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A431" s="11" t="s">
         <v>767</v>
       </c>
@@ -27466,7 +27454,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
         <v>17</v>
       </c>
@@ -27514,7 +27502,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" s="11" t="s">
         <v>767</v>
       </c>
@@ -27562,7 +27550,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
         <v>41</v>
       </c>
@@ -27610,7 +27598,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" s="11" t="s">
         <v>762</v>
       </c>
@@ -27658,7 +27646,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
         <v>41</v>
       </c>
@@ -27706,7 +27694,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" s="11" t="s">
         <v>767</v>
       </c>
@@ -27754,7 +27742,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438" s="11" t="s">
         <v>762</v>
       </c>
@@ -27802,7 +27790,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439" s="11" t="s">
         <v>767</v>
       </c>
@@ -27850,7 +27838,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" s="11" t="s">
         <v>767</v>
       </c>
@@ -27898,7 +27886,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
         <v>41</v>
       </c>
@@ -27946,7 +27934,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
         <v>41</v>
       </c>
@@ -27994,7 +27982,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>32</v>
       </c>
@@ -28042,7 +28030,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
         <v>32</v>
       </c>
@@ -28090,7 +28078,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
         <v>41</v>
       </c>
@@ -28138,7 +28126,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
         <v>9</v>
       </c>
@@ -28186,7 +28174,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A447" s="11" t="s">
         <v>762</v>
       </c>
@@ -28234,7 +28222,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
         <v>17</v>
       </c>
@@ -28282,7 +28270,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A449" s="11" t="s">
         <v>767</v>
       </c>
@@ -28330,7 +28318,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A450" s="11" t="s">
         <v>762</v>
       </c>
@@ -28378,7 +28366,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A451" s="11" t="s">
         <v>762</v>
       </c>
@@ -28426,7 +28414,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
         <v>32</v>
       </c>
@@ -28474,7 +28462,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="453" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A453" s="11" t="s">
         <v>762</v>
       </c>
@@ -28522,7 +28510,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
         <v>17</v>
       </c>
@@ -28570,7 +28558,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
         <v>32</v>
       </c>
@@ -28618,7 +28606,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
         <v>32</v>
       </c>
@@ -28666,7 +28654,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A457" s="11" t="s">
         <v>762</v>
       </c>
@@ -28714,7 +28702,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A458" s="11" t="s">
         <v>767</v>
       </c>
@@ -28762,7 +28750,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="459" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A459" s="11" t="s">
         <v>762</v>
       </c>
@@ -28810,7 +28798,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A460" s="11" t="s">
         <v>767</v>
       </c>
@@ -28858,7 +28846,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
         <v>41</v>
       </c>
@@ -28906,7 +28894,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A462" s="11" t="s">
         <v>767</v>
       </c>
@@ -28954,7 +28942,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A463" s="11" t="s">
         <v>767</v>
       </c>
@@ -29002,7 +28990,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A464" s="11" t="s">
         <v>762</v>
       </c>
@@ -29050,7 +29038,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A465" s="11" t="s">
         <v>767</v>
       </c>
@@ -29098,7 +29086,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
         <v>32</v>
       </c>
@@ -29146,7 +29134,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
         <v>77</v>
       </c>
@@ -29194,7 +29182,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A468" s="11" t="s">
         <v>767</v>
       </c>
@@ -29242,7 +29230,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="s">
         <v>45</v>
       </c>
@@ -29290,7 +29278,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
         <v>32</v>
       </c>
@@ -29338,7 +29326,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A471" s="11" t="s">
         <v>767</v>
       </c>
@@ -29386,7 +29374,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
         <v>9</v>
       </c>
@@ -29434,7 +29422,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A473" s="11" t="s">
         <v>762</v>
       </c>
@@ -29482,7 +29470,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A474" s="9" t="s">
         <v>9</v>
       </c>
@@ -29530,7 +29518,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
         <v>32</v>
       </c>
@@ -29578,7 +29566,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A476" s="11" t="s">
         <v>762</v>
       </c>
@@ -29626,7 +29614,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
         <v>32</v>
       </c>
@@ -29674,7 +29662,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
         <v>77</v>
       </c>
@@ -29722,7 +29710,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A479" s="11" t="s">
         <v>767</v>
       </c>
@@ -29770,7 +29758,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A480" s="11" t="s">
         <v>762</v>
       </c>
@@ -29818,7 +29806,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>32</v>
       </c>
@@ -29866,7 +29854,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A482" s="11" t="s">
         <v>767</v>
       </c>
@@ -29914,7 +29902,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
         <v>9</v>
       </c>
@@ -29962,7 +29950,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
         <v>41</v>
       </c>
@@ -30011,14 +29999,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P484" xr:uid="{9C37FD76-4C09-409F-B9A8-72882E138BC1}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Temos disponíveis em outras editoras"/>
-        <filter val="Temos na versão audiolivro"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P484" xr:uid="{9C37FD76-4C09-409F-B9A8-72882E138BC1}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>